--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10197378\Desktop\CPI\Dashboard\Github_Files\CPI_Bahrain-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/ghina_koteich_un_org/Documents/Online CPI Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF084121-B219-4AC0-A957-B2AB1F5833B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{82ED7650-79C0-4C03-BEF2-B819E65DA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED947895-04AE-4AE9-8125-438204945045}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AG$222</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="220">
   <si>
     <t>Indicator</t>
   </si>
@@ -216,11 +227,482 @@
   <si>
     <t>2022-06</t>
   </si>
+  <si>
+    <t>112.6</t>
+  </si>
+  <si>
+    <t>129.8</t>
+  </si>
+  <si>
+    <t>109.8</t>
+  </si>
+  <si>
+    <t>103.6</t>
+  </si>
+  <si>
+    <t>107.5</t>
+  </si>
+  <si>
+    <t>101.9</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>105.3</t>
+  </si>
+  <si>
+    <t>111.7</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>110.8</t>
+  </si>
+  <si>
+    <t>126.03</t>
+  </si>
+  <si>
+    <t>139.53</t>
+  </si>
+  <si>
+    <t>179.25</t>
+  </si>
+  <si>
+    <t>109.43</t>
+  </si>
+  <si>
+    <t>107.27</t>
+  </si>
+  <si>
+    <t>112.18</t>
+  </si>
+  <si>
+    <t>143.83</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>79.52</t>
+  </si>
+  <si>
+    <t>114.97</t>
+  </si>
+  <si>
+    <t>131.10</t>
+  </si>
+  <si>
+    <t>118.75</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>107.58</t>
+  </si>
+  <si>
+    <t>106.34</t>
+  </si>
+  <si>
+    <t>103.93</t>
+  </si>
+  <si>
+    <t>96.35</t>
+  </si>
+  <si>
+    <t>110.20</t>
+  </si>
+  <si>
+    <t>106.24</t>
+  </si>
+  <si>
+    <t>111.21</t>
+  </si>
+  <si>
+    <t>109.06</t>
+  </si>
+  <si>
+    <t>103.32</t>
+  </si>
+  <si>
+    <t>108.78</t>
+  </si>
+  <si>
+    <t>105.63</t>
+  </si>
+  <si>
+    <t>116.27</t>
+  </si>
+  <si>
+    <t>106.35</t>
+  </si>
+  <si>
+    <t>125.3</t>
+  </si>
+  <si>
+    <t>134.4</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>124.2</t>
+  </si>
+  <si>
+    <t>117.7</t>
+  </si>
+  <si>
+    <t>131.1</t>
+  </si>
+  <si>
+    <t>115.2</t>
+  </si>
+  <si>
+    <t>137.5</t>
+  </si>
+  <si>
+    <t>120.5</t>
+  </si>
+  <si>
+    <t>123.6</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>126.9</t>
+  </si>
+  <si>
+    <t>122.3</t>
+  </si>
+  <si>
+    <t>109.2</t>
+  </si>
+  <si>
+    <t>110.1</t>
+  </si>
+  <si>
+    <t>261.6</t>
+  </si>
+  <si>
+    <t>98.7</t>
+  </si>
+  <si>
+    <t>105.</t>
+  </si>
+  <si>
+    <t>121.4</t>
+  </si>
+  <si>
+    <t>112.2</t>
+  </si>
+  <si>
+    <t>118.7</t>
+  </si>
+  <si>
+    <t>94.9</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>138.9</t>
+  </si>
+  <si>
+    <t>105.2</t>
+  </si>
+  <si>
+    <t>104.2</t>
+  </si>
+  <si>
+    <t>109.7</t>
+  </si>
+  <si>
+    <t>98.9</t>
+  </si>
+  <si>
+    <t>121.7</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>105.1</t>
+  </si>
+  <si>
+    <t>104.3</t>
+  </si>
+  <si>
+    <t>53029.51</t>
+  </si>
+  <si>
+    <t>32350.77</t>
+  </si>
+  <si>
+    <t>24170.48</t>
+  </si>
+  <si>
+    <t>39431.39</t>
+  </si>
+  <si>
+    <t>21167.13</t>
+  </si>
+  <si>
+    <t>34793.10</t>
+  </si>
+  <si>
+    <t>19892.54</t>
+  </si>
+  <si>
+    <t>282680.35</t>
+  </si>
+  <si>
+    <t>18513.55</t>
+  </si>
+  <si>
+    <t>98618.97</t>
+  </si>
+  <si>
+    <t>14856.71</t>
+  </si>
+  <si>
+    <t>41549.50</t>
+  </si>
+  <si>
+    <t>36116.90</t>
+  </si>
+  <si>
+    <t>56088.55</t>
+  </si>
+  <si>
+    <t>34795.46</t>
+  </si>
+  <si>
+    <t>24425.05</t>
+  </si>
+  <si>
+    <t>40946.75</t>
+  </si>
+  <si>
+    <t>21302.38</t>
+  </si>
+  <si>
+    <t>36616.13</t>
+  </si>
+  <si>
+    <t>21556.52</t>
+  </si>
+  <si>
+    <t>292498.23</t>
+  </si>
+  <si>
+    <t>18784.65</t>
+  </si>
+  <si>
+    <t>128456.29</t>
+  </si>
+  <si>
+    <t>14861.17</t>
+  </si>
+  <si>
+    <t>42732.87</t>
+  </si>
+  <si>
+    <t>36908.69</t>
+  </si>
+  <si>
+    <t>106.39</t>
+  </si>
+  <si>
+    <t>108.40</t>
+  </si>
+  <si>
+    <t>105.94</t>
+  </si>
+  <si>
+    <t>97.32</t>
+  </si>
+  <si>
+    <t>107.19</t>
+  </si>
+  <si>
+    <t>103.66</t>
+  </si>
+  <si>
+    <t>100.18</t>
+  </si>
+  <si>
+    <t>107.42</t>
+  </si>
+  <si>
+    <t>96.32</t>
+  </si>
+  <si>
+    <t>124.21</t>
+  </si>
+  <si>
+    <t>103.62</t>
+  </si>
+  <si>
+    <t>111.94</t>
+  </si>
+  <si>
+    <t>109.86</t>
+  </si>
+  <si>
+    <t>287.8</t>
+  </si>
+  <si>
+    <t>326.9</t>
+  </si>
+  <si>
+    <t>264.1</t>
+  </si>
+  <si>
+    <t>434.9</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>365.4</t>
+  </si>
+  <si>
+    <t>347.9</t>
+  </si>
+  <si>
+    <t>209.2</t>
+  </si>
+  <si>
+    <t>83.9</t>
+  </si>
+  <si>
+    <t>207.8</t>
+  </si>
+  <si>
+    <t>380.1</t>
+  </si>
+  <si>
+    <t>347.0</t>
+  </si>
+  <si>
+    <t>301.3</t>
+  </si>
+  <si>
+    <t>129.9</t>
+  </si>
+  <si>
+    <t>120.9</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>124.9</t>
+  </si>
+  <si>
+    <t>132.4</t>
+  </si>
+  <si>
+    <t>104.5</t>
+  </si>
+  <si>
+    <t>154.7</t>
+  </si>
+  <si>
+    <t>196.4</t>
+  </si>
+  <si>
+    <t>137.1</t>
+  </si>
+  <si>
+    <t>128.1</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>114.4</t>
+  </si>
+  <si>
+    <t>130.7</t>
+  </si>
+  <si>
+    <t>84.1</t>
+  </si>
+  <si>
+    <t>93.8</t>
+  </si>
+  <si>
+    <t>98.2</t>
+  </si>
+  <si>
+    <t>100.9</t>
+  </si>
+  <si>
+    <t>108.7</t>
+  </si>
+  <si>
+    <t>100.3</t>
+  </si>
+  <si>
+    <t>65.1</t>
+  </si>
+  <si>
+    <t>103.4</t>
+  </si>
+  <si>
+    <t>1286.76</t>
+  </si>
+  <si>
+    <t>5289.71</t>
+  </si>
+  <si>
+    <t>3919.94</t>
+  </si>
+  <si>
+    <t>5886.36</t>
+  </si>
+  <si>
+    <t>356.26</t>
+  </si>
+  <si>
+    <t>4575.85</t>
+  </si>
+  <si>
+    <t>768.51</t>
+  </si>
+  <si>
+    <t>3010.09</t>
+  </si>
+  <si>
+    <t>203.01</t>
+  </si>
+  <si>
+    <t>1337.65</t>
+  </si>
+  <si>
+    <t>187.80</t>
+  </si>
+  <si>
+    <t>6379.56</t>
+  </si>
+  <si>
+    <t>2614.18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,11 +761,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,11 +1134,14 @@
   <dimension ref="A1:AG222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N25" sqref="N25"/>
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -829,6 +1341,9 @@
       <c r="AF2">
         <v>100.1</v>
       </c>
+      <c r="AG2" s="28" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -927,6 +1442,9 @@
       <c r="AF3">
         <v>130.19999999999999</v>
       </c>
+      <c r="AG3" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1025,6 +1543,9 @@
       <c r="AF4">
         <v>116.4</v>
       </c>
+      <c r="AG4">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1123,6 +1644,9 @@
       <c r="AF5">
         <v>106.52647649009005</v>
       </c>
+      <c r="AG5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1221,6 +1745,9 @@
       <c r="AF6">
         <v>124.8</v>
       </c>
+      <c r="AG6" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1319,6 +1846,9 @@
       <c r="AF7">
         <v>1177.9901683857299</v>
       </c>
+      <c r="AG7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1384,6 +1914,12 @@
       <c r="U8">
         <v>274.40895890000002</v>
       </c>
+      <c r="V8">
+        <v>276.8</v>
+      </c>
+      <c r="W8">
+        <v>277.39999999999998</v>
+      </c>
       <c r="X8">
         <v>277.8</v>
       </c>
@@ -1404,6 +1940,9 @@
       </c>
       <c r="AD8">
         <v>287.5</v>
+      </c>
+      <c r="AF8" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -1500,6 +2039,9 @@
       <c r="AE9">
         <v>124.84053868130533</v>
       </c>
+      <c r="AF9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1598,6 +2140,9 @@
       <c r="AF10">
         <v>110.2</v>
       </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1693,6 +2238,12 @@
       <c r="AE11">
         <v>109.2</v>
       </c>
+      <c r="AF11" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1791,6 +2342,9 @@
       <c r="AF12">
         <v>105.99</v>
       </c>
+      <c r="AG12" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1990,6 +2544,9 @@
       <c r="AF14">
         <v>106.42</v>
       </c>
+      <c r="AG14">
+        <v>106.66</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2085,6 +2642,12 @@
       <c r="AE15">
         <v>49662.75</v>
       </c>
+      <c r="AF15" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG15" s="15" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2227,6 +2790,12 @@
       <c r="AE17">
         <v>144.5</v>
       </c>
+      <c r="AF17">
+        <v>149.5</v>
+      </c>
+      <c r="AG17">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2408,6 +2977,9 @@
       <c r="AF19">
         <v>113.6</v>
       </c>
+      <c r="AG19" s="28" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2506,6 +3078,9 @@
       <c r="AF20">
         <v>132.9</v>
       </c>
+      <c r="AG20" s="28" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2604,6 +3179,9 @@
       <c r="AF21">
         <v>109.3</v>
       </c>
+      <c r="AG21">
+        <v>107.4</v>
+      </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2702,6 +3280,9 @@
       <c r="AF22">
         <v>107.98002181566186</v>
       </c>
+      <c r="AG22" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2800,6 +3381,9 @@
       <c r="AF23">
         <v>132.80000000000001</v>
       </c>
+      <c r="AG23" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2898,6 +3482,9 @@
       <c r="AF24">
         <v>4899.39063071073</v>
       </c>
+      <c r="AG24" s="28" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2963,6 +3550,12 @@
       <c r="U25">
         <v>313.12704830000001</v>
       </c>
+      <c r="V25">
+        <v>315.39999999999998</v>
+      </c>
+      <c r="W25">
+        <v>316.89999999999998</v>
+      </c>
       <c r="X25">
         <v>316.8</v>
       </c>
@@ -2983,6 +3576,9 @@
       </c>
       <c r="AD25">
         <v>326.5</v>
+      </c>
+      <c r="AF25" s="28" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
@@ -3079,6 +3675,9 @@
       <c r="AE26">
         <v>137.18596185113901</v>
       </c>
+      <c r="AF26" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3177,6 +3776,9 @@
       <c r="AF27">
         <v>112.5</v>
       </c>
+      <c r="AG27" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -3272,6 +3874,12 @@
       <c r="AE28">
         <v>109.9</v>
       </c>
+      <c r="AF28" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG28" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3370,6 +3978,9 @@
       <c r="AF29">
         <v>109.93</v>
       </c>
+      <c r="AG29" s="17" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -3569,6 +4180,9 @@
       <c r="AF31">
         <v>121.48</v>
       </c>
+      <c r="AG31">
+        <v>121.93</v>
+      </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -3664,6 +4278,12 @@
       <c r="AE32">
         <v>30734.6</v>
       </c>
+      <c r="AF32" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG32" s="15" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -3806,6 +4426,12 @@
       <c r="AE34">
         <v>144.1</v>
       </c>
+      <c r="AF34">
+        <v>149.9</v>
+      </c>
+      <c r="AG34">
+        <v>150.69999999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -3987,6 +4613,9 @@
       <c r="AF36">
         <v>130.69999999999999</v>
       </c>
+      <c r="AG36" s="28" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -4085,6 +4714,9 @@
       <c r="AF37">
         <v>120.5</v>
       </c>
+      <c r="AG37" s="28" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -4183,6 +4815,9 @@
       <c r="AF38">
         <v>140.80000000000001</v>
       </c>
+      <c r="AG38">
+        <v>140.69999999999999</v>
+      </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -4281,6 +4916,9 @@
       <c r="AF39">
         <v>103.9091029232348</v>
       </c>
+      <c r="AG39" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -4379,6 +5017,9 @@
       <c r="AF40">
         <v>135</v>
       </c>
+      <c r="AG40" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -4477,6 +5118,9 @@
       <c r="AF41">
         <v>3359.1870267580011</v>
       </c>
+      <c r="AG41" s="28" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -4542,6 +5186,12 @@
       <c r="U42">
         <v>264.10000000000002</v>
       </c>
+      <c r="V42">
+        <v>264.10000000000002</v>
+      </c>
+      <c r="W42">
+        <v>264.10000000000002</v>
+      </c>
       <c r="X42">
         <v>264.10000000000002</v>
       </c>
@@ -4562,6 +5212,9 @@
       </c>
       <c r="AD42">
         <v>264.10000000000002</v>
+      </c>
+      <c r="AF42" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
@@ -4658,6 +5311,9 @@
       <c r="AE43">
         <v>180.64358770301911</v>
       </c>
+      <c r="AF43" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -4756,6 +5412,9 @@
       <c r="AF44">
         <v>129.80000000000001</v>
       </c>
+      <c r="AG44" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -4851,6 +5510,12 @@
       <c r="AE45">
         <v>261.60000000000002</v>
       </c>
+      <c r="AF45" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG45" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -4949,6 +5614,9 @@
       <c r="AF46">
         <v>105.2</v>
       </c>
+      <c r="AG46" s="18" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -5148,6 +5816,9 @@
       <c r="AF48">
         <v>114.77</v>
       </c>
+      <c r="AG48">
+        <v>114.77</v>
+      </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -5243,6 +5914,12 @@
       <c r="AE49">
         <v>23679.61</v>
       </c>
+      <c r="AF49" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG49" s="15" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -5385,6 +6062,12 @@
       <c r="AE51">
         <v>177.8</v>
       </c>
+      <c r="AF51">
+        <v>186.5</v>
+      </c>
+      <c r="AG51">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -5566,6 +6249,9 @@
       <c r="AF53">
         <v>88.8</v>
       </c>
+      <c r="AG53" s="28" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -5664,6 +6350,9 @@
       <c r="AF54">
         <v>116.7</v>
       </c>
+      <c r="AG54" s="28" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -5762,6 +6451,9 @@
       <c r="AF55">
         <v>110.1</v>
       </c>
+      <c r="AG55">
+        <v>110.2</v>
+      </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -5860,6 +6552,9 @@
       <c r="AF56">
         <v>96.404970154756015</v>
       </c>
+      <c r="AG56" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -5958,6 +6653,9 @@
       <c r="AF57">
         <v>123.6</v>
       </c>
+      <c r="AG57" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -6056,6 +6754,9 @@
       <c r="AF58">
         <v>5874.2666158627626</v>
       </c>
+      <c r="AG58" s="28" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -6121,6 +6822,12 @@
       <c r="U59">
         <v>415.43700280000002</v>
       </c>
+      <c r="V59">
+        <v>417.1</v>
+      </c>
+      <c r="W59">
+        <v>416.5</v>
+      </c>
       <c r="X59">
         <v>417.7</v>
       </c>
@@ -6141,6 +6848,9 @@
       </c>
       <c r="AD59">
         <v>430.9</v>
+      </c>
+      <c r="AF59" s="28" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.3">
@@ -6237,6 +6947,9 @@
       <c r="AE60">
         <v>109.85953002503798</v>
       </c>
+      <c r="AF60" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -6335,6 +7048,9 @@
       <c r="AF61">
         <v>109.6</v>
       </c>
+      <c r="AG61" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -6430,6 +7146,12 @@
       <c r="AE62">
         <v>98.8</v>
       </c>
+      <c r="AF62" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG62" s="15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -6528,6 +7250,9 @@
       <c r="AF63">
         <v>97.33</v>
       </c>
+      <c r="AG63" s="19" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -6630,7 +7355,7 @@
         <v>89.95</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -6727,8 +7452,11 @@
       <c r="AF65">
         <v>102.58</v>
       </c>
+      <c r="AG65">
+        <v>102.67</v>
+      </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -6822,8 +7550,14 @@
       <c r="AE66">
         <v>37269.620000000003</v>
       </c>
+      <c r="AF66" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG66" s="15" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -6870,7 +7604,7 @@
         <v>2537.0300000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -6964,8 +7698,14 @@
       <c r="AE68">
         <v>164.8</v>
       </c>
+      <c r="AF68">
+        <v>170.3</v>
+      </c>
+      <c r="AG68">
+        <v>173.3</v>
+      </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7048,7 +7788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -7145,8 +7885,11 @@
       <c r="AF70">
         <v>93.5</v>
       </c>
+      <c r="AG70" s="28" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -7243,8 +7986,11 @@
       <c r="AF71">
         <v>122</v>
       </c>
+      <c r="AG71" s="28" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -7341,8 +8087,11 @@
       <c r="AF72">
         <v>118</v>
       </c>
+      <c r="AG72">
+        <v>122.5</v>
+      </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -7439,8 +8188,11 @@
       <c r="AF73">
         <v>106.85943349001833</v>
       </c>
+      <c r="AG73" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -7537,8 +8289,11 @@
       <c r="AF74">
         <v>117.7</v>
       </c>
+      <c r="AG74" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -7635,8 +8390,11 @@
       <c r="AF75">
         <v>298.59157252784809</v>
       </c>
+      <c r="AG75" s="28" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -7700,6 +8458,12 @@
       <c r="U76">
         <v>176.45001439999999</v>
       </c>
+      <c r="V76">
+        <v>176.6</v>
+      </c>
+      <c r="W76">
+        <v>176.7</v>
+      </c>
       <c r="X76">
         <v>177.9</v>
       </c>
@@ -7721,8 +8485,11 @@
       <c r="AD76">
         <v>189.5</v>
       </c>
+      <c r="AF76" s="28" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -7816,8 +8583,11 @@
       <c r="AE77">
         <v>107.16595453483667</v>
       </c>
+      <c r="AF77" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -7914,8 +8684,11 @@
       <c r="AF78">
         <v>103.4</v>
       </c>
+      <c r="AG78" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -8009,8 +8782,14 @@
       <c r="AE79">
         <v>106.4</v>
       </c>
+      <c r="AF79" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG79" s="15">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -8106,6 +8885,9 @@
       </c>
       <c r="AF80">
         <v>106.72</v>
+      </c>
+      <c r="AG80" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.3">
@@ -8306,6 +9088,9 @@
       <c r="AF82">
         <v>88.9</v>
       </c>
+      <c r="AG82">
+        <v>89.04</v>
+      </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -8401,6 +9186,12 @@
       <c r="AE83">
         <v>20478.63</v>
       </c>
+      <c r="AF83" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG83" s="15" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -8543,6 +9334,12 @@
       <c r="AE85">
         <v>136.69999999999999</v>
       </c>
+      <c r="AF85">
+        <v>141.5</v>
+      </c>
+      <c r="AG85">
+        <v>142.19999999999999</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -8724,6 +9521,9 @@
       <c r="AF87">
         <v>99.6</v>
       </c>
+      <c r="AG87" s="28" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -8822,6 +9622,9 @@
       <c r="AF88">
         <v>115.7</v>
       </c>
+      <c r="AG88" s="28" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -8920,6 +9723,9 @@
       <c r="AF89">
         <v>108.4</v>
       </c>
+      <c r="AG89">
+        <v>109.8</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -9018,6 +9824,9 @@
       <c r="AF90">
         <v>103.91373088712399</v>
       </c>
+      <c r="AG90" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -9116,6 +9925,9 @@
       <c r="AF91">
         <v>130.9</v>
       </c>
+      <c r="AG91" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -9214,6 +10026,9 @@
       <c r="AF92">
         <v>4366.78506867329</v>
       </c>
+      <c r="AG92" s="28" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -9279,6 +10094,12 @@
       <c r="U93">
         <v>352.3796284</v>
       </c>
+      <c r="V93">
+        <v>355.2</v>
+      </c>
+      <c r="W93">
+        <v>355.5</v>
+      </c>
       <c r="X93">
         <v>355.8</v>
       </c>
@@ -9299,6 +10120,9 @@
       </c>
       <c r="AD93">
         <v>363</v>
+      </c>
+      <c r="AF93" s="28" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
@@ -9395,6 +10219,9 @@
       <c r="AE94">
         <v>112.62731839722373</v>
       </c>
+      <c r="AF94" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -9493,6 +10320,9 @@
       <c r="AF95">
         <v>106.6</v>
       </c>
+      <c r="AG95" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -9588,6 +10418,12 @@
       <c r="AE96">
         <v>121</v>
       </c>
+      <c r="AF96" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG96" s="15" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -9686,6 +10522,9 @@
       <c r="AF97">
         <v>103.12</v>
       </c>
+      <c r="AG97" s="21" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -9885,6 +10724,9 @@
       <c r="AF99">
         <v>110.32</v>
       </c>
+      <c r="AG99">
+        <v>109.88</v>
+      </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -9980,6 +10822,12 @@
       <c r="AE100">
         <v>32713.279999999999</v>
       </c>
+      <c r="AF100" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG100" s="15" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -10122,6 +10970,12 @@
       <c r="AE102">
         <v>148.6</v>
       </c>
+      <c r="AF102">
+        <v>154.6</v>
+      </c>
+      <c r="AG102">
+        <v>157.19999999999999</v>
+      </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -10303,6 +11157,9 @@
       <c r="AF104">
         <v>100.9</v>
       </c>
+      <c r="AG104" s="28" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -10401,6 +11258,9 @@
       <c r="AF105">
         <v>123.8</v>
       </c>
+      <c r="AG105" s="28" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -10499,6 +11359,9 @@
       <c r="AF106">
         <v>149.19999999999999</v>
       </c>
+      <c r="AG106">
+        <v>149.80000000000001</v>
+      </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -10597,6 +11460,9 @@
       <c r="AF107">
         <v>105.95519000591874</v>
       </c>
+      <c r="AG107" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -10695,6 +11561,9 @@
       <c r="AF108">
         <v>114.4</v>
       </c>
+      <c r="AG108" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -10793,6 +11662,9 @@
       <c r="AF109">
         <v>734.62727276641567</v>
       </c>
+      <c r="AG109" s="28" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -10858,6 +11730,12 @@
       <c r="U110">
         <v>336.7622303</v>
       </c>
+      <c r="V110">
+        <v>337.6</v>
+      </c>
+      <c r="W110">
+        <v>337.6</v>
+      </c>
       <c r="X110">
         <v>339</v>
       </c>
@@ -10878,6 +11756,9 @@
       </c>
       <c r="AD110">
         <v>346.8</v>
+      </c>
+      <c r="AF110" s="28" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.3">
@@ -10974,6 +11855,9 @@
       <c r="AE111">
         <v>143.6517452953386</v>
       </c>
+      <c r="AF111" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -11072,6 +11956,9 @@
       <c r="AF112">
         <v>101.9</v>
       </c>
+      <c r="AG112" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
@@ -11167,6 +12054,12 @@
       <c r="AE113">
         <v>112.2</v>
       </c>
+      <c r="AF113" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG113" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
@@ -11265,6 +12158,9 @@
       <c r="AF114">
         <v>99.57</v>
       </c>
+      <c r="AG114" s="22" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -11464,6 +12360,9 @@
       <c r="AF116">
         <v>103.22</v>
       </c>
+      <c r="AG116">
+        <v>103.22</v>
+      </c>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -11559,6 +12458,12 @@
       <c r="AE117">
         <v>18144.330000000002</v>
       </c>
+      <c r="AF117" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG117" s="15" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
@@ -11701,6 +12606,12 @@
       <c r="AE119">
         <v>139.1</v>
       </c>
+      <c r="AF119">
+        <v>141.4</v>
+      </c>
+      <c r="AG119">
+        <v>141.80000000000001</v>
+      </c>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
@@ -11882,6 +12793,9 @@
       <c r="AF121">
         <v>108.6</v>
       </c>
+      <c r="AG121" s="28" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -11980,6 +12894,9 @@
       <c r="AF122">
         <v>129.6</v>
       </c>
+      <c r="AG122" s="28" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -12078,6 +12995,9 @@
       <c r="AF123">
         <v>112.9</v>
       </c>
+      <c r="AG123">
+        <v>113.5</v>
+      </c>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -12176,6 +13096,9 @@
       <c r="AF124">
         <v>107.67036278709638</v>
       </c>
+      <c r="AG124" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
@@ -12274,6 +13197,9 @@
       <c r="AF125">
         <v>137.1</v>
       </c>
+      <c r="AG125" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
@@ -12372,6 +13298,9 @@
       <c r="AF126">
         <v>2811.9837487175205</v>
       </c>
+      <c r="AG126" s="28" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
@@ -12437,6 +13366,12 @@
       <c r="U127">
         <v>189.142079</v>
       </c>
+      <c r="V127">
+        <v>202.9</v>
+      </c>
+      <c r="W127">
+        <v>202.9</v>
+      </c>
       <c r="X127">
         <v>203.6</v>
       </c>
@@ -12457,6 +13392,9 @@
       </c>
       <c r="AD127">
         <v>208.1</v>
+      </c>
+      <c r="AF127" s="28" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.3">
@@ -12553,6 +13491,9 @@
       <c r="AE128">
         <v>115.96413043577452</v>
       </c>
+      <c r="AF128" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
@@ -12651,6 +13592,9 @@
       <c r="AF129">
         <v>119.7</v>
       </c>
+      <c r="AG129" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -12746,6 +13690,12 @@
       <c r="AE130">
         <v>117.1</v>
       </c>
+      <c r="AF130" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG130" s="15" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
@@ -12844,6 +13794,9 @@
       <c r="AF131">
         <v>104.11</v>
       </c>
+      <c r="AG131" s="23" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
@@ -13043,6 +13996,9 @@
       <c r="AF133">
         <v>117.03</v>
       </c>
+      <c r="AG133">
+        <v>117.37</v>
+      </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -13138,6 +14094,12 @@
       <c r="AE134">
         <v>258505</v>
       </c>
+      <c r="AF134" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG134" s="15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -13280,6 +14242,12 @@
       <c r="AE136">
         <v>137.69999999999999</v>
       </c>
+      <c r="AF136">
+        <v>143.9</v>
+      </c>
+      <c r="AG136">
+        <v>144.69999999999999</v>
+      </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -13461,6 +14429,9 @@
       <c r="AF138">
         <v>100.7</v>
       </c>
+      <c r="AG138" s="28" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -13559,6 +14530,9 @@
       <c r="AF139">
         <v>104.5</v>
       </c>
+      <c r="AG139" s="28" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
@@ -13657,6 +14631,9 @@
       <c r="AF140">
         <v>119.2</v>
       </c>
+      <c r="AG140">
+        <v>119.2</v>
+      </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -13755,6 +14732,9 @@
       <c r="AF141">
         <v>103.32222809620981</v>
       </c>
+      <c r="AG141" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -13853,6 +14833,9 @@
       <c r="AF142">
         <v>120.5</v>
       </c>
+      <c r="AG142" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
@@ -13951,6 +14934,9 @@
       <c r="AF143">
         <v>203.63725654179296</v>
       </c>
+      <c r="AG143" s="28" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
@@ -14016,6 +15002,12 @@
       <c r="U144">
         <v>83.048897060000002</v>
       </c>
+      <c r="V144">
+        <v>83.3</v>
+      </c>
+      <c r="W144">
+        <v>83.3</v>
+      </c>
       <c r="X144">
         <v>83.3</v>
       </c>
@@ -14036,6 +15028,9 @@
       </c>
       <c r="AD144">
         <v>83.9</v>
+      </c>
+      <c r="AF144" s="28" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.3">
@@ -14132,6 +15127,9 @@
       <c r="AE145">
         <v>79.501891321686031</v>
       </c>
+      <c r="AF145" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
@@ -14230,6 +15228,9 @@
       <c r="AF146">
         <v>103.8</v>
       </c>
+      <c r="AG146" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
@@ -14325,6 +15326,12 @@
       <c r="AE147">
         <v>94.9</v>
       </c>
+      <c r="AF147" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG147" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
@@ -14423,6 +15430,9 @@
       <c r="AF148">
         <v>94.64</v>
       </c>
+      <c r="AG148" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
@@ -14622,6 +15632,9 @@
       <c r="AF150">
         <v>111.4</v>
       </c>
+      <c r="AG150">
+        <v>111.36</v>
+      </c>
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
@@ -14717,6 +15730,12 @@
       <c r="AE151">
         <v>17288.48</v>
       </c>
+      <c r="AF151" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG151" s="15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -14859,6 +15878,12 @@
       <c r="AE153">
         <v>105.9</v>
       </c>
+      <c r="AF153">
+        <v>106.5</v>
+      </c>
+      <c r="AG153">
+        <v>106.7</v>
+      </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
@@ -15040,6 +16065,9 @@
       <c r="AF155">
         <v>65.2</v>
       </c>
+      <c r="AG155" s="28" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
@@ -15138,6 +16166,9 @@
       <c r="AF156">
         <v>153.5</v>
       </c>
+      <c r="AG156" s="28" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
@@ -15236,6 +16267,9 @@
       <c r="AF157">
         <v>107.6</v>
       </c>
+      <c r="AG157">
+        <v>109</v>
+      </c>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
@@ -15334,6 +16368,9 @@
       <c r="AF158">
         <v>104.32461133651657</v>
       </c>
+      <c r="AG158" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
@@ -15432,6 +16469,9 @@
       <c r="AF159">
         <v>123.2</v>
       </c>
+      <c r="AG159" s="12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
@@ -15530,6 +16570,9 @@
       <c r="AF160">
         <v>1237.1561937301249</v>
       </c>
+      <c r="AG160" s="28" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
@@ -15595,6 +16638,12 @@
       <c r="U161">
         <v>204.65417959999999</v>
       </c>
+      <c r="V161">
+        <v>204.9</v>
+      </c>
+      <c r="W161">
+        <v>205</v>
+      </c>
       <c r="X161">
         <v>204.8</v>
       </c>
@@ -15615,6 +16664,9 @@
       </c>
       <c r="AD161">
         <v>206.6</v>
+      </c>
+      <c r="AF161" s="28" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.3">
@@ -15711,6 +16763,9 @@
       <c r="AE162">
         <v>114.45705998031195</v>
       </c>
+      <c r="AF162" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -15809,6 +16864,9 @@
       <c r="AF163">
         <v>104.6</v>
       </c>
+      <c r="AG163" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -15904,6 +16962,12 @@
       <c r="AE164">
         <v>102</v>
       </c>
+      <c r="AF164" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG164" s="15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -16002,6 +17066,9 @@
       <c r="AF165">
         <v>124.33</v>
       </c>
+      <c r="AG165" s="25" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -16201,6 +17268,9 @@
       <c r="AF167">
         <v>104.98</v>
       </c>
+      <c r="AG167">
+        <v>105.81</v>
+      </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -16296,6 +17366,12 @@
       <c r="AE168">
         <v>96150.32</v>
       </c>
+      <c r="AF168" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG168" s="15" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -16438,6 +17514,12 @@
       <c r="AE170">
         <v>131.4</v>
       </c>
+      <c r="AF170">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="AG170">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
@@ -16619,6 +17701,9 @@
       <c r="AF172">
         <v>105.3</v>
       </c>
+      <c r="AG172" s="28" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -16717,6 +17802,9 @@
       <c r="AF173">
         <v>196.4</v>
       </c>
+      <c r="AG173" s="28" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
@@ -16815,6 +17903,9 @@
       <c r="AF174">
         <v>154.80000000000001</v>
       </c>
+      <c r="AG174">
+        <v>154.80000000000001</v>
+      </c>
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
@@ -16913,6 +18004,9 @@
       <c r="AF175">
         <v>105.63046980310921</v>
       </c>
+      <c r="AG175" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -17011,6 +18105,9 @@
       <c r="AF176">
         <v>124.9</v>
       </c>
+      <c r="AG176" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
@@ -17109,6 +18206,9 @@
       <c r="AF177">
         <v>186.21973052356867</v>
       </c>
+      <c r="AG177" s="28" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
@@ -17174,6 +18274,12 @@
       <c r="U178">
         <v>379.99551120000001</v>
       </c>
+      <c r="V178">
+        <v>380</v>
+      </c>
+      <c r="W178">
+        <v>380</v>
+      </c>
       <c r="X178">
         <v>380</v>
       </c>
@@ -17194,6 +18300,9 @@
       </c>
       <c r="AD178">
         <v>380.1</v>
+      </c>
+      <c r="AF178" s="28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.3">
@@ -17290,6 +18399,9 @@
       <c r="AE179">
         <v>131.13524558941515</v>
       </c>
+      <c r="AF179" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
@@ -17388,6 +18500,9 @@
       <c r="AF180">
         <v>111.7</v>
       </c>
+      <c r="AG180" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
@@ -17483,6 +18598,12 @@
       <c r="AE181">
         <v>138.9</v>
       </c>
+      <c r="AF181" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG181" s="15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
@@ -17581,6 +18702,9 @@
       <c r="AF182">
         <v>102.32</v>
       </c>
+      <c r="AG182" s="26" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
@@ -17780,6 +18904,9 @@
       <c r="AF184">
         <v>99.78</v>
       </c>
+      <c r="AG184">
+        <v>99.78</v>
+      </c>
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
@@ -17875,6 +19002,12 @@
       <c r="AE185">
         <v>14807.51</v>
       </c>
+      <c r="AF185" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG185" s="15" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
@@ -18017,6 +19150,12 @@
       <c r="AE187">
         <v>159.4</v>
       </c>
+      <c r="AF187">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="AG187">
+        <v>161</v>
+      </c>
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
@@ -18198,6 +19337,9 @@
       <c r="AF189">
         <v>103.5</v>
       </c>
+      <c r="AG189" s="28" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
@@ -18296,6 +19438,9 @@
       <c r="AF190">
         <v>134.9</v>
       </c>
+      <c r="AG190" s="28" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
@@ -18394,6 +19539,9 @@
       <c r="AF191">
         <v>125.6</v>
       </c>
+      <c r="AG191">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
@@ -18492,6 +19640,9 @@
       <c r="AF192">
         <v>115.93842775998611</v>
       </c>
+      <c r="AG192" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
@@ -18590,6 +19741,9 @@
       <c r="AF193">
         <v>126.2</v>
       </c>
+      <c r="AG193" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
@@ -18688,6 +19842,9 @@
       <c r="AF194">
         <v>5840.6983830675435</v>
       </c>
+      <c r="AG194" s="28" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
@@ -18753,6 +19910,12 @@
       <c r="U195">
         <v>340.80958079999999</v>
       </c>
+      <c r="V195">
+        <v>342.8</v>
+      </c>
+      <c r="W195">
+        <v>342.8</v>
+      </c>
       <c r="X195">
         <v>343</v>
       </c>
@@ -18773,6 +19936,9 @@
       </c>
       <c r="AD195">
         <v>346.2</v>
+      </c>
+      <c r="AF195" s="28" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:33" x14ac:dyDescent="0.3">
@@ -18869,6 +20035,9 @@
       <c r="AE196">
         <v>118.67527288176568</v>
       </c>
+      <c r="AF196" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
@@ -18967,6 +20136,9 @@
       <c r="AF197">
         <v>105.5</v>
       </c>
+      <c r="AG197" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
@@ -19062,6 +20234,12 @@
       <c r="AE198">
         <v>105.2</v>
       </c>
+      <c r="AF198" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG198" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
@@ -19160,6 +20338,9 @@
       <c r="AF199">
         <v>110.61</v>
       </c>
+      <c r="AG199" s="27" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
@@ -19359,6 +20540,9 @@
       <c r="AF201">
         <v>116.44</v>
       </c>
+      <c r="AG201">
+        <v>117.67</v>
+      </c>
     </row>
     <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
@@ -19454,6 +20638,12 @@
       <c r="AE202">
         <v>40543.519999999997</v>
       </c>
+      <c r="AF202" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG202" s="15" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
@@ -19596,6 +20786,12 @@
       <c r="AE204">
         <v>164</v>
       </c>
+      <c r="AF204">
+        <v>168.8</v>
+      </c>
+      <c r="AG204">
+        <v>170.6</v>
+      </c>
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -19777,6 +20973,9 @@
       <c r="AF206">
         <v>104.8</v>
       </c>
+      <c r="AG206" s="28" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
@@ -19875,6 +21074,9 @@
       <c r="AF207">
         <v>125.9</v>
       </c>
+      <c r="AG207" s="28" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
@@ -19973,6 +21175,9 @@
       <c r="AF208">
         <v>143.80000000000001</v>
       </c>
+      <c r="AG208">
+        <v>144</v>
+      </c>
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
@@ -20071,6 +21276,9 @@
       <c r="AF209">
         <v>105.72445093484504</v>
       </c>
+      <c r="AG209" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
@@ -20169,6 +21377,9 @@
       <c r="AF210">
         <v>122.1</v>
       </c>
+      <c r="AG210" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
@@ -20267,6 +21478,9 @@
       <c r="AF211">
         <v>2513.2088007850048</v>
       </c>
+      <c r="AG211" s="28" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
@@ -20332,6 +21546,12 @@
       <c r="U212">
         <v>288.86352419999997</v>
       </c>
+      <c r="V212">
+        <v>290.3</v>
+      </c>
+      <c r="W212">
+        <v>290.3</v>
+      </c>
       <c r="X212">
         <v>290.3</v>
       </c>
@@ -20352,6 +21572,9 @@
       </c>
       <c r="AD212">
         <v>297.2</v>
+      </c>
+      <c r="AF212" s="28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.3">
@@ -20448,6 +21671,9 @@
       <c r="AE213">
         <v>111.67407963789113</v>
       </c>
+      <c r="AF213" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
@@ -20546,6 +21772,9 @@
       <c r="AF214">
         <v>109.8</v>
       </c>
+      <c r="AG214" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
@@ -20641,6 +21870,12 @@
       <c r="AE215">
         <v>104.2</v>
       </c>
+      <c r="AF215" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG215" s="15" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
@@ -20739,6 +21974,9 @@
       <c r="AF216">
         <v>109.45</v>
       </c>
+      <c r="AG216" s="28" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
@@ -20938,6 +22176,9 @@
       <c r="AF218">
         <v>108.54</v>
       </c>
+      <c r="AG218">
+        <v>108.66</v>
+      </c>
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
@@ -21033,6 +22274,12 @@
       <c r="AE219">
         <v>34729.379999999997</v>
       </c>
+      <c r="AF219" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG219" s="15" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
@@ -21174,6 +22421,12 @@
       </c>
       <c r="AE221">
         <v>158.4</v>
+      </c>
+      <c r="AF221">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="AG221">
+        <v>164.5</v>
       </c>
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.3">

--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/ghina_koteich_un_org/Documents/Online CPI Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{82ED7650-79C0-4C03-BEF2-B819E65DA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED947895-04AE-4AE9-8125-438204945045}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{82ED7650-79C0-4C03-BEF2-B819E65DA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD33C3E6-4548-46F4-BA43-6254C1940F23}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1 Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AG$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AH$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="259">
   <si>
     <t>Indicator</t>
   </si>
@@ -393,9 +393,6 @@
     <t>98.7</t>
   </si>
   <si>
-    <t>105.</t>
-  </si>
-  <si>
     <t>121.4</t>
   </si>
   <si>
@@ -694,6 +691,126 @@
   </si>
   <si>
     <t>2614.18</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.57</t>
+  </si>
+  <si>
+    <t>105.85</t>
+  </si>
+  <si>
+    <t>97.86</t>
+  </si>
+  <si>
+    <t>106.32</t>
+  </si>
+  <si>
+    <t>103.86</t>
+  </si>
+  <si>
+    <t>99.88</t>
+  </si>
+  <si>
+    <t>108.68</t>
+  </si>
+  <si>
+    <t>96.81</t>
+  </si>
+  <si>
+    <t>123.56</t>
+  </si>
+  <si>
+    <t>112.25</t>
+  </si>
+  <si>
+    <t>107.34</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>130.3</t>
+  </si>
+  <si>
+    <t>118.4</t>
+  </si>
+  <si>
+    <t>122.5</t>
+  </si>
+  <si>
+    <t>119.7</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>141.2</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>155.6</t>
+  </si>
+  <si>
+    <t>138.5</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>288.4</t>
+  </si>
+  <si>
+    <t>329.7</t>
+  </si>
+  <si>
+    <t>433.8</t>
+  </si>
+  <si>
+    <t>189.6</t>
+  </si>
+  <si>
+    <t>365.0</t>
+  </si>
+  <si>
+    <t>208.1</t>
+  </si>
+  <si>
+    <t>207.3</t>
+  </si>
+  <si>
+    <t>346.2</t>
+  </si>
+  <si>
+    <t>298.6</t>
+  </si>
+  <si>
+    <t>110.2</t>
+  </si>
+  <si>
+    <t>113.3</t>
+  </si>
+  <si>
+    <t>99.2</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>121.9</t>
+  </si>
+  <si>
+    <t>112.9</t>
+  </si>
+  <si>
+    <t>102.3</t>
   </si>
 </sst>
 </file>
@@ -1131,11 +1248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG222"/>
+  <dimension ref="A1:AH222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y14" sqref="Y14"/>
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,7 +1260,7 @@
     <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,8 +1360,11 @@
       <c r="AG1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1342,10 +1462,10 @@
         <v>100.1</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1445,8 +1565,11 @@
       <c r="AG3" s="28" t="s">
         <v>65</v>
       </c>
+      <c r="AH3" s="28" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1547,7 +1670,7 @@
         <v>117.2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1648,7 +1771,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1749,7 +1872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1847,10 +1970,10 @@
         <v>1177.9901683857299</v>
       </c>
       <c r="AG7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1941,11 +2064,14 @@
       <c r="AD8">
         <v>287.5</v>
       </c>
+      <c r="AE8" s="28" t="s">
+        <v>243</v>
+      </c>
       <c r="AF8" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2043,7 +2169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2144,7 +2270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2242,10 +2368,13 @@
         <v>115</v>
       </c>
       <c r="AG11" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AH11" s="28" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2343,10 +2472,13 @@
         <v>105.99</v>
       </c>
       <c r="AG12" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="AH12" s="28" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2447,7 +2579,7 @@
         <v>103.14</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2548,7 +2680,7 @@
         <v>106.66</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2643,13 +2775,13 @@
         <v>49662.75</v>
       </c>
       <c r="AF15" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG15" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2696,7 +2828,7 @@
         <v>2871.06</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2797,7 +2929,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2880,7 +3012,7 @@
         <v>108.62</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2978,10 +3110,10 @@
         <v>113.6</v>
       </c>
       <c r="AG19" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3079,10 +3211,13 @@
         <v>132.9</v>
       </c>
       <c r="AG20" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="AH20" s="28" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3183,7 +3318,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3284,7 +3419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3385,7 +3520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3483,10 +3618,10 @@
         <v>4899.39063071073</v>
       </c>
       <c r="AG24" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3577,11 +3712,14 @@
       <c r="AD25">
         <v>326.5</v>
       </c>
+      <c r="AE25" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="AF25" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3679,7 +3817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3780,7 +3918,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3880,8 +4018,11 @@
       <c r="AG28" s="15" t="s">
         <v>73</v>
       </c>
+      <c r="AH28" s="28" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3979,10 +4120,13 @@
         <v>109.93</v>
       </c>
       <c r="AG29" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="AH29" s="28" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -4083,7 +4227,7 @@
         <v>106.59</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -4184,7 +4328,7 @@
         <v>121.93</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4279,13 +4423,13 @@
         <v>30734.6</v>
       </c>
       <c r="AF32" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG32" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4332,7 +4476,7 @@
         <v>3680.29</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -4433,7 +4577,7 @@
         <v>150.69999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -4516,7 +4660,7 @@
         <v>113.46</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -4614,10 +4758,10 @@
         <v>130.69999999999999</v>
       </c>
       <c r="AG36" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -4715,10 +4859,13 @@
         <v>120.5</v>
       </c>
       <c r="AG37" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="AH37" s="28" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -4819,7 +4966,7 @@
         <v>140.69999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -4920,7 +5067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5021,7 +5168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -5119,10 +5266,10 @@
         <v>3359.1870267580011</v>
       </c>
       <c r="AG41" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -5213,11 +5360,14 @@
       <c r="AD42">
         <v>264.10000000000002</v>
       </c>
+      <c r="AE42" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="AF42" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -5315,7 +5465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -5416,7 +5566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -5516,8 +5666,11 @@
       <c r="AG45" s="15" t="s">
         <v>117</v>
       </c>
+      <c r="AH45" s="28" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -5615,10 +5768,13 @@
         <v>105.2</v>
       </c>
       <c r="AG46" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="AH46" s="28" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -5719,7 +5875,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -5820,7 +5976,7 @@
         <v>114.77</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -5915,13 +6071,13 @@
         <v>23679.61</v>
       </c>
       <c r="AF49" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG49" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -5968,7 +6124,7 @@
         <v>5702.7</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -6069,7 +6225,7 @@
         <v>186.5</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -6152,7 +6308,7 @@
         <v>205.88</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -6250,10 +6406,10 @@
         <v>88.8</v>
       </c>
       <c r="AG53" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -6353,8 +6509,11 @@
       <c r="AG54" s="28" t="s">
         <v>106</v>
       </c>
+      <c r="AH54" s="28" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -6455,7 +6614,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -6556,7 +6715,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -6657,7 +6816,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -6755,10 +6914,10 @@
         <v>5874.2666158627626</v>
       </c>
       <c r="AG58" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -6849,11 +7008,14 @@
       <c r="AD59">
         <v>430.9</v>
       </c>
+      <c r="AE59" s="28" t="s">
+        <v>245</v>
+      </c>
       <c r="AF59" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -6951,7 +7113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -7052,7 +7214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -7150,10 +7312,13 @@
         <v>118</v>
       </c>
       <c r="AG62" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="AH62" s="28" t="s">
+        <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -7251,10 +7416,13 @@
         <v>97.33</v>
       </c>
       <c r="AG63" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="AH63" s="28" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -7355,7 +7523,7 @@
         <v>89.95</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -7456,7 +7624,7 @@
         <v>102.67</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -7551,13 +7719,13 @@
         <v>37269.620000000003</v>
       </c>
       <c r="AF66" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG66" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -7604,7 +7772,7 @@
         <v>2537.0300000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -7705,7 +7873,7 @@
         <v>173.3</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7788,7 +7956,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -7886,10 +8054,10 @@
         <v>93.5</v>
       </c>
       <c r="AG70" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -7989,8 +8157,11 @@
       <c r="AG71" s="28" t="s">
         <v>114</v>
       </c>
+      <c r="AH71" s="28" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -8091,7 +8262,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -8192,7 +8363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -8293,7 +8464,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -8391,10 +8562,10 @@
         <v>298.59157252784809</v>
       </c>
       <c r="AG75" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -8485,11 +8656,14 @@
       <c r="AD76">
         <v>189.5</v>
       </c>
+      <c r="AE76" s="28" t="s">
+        <v>246</v>
+      </c>
       <c r="AF76" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -8587,7 +8761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -8688,7 +8862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -8782,14 +8956,17 @@
       <c r="AE79">
         <v>106.4</v>
       </c>
-      <c r="AF79" s="15" t="s">
-        <v>119</v>
+      <c r="AF79" s="15">
+        <v>105</v>
       </c>
       <c r="AG79" s="15">
-        <v>10.5</v>
+        <v>105</v>
+      </c>
+      <c r="AH79" s="28" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -8887,10 +9064,13 @@
         <v>106.72</v>
       </c>
       <c r="AG80" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="AH80" s="28" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -8991,7 +9171,7 @@
         <v>92.04</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -9092,7 +9272,7 @@
         <v>89.04</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -9187,13 +9367,13 @@
         <v>20478.63</v>
       </c>
       <c r="AF83" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG83" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -9240,7 +9420,7 @@
         <v>768.24</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -9341,7 +9521,7 @@
         <v>142.19999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -9424,7 +9604,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -9522,10 +9702,10 @@
         <v>99.6</v>
       </c>
       <c r="AG87" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -9623,10 +9803,13 @@
         <v>115.7</v>
       </c>
       <c r="AG88" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="AH88" s="28" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>31</v>
       </c>
@@ -9727,7 +9910,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -9828,7 +10011,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -9929,7 +10112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -10027,10 +10210,10 @@
         <v>4366.78506867329</v>
       </c>
       <c r="AG92" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -10121,11 +10304,14 @@
       <c r="AD93">
         <v>363</v>
       </c>
+      <c r="AE93" s="28" t="s">
+        <v>247</v>
+      </c>
       <c r="AF93" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -10223,7 +10409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -10324,7 +10510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -10419,13 +10605,16 @@
         <v>121</v>
       </c>
       <c r="AF96" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG96" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="AH96" s="28" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -10523,10 +10712,13 @@
         <v>103.12</v>
       </c>
       <c r="AG97" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="AH97" s="28" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -10627,7 +10819,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -10728,7 +10920,7 @@
         <v>109.88</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -10823,13 +11015,13 @@
         <v>32713.279999999999</v>
       </c>
       <c r="AF100" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG100" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -10876,7 +11068,7 @@
         <v>4181.22</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -10977,7 +11169,7 @@
         <v>157.19999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -11060,7 +11252,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>31</v>
       </c>
@@ -11158,10 +11350,10 @@
         <v>100.9</v>
       </c>
       <c r="AG104" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>31</v>
       </c>
@@ -11259,10 +11451,13 @@
         <v>123.8</v>
       </c>
       <c r="AG105" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="AH105" s="28" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -11363,7 +11558,7 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -11464,7 +11659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -11565,7 +11760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -11663,10 +11858,10 @@
         <v>734.62727276641567</v>
       </c>
       <c r="AG109" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -11757,11 +11952,14 @@
       <c r="AD110">
         <v>346.8</v>
       </c>
+      <c r="AE110" s="28" t="s">
+        <v>183</v>
+      </c>
       <c r="AF110" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -11859,7 +12057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -11960,7 +12158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -12055,13 +12253,16 @@
         <v>112.2</v>
       </c>
       <c r="AF113" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG113" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="AH113" s="28" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -12159,10 +12360,13 @@
         <v>99.57</v>
       </c>
       <c r="AG114" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="AH114" s="28" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -12263,7 +12467,7 @@
         <v>98.27</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -12364,7 +12568,7 @@
         <v>103.22</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -12459,13 +12663,13 @@
         <v>18144.330000000002</v>
       </c>
       <c r="AF117" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG117" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -12512,7 +12716,7 @@
         <v>2355.5100000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -12613,7 +12817,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -12696,7 +12900,7 @@
         <v>106.53</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -12794,10 +12998,10 @@
         <v>108.6</v>
       </c>
       <c r="AG121" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -12895,10 +13099,13 @@
         <v>129.6</v>
       </c>
       <c r="AG122" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="AH122" s="28" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -12999,7 +13206,7 @@
         <v>113.5</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -13100,7 +13307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -13201,7 +13408,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -13299,10 +13506,10 @@
         <v>2811.9837487175205</v>
       </c>
       <c r="AG126" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -13393,11 +13600,14 @@
       <c r="AD127">
         <v>208.1</v>
       </c>
+      <c r="AE127" s="28" t="s">
+        <v>248</v>
+      </c>
       <c r="AF127" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -13495,7 +13705,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>31</v>
       </c>
@@ -13596,7 +13806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -13691,13 +13901,16 @@
         <v>117.1</v>
       </c>
       <c r="AF130" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG130" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="AH130" s="28" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>31</v>
       </c>
@@ -13795,10 +14008,13 @@
         <v>104.11</v>
       </c>
       <c r="AG131" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="AH131" s="28" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -13899,7 +14115,7 @@
         <v>109.09</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -14000,7 +14216,7 @@
         <v>117.37</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -14095,13 +14311,13 @@
         <v>258505</v>
       </c>
       <c r="AF134" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG134" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -14148,7 +14364,7 @@
         <v>2501.13</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -14249,7 +14465,7 @@
         <v>144.69999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -14332,7 +14548,7 @@
         <v>120.51</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -14430,10 +14646,10 @@
         <v>100.7</v>
       </c>
       <c r="AG138" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -14531,10 +14747,13 @@
         <v>104.5</v>
       </c>
       <c r="AG139" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="AH139" s="28" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -14635,7 +14854,7 @@
         <v>119.2</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -14736,7 +14955,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -14837,7 +15056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -14935,10 +15154,10 @@
         <v>203.63725654179296</v>
       </c>
       <c r="AG143" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -15029,11 +15248,14 @@
       <c r="AD144">
         <v>83.9</v>
       </c>
+      <c r="AE144" s="28" t="s">
+        <v>180</v>
+      </c>
       <c r="AF144" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -15131,7 +15353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -15232,7 +15454,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -15327,13 +15549,16 @@
         <v>94.9</v>
       </c>
       <c r="AF147" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG147" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="AH147" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -15431,10 +15656,13 @@
         <v>94.64</v>
       </c>
       <c r="AG148" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="AH148" s="28" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -15535,7 +15763,7 @@
         <v>93.06</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -15636,7 +15864,7 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -15731,13 +15959,13 @@
         <v>17288.48</v>
       </c>
       <c r="AF151" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG151" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -15784,7 +16012,7 @@
         <v>448.23</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -15885,7 +16113,7 @@
         <v>106.7</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -15968,7 +16196,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -16066,10 +16294,10 @@
         <v>65.2</v>
       </c>
       <c r="AG155" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -16167,10 +16395,13 @@
         <v>153.5</v>
       </c>
       <c r="AG156" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="AH156" s="28" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -16271,7 +16502,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -16372,7 +16603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -16473,7 +16704,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -16571,10 +16802,10 @@
         <v>1237.1561937301249</v>
       </c>
       <c r="AG160" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -16665,11 +16896,14 @@
       <c r="AD161">
         <v>206.6</v>
       </c>
+      <c r="AE161" s="28" t="s">
+        <v>249</v>
+      </c>
       <c r="AF161" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -16767,7 +17001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -16868,7 +17102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -16963,13 +17197,16 @@
         <v>102</v>
       </c>
       <c r="AF164" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG164" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="AH164" s="28" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -17067,10 +17304,13 @@
         <v>124.33</v>
       </c>
       <c r="AG165" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="AH165" s="28" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -17171,7 +17411,7 @@
         <v>110.43</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -17272,7 +17512,7 @@
         <v>105.81</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -17367,13 +17607,13 @@
         <v>96150.32</v>
       </c>
       <c r="AF168" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG168" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -17420,7 +17660,7 @@
         <v>3633.18</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -17521,7 +17761,7 @@
         <v>135.6</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -17604,7 +17844,7 @@
         <v>102.73</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>31</v>
       </c>
@@ -17705,7 +17945,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>31</v>
       </c>
@@ -17803,10 +18043,13 @@
         <v>196.4</v>
       </c>
       <c r="AG173" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="AH173" s="28" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>31</v>
       </c>
@@ -17907,7 +18150,7 @@
         <v>154.80000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>31</v>
       </c>
@@ -18008,7 +18251,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -18109,7 +18352,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>31</v>
       </c>
@@ -18207,10 +18450,10 @@
         <v>186.21973052356867</v>
       </c>
       <c r="AG177" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -18301,11 +18544,14 @@
       <c r="AD178">
         <v>380.1</v>
       </c>
+      <c r="AE178" s="28" t="s">
+        <v>182</v>
+      </c>
       <c r="AF178" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>31</v>
       </c>
@@ -18403,7 +18649,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -18504,7 +18750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -18599,13 +18845,16 @@
         <v>138.9</v>
       </c>
       <c r="AF181" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG181" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AH181" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -18703,10 +18952,13 @@
         <v>102.32</v>
       </c>
       <c r="AG182" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="AH182" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -18807,7 +19059,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -18908,7 +19160,7 @@
         <v>99.78</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>31</v>
       </c>
@@ -19003,13 +19255,13 @@
         <v>14807.51</v>
       </c>
       <c r="AF185" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG185" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>31</v>
       </c>
@@ -19056,7 +19308,7 @@
         <v>1145.24</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>31</v>
       </c>
@@ -19157,7 +19409,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -19240,7 +19492,7 @@
         <v>120.79</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>31</v>
       </c>
@@ -19338,10 +19590,10 @@
         <v>103.5</v>
       </c>
       <c r="AG189" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -19439,10 +19691,13 @@
         <v>134.9</v>
       </c>
       <c r="AG190" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="AH190" s="28" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>31</v>
       </c>
@@ -19543,7 +19798,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>31</v>
       </c>
@@ -19644,7 +19899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -19745,7 +20000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>31</v>
       </c>
@@ -19843,10 +20098,10 @@
         <v>5840.6983830675435</v>
       </c>
       <c r="AG194" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>31</v>
       </c>
@@ -19937,11 +20192,14 @@
       <c r="AD195">
         <v>346.2</v>
       </c>
+      <c r="AE195" s="28" t="s">
+        <v>250</v>
+      </c>
       <c r="AF195" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>31</v>
       </c>
@@ -20039,7 +20297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>31</v>
       </c>
@@ -20140,7 +20398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>31</v>
       </c>
@@ -20235,13 +20493,16 @@
         <v>105.2</v>
       </c>
       <c r="AF198" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG198" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="AH198" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>31</v>
       </c>
@@ -20339,10 +20600,13 @@
         <v>110.61</v>
       </c>
       <c r="AG199" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="AH199" s="28" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>31</v>
       </c>
@@ -20443,7 +20707,7 @@
         <v>106.51</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>31</v>
       </c>
@@ -20544,7 +20808,7 @@
         <v>117.67</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>31</v>
       </c>
@@ -20639,13 +20903,13 @@
         <v>40543.519999999997</v>
       </c>
       <c r="AF202" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG202" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -20692,7 +20956,7 @@
         <v>16324.87</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -20793,7 +21057,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>31</v>
       </c>
@@ -20876,7 +21140,7 @@
         <v>117.96</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -20974,10 +21238,10 @@
         <v>104.8</v>
       </c>
       <c r="AG206" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -21075,10 +21339,13 @@
         <v>125.9</v>
       </c>
       <c r="AG207" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="AH207" s="28" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -21179,7 +21446,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>31</v>
       </c>
@@ -21280,7 +21547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>31</v>
       </c>
@@ -21381,7 +21648,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>31</v>
       </c>
@@ -21479,10 +21746,10 @@
         <v>2513.2088007850048</v>
       </c>
       <c r="AG211" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>31</v>
       </c>
@@ -21573,11 +21840,14 @@
       <c r="AD212">
         <v>297.2</v>
       </c>
+      <c r="AE212" s="28" t="s">
+        <v>251</v>
+      </c>
       <c r="AF212" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -21675,7 +21945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>31</v>
       </c>
@@ -21776,7 +22046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -21871,13 +22141,16 @@
         <v>104.2</v>
       </c>
       <c r="AF215" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG215" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="AH215" s="28" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>31</v>
       </c>
@@ -21975,10 +22248,13 @@
         <v>109.45</v>
       </c>
       <c r="AG216" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="AH216" s="28" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>31</v>
       </c>
@@ -22079,7 +22355,7 @@
         <v>109.28</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>31</v>
       </c>
@@ -22180,7 +22456,7 @@
         <v>108.66</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>31</v>
       </c>
@@ -22275,13 +22551,13 @@
         <v>34729.379999999997</v>
       </c>
       <c r="AF219" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG219" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>31</v>
       </c>
@@ -22328,7 +22604,7 @@
         <v>3362.99</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -22429,7 +22705,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>31</v>
       </c>

--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/ghina_koteich_un_org/Documents/Online CPI Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{82ED7650-79C0-4C03-BEF2-B819E65DA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD33C3E6-4548-46F4-BA43-6254C1940F23}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{82ED7650-79C0-4C03-BEF2-B819E65DA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E0FF59-9CF8-4C05-B705-2B0185838265}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="352">
   <si>
     <t>Indicator</t>
   </si>
@@ -811,6 +811,285 @@
   </si>
   <si>
     <t>102.3</t>
+  </si>
+  <si>
+    <t>117.8</t>
+  </si>
+  <si>
+    <t>107.2</t>
+  </si>
+  <si>
+    <t>140.6</t>
+  </si>
+  <si>
+    <t>110.6</t>
+  </si>
+  <si>
+    <t>124.6</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>149.9</t>
+  </si>
+  <si>
+    <t>114.3</t>
+  </si>
+  <si>
+    <t>119.1</t>
+  </si>
+  <si>
+    <t>109.1</t>
+  </si>
+  <si>
+    <t>154.8</t>
+  </si>
+  <si>
+    <t>126.5</t>
+  </si>
+  <si>
+    <t>141.9</t>
+  </si>
+  <si>
+    <t>107.92</t>
+  </si>
+  <si>
+    <t>106.18</t>
+  </si>
+  <si>
+    <t>96.46</t>
+  </si>
+  <si>
+    <t>110.44</t>
+  </si>
+  <si>
+    <t>106.29</t>
+  </si>
+  <si>
+    <t>111.99</t>
+  </si>
+  <si>
+    <t>110.42</t>
+  </si>
+  <si>
+    <t>106.25</t>
+  </si>
+  <si>
+    <t>103.65</t>
+  </si>
+  <si>
+    <t>106.61</t>
+  </si>
+  <si>
+    <t>92.25</t>
+  </si>
+  <si>
+    <t>92.61</t>
+  </si>
+  <si>
+    <t>105.54</t>
+  </si>
+  <si>
+    <t>98.06</t>
+  </si>
+  <si>
+    <t>109.27</t>
+  </si>
+  <si>
+    <t>91.08</t>
+  </si>
+  <si>
+    <t>113.24</t>
+  </si>
+  <si>
+    <t>110.80</t>
+  </si>
+  <si>
+    <t>108.30</t>
+  </si>
+  <si>
+    <t>107.72</t>
+  </si>
+  <si>
+    <t>127.228047571512</t>
+  </si>
+  <si>
+    <t>141.974690066283</t>
+  </si>
+  <si>
+    <t>180.750485133978</t>
+  </si>
+  <si>
+    <t>108.42826401358</t>
+  </si>
+  <si>
+    <t>107.983234087229</t>
+  </si>
+  <si>
+    <t>112.095104918292</t>
+  </si>
+  <si>
+    <t>143.677052692616</t>
+  </si>
+  <si>
+    <t>115.685440729582</t>
+  </si>
+  <si>
+    <t>79.4857848461591</t>
+  </si>
+  <si>
+    <t>114.346780682417</t>
+  </si>
+  <si>
+    <t>131.200017875288</t>
+  </si>
+  <si>
+    <t>118.241731430488</t>
+  </si>
+  <si>
+    <t>111.522580570631</t>
+  </si>
+  <si>
+    <t>129.138525648614</t>
+  </si>
+  <si>
+    <t>144.840324371518</t>
+  </si>
+  <si>
+    <t>184.760116595949</t>
+  </si>
+  <si>
+    <t>108.453130768385</t>
+  </si>
+  <si>
+    <t>108.517440857646</t>
+  </si>
+  <si>
+    <t>114.028494676622</t>
+  </si>
+  <si>
+    <t>144.275749403082</t>
+  </si>
+  <si>
+    <t>119.338928186302</t>
+  </si>
+  <si>
+    <t>79.4996245063681</t>
+  </si>
+  <si>
+    <t>114.311203132968</t>
+  </si>
+  <si>
+    <t>131.090361422133</t>
+  </si>
+  <si>
+    <t>120.145544858616</t>
+  </si>
+  <si>
+    <t>111.812283723386</t>
+  </si>
+  <si>
+    <t>57547.3629535848</t>
+  </si>
+  <si>
+    <t>36320.2365663385</t>
+  </si>
+  <si>
+    <t>25664.8811431964</t>
+  </si>
+  <si>
+    <t>41715.60</t>
+  </si>
+  <si>
+    <t>21586.6205821987</t>
+  </si>
+  <si>
+    <t>37220.5722160775</t>
+  </si>
+  <si>
+    <t>23242.3125929588</t>
+  </si>
+  <si>
+    <t>297405.517570528</t>
+  </si>
+  <si>
+    <t>18936.7655078098</t>
+  </si>
+  <si>
+    <t>128678.486789878</t>
+  </si>
+  <si>
+    <t>15105.608047694</t>
+  </si>
+  <si>
+    <t>45521.4978235491</t>
+  </si>
+  <si>
+    <t>37813.1565802173</t>
+  </si>
+  <si>
+    <t>116.4</t>
+  </si>
+  <si>
+    <t>84.2</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>99.6</t>
+  </si>
+  <si>
+    <t>109.9</t>
+  </si>
+  <si>
+    <t>100.5</t>
+  </si>
+  <si>
+    <t>70.9</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>153.6</t>
+  </si>
+  <si>
+    <t>186.5</t>
+  </si>
+  <si>
+    <t>174.4</t>
+  </si>
+  <si>
+    <t>142.8</t>
+  </si>
+  <si>
+    <t>158.8</t>
+  </si>
+  <si>
+    <t>142.5</t>
+  </si>
+  <si>
+    <t>145.6</t>
+  </si>
+  <si>
+    <t>106.7</t>
+  </si>
+  <si>
+    <t>137.6</t>
+  </si>
+  <si>
+    <t>161.2</t>
+  </si>
+  <si>
+    <t>173.1</t>
+  </si>
+  <si>
+    <t>166.6</t>
   </si>
 </sst>
 </file>
@@ -843,12 +1122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -878,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -910,6 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,8 +1537,8 @@
   <dimension ref="A1:AH222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC17" sqref="AC17"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,6 +1750,9 @@
       <c r="AG2" s="28" t="s">
         <v>195</v>
       </c>
+      <c r="AH2" s="28" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1669,6 +1958,9 @@
       <c r="AG4">
         <v>117.2</v>
       </c>
+      <c r="AH4" s="28" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1770,6 +2062,9 @@
       <c r="AG5" t="s">
         <v>89</v>
       </c>
+      <c r="AH5" s="28" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2168,6 +2463,12 @@
       <c r="AF9" t="s">
         <v>76</v>
       </c>
+      <c r="AG9" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH9" s="28" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2578,6 +2879,9 @@
       <c r="AG13">
         <v>103.14</v>
       </c>
+      <c r="AH13" s="28" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2780,6 +3084,9 @@
       <c r="AG15" s="15" t="s">
         <v>146</v>
       </c>
+      <c r="AH15" s="28" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2928,6 +3235,9 @@
       <c r="AG17">
         <v>150.5</v>
       </c>
+      <c r="AH17" s="28" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3112,6 +3422,9 @@
       <c r="AG19" s="28" t="s">
         <v>196</v>
       </c>
+      <c r="AH19" s="28" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3317,6 +3630,9 @@
       <c r="AG21">
         <v>107.4</v>
       </c>
+      <c r="AH21" s="28" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -3418,6 +3734,9 @@
       <c r="AG22" t="s">
         <v>90</v>
       </c>
+      <c r="AH22" s="28" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -3816,6 +4135,12 @@
       <c r="AF26" t="s">
         <v>77</v>
       </c>
+      <c r="AG26" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH26" s="28" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -4226,6 +4551,9 @@
       <c r="AG30">
         <v>106.59</v>
       </c>
+      <c r="AH30" s="28" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4428,6 +4756,9 @@
       <c r="AG32" s="15" t="s">
         <v>147</v>
       </c>
+      <c r="AH32" s="28" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -4576,6 +4907,9 @@
       <c r="AG34">
         <v>150.69999999999999</v>
       </c>
+      <c r="AH34" s="28" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -4760,6 +5094,9 @@
       <c r="AG36" s="28" t="s">
         <v>197</v>
       </c>
+      <c r="AH36" s="28" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -4965,6 +5302,9 @@
       <c r="AG38">
         <v>140.69999999999999</v>
       </c>
+      <c r="AH38" s="28" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -5066,6 +5406,9 @@
       <c r="AG39" t="s">
         <v>91</v>
       </c>
+      <c r="AH39" s="28" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -5464,6 +5807,12 @@
       <c r="AF43" t="s">
         <v>78</v>
       </c>
+      <c r="AG43" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH43" s="28" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -5874,6 +6223,9 @@
       <c r="AG47">
         <v>246</v>
       </c>
+      <c r="AH47" s="29" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -6076,6 +6428,9 @@
       <c r="AG49" s="15" t="s">
         <v>148</v>
       </c>
+      <c r="AH49" s="28" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -6224,6 +6579,9 @@
       <c r="AG51">
         <v>186.5</v>
       </c>
+      <c r="AH51" s="28" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -6408,6 +6766,9 @@
       <c r="AG53" s="28" t="s">
         <v>198</v>
       </c>
+      <c r="AH53" s="28" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -6613,6 +6974,9 @@
       <c r="AG55">
         <v>110.2</v>
       </c>
+      <c r="AH55" s="28" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -6714,6 +7078,9 @@
       <c r="AG56" t="s">
         <v>92</v>
       </c>
+      <c r="AH56" s="28" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -7112,6 +7479,12 @@
       <c r="AF60" t="s">
         <v>79</v>
       </c>
+      <c r="AG60" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH60" s="28" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -7522,6 +7895,9 @@
       <c r="AG64">
         <v>89.95</v>
       </c>
+      <c r="AH64" s="28" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -7724,6 +8100,9 @@
       <c r="AG66" s="15" t="s">
         <v>149</v>
       </c>
+      <c r="AH66" s="28" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -7872,6 +8251,9 @@
       <c r="AG68">
         <v>173.3</v>
       </c>
+      <c r="AH68" s="28" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -8056,6 +8438,9 @@
       <c r="AG70" s="28" t="s">
         <v>199</v>
       </c>
+      <c r="AH70" s="28" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -8261,6 +8646,9 @@
       <c r="AG72">
         <v>122.5</v>
       </c>
+      <c r="AH72" s="28" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -8362,6 +8750,9 @@
       <c r="AG73" t="s">
         <v>93</v>
       </c>
+      <c r="AH73" s="28" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -8760,6 +9151,12 @@
       <c r="AF77" t="s">
         <v>80</v>
       </c>
+      <c r="AG77" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH77" s="28" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -9170,6 +9567,9 @@
       <c r="AG81">
         <v>92.04</v>
       </c>
+      <c r="AH81" s="28" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -9372,6 +9772,9 @@
       <c r="AG83" s="15" t="s">
         <v>150</v>
       </c>
+      <c r="AH83" s="28" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -9520,6 +9923,9 @@
       <c r="AG85">
         <v>142.19999999999999</v>
       </c>
+      <c r="AH85" s="28" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -9704,6 +10110,9 @@
       <c r="AG87" s="28" t="s">
         <v>200</v>
       </c>
+      <c r="AH87" s="28" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -9909,6 +10318,9 @@
       <c r="AG89">
         <v>109.8</v>
       </c>
+      <c r="AH89" s="28" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -10010,6 +10422,9 @@
       <c r="AG90" t="s">
         <v>94</v>
       </c>
+      <c r="AH90" s="28" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -10408,6 +10823,12 @@
       <c r="AF94" t="s">
         <v>81</v>
       </c>
+      <c r="AG94" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH94" s="28" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -10818,6 +11239,9 @@
       <c r="AG98">
         <v>105.5</v>
       </c>
+      <c r="AH98" s="28" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -11020,6 +11444,9 @@
       <c r="AG100" s="15" t="s">
         <v>151</v>
       </c>
+      <c r="AH100" s="28" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -11168,6 +11595,9 @@
       <c r="AG102">
         <v>157.19999999999999</v>
       </c>
+      <c r="AH102" s="28" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -11352,6 +11782,9 @@
       <c r="AG104" s="28" t="s">
         <v>201</v>
       </c>
+      <c r="AH104" s="28" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -11557,6 +11990,9 @@
       <c r="AG106">
         <v>149.80000000000001</v>
       </c>
+      <c r="AH106" s="28" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -11658,6 +12094,9 @@
       <c r="AG107" t="s">
         <v>95</v>
       </c>
+      <c r="AH107" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -12056,6 +12495,12 @@
       <c r="AF111" t="s">
         <v>82</v>
       </c>
+      <c r="AG111" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH111" s="28" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -12466,6 +12911,9 @@
       <c r="AG115">
         <v>98.27</v>
       </c>
+      <c r="AH115" s="28" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -12668,6 +13116,9 @@
       <c r="AG117" s="15" t="s">
         <v>152</v>
       </c>
+      <c r="AH117" s="28" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
@@ -12816,6 +13267,9 @@
       <c r="AG119">
         <v>141.80000000000001</v>
       </c>
+      <c r="AH119" s="28" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
@@ -13000,6 +13454,9 @@
       <c r="AG121" s="28" t="s">
         <v>202</v>
       </c>
+      <c r="AH121" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -13205,6 +13662,9 @@
       <c r="AG123">
         <v>113.5</v>
       </c>
+      <c r="AH123" s="28" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -13306,6 +13766,9 @@
       <c r="AG124" t="s">
         <v>96</v>
       </c>
+      <c r="AH124" s="28" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
@@ -13704,6 +14167,12 @@
       <c r="AF128" t="s">
         <v>83</v>
       </c>
+      <c r="AG128" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH128" s="28" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
@@ -14114,6 +14583,9 @@
       <c r="AG132">
         <v>109.09</v>
       </c>
+      <c r="AH132" s="28" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
@@ -14316,6 +14788,9 @@
       <c r="AG134" s="15" t="s">
         <v>153</v>
       </c>
+      <c r="AH134" s="28" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -14464,6 +14939,9 @@
       <c r="AG136">
         <v>144.69999999999999</v>
       </c>
+      <c r="AH136" s="28" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -14648,6 +15126,9 @@
       <c r="AG138" s="28" t="s">
         <v>203</v>
       </c>
+      <c r="AH138" s="28" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -14853,6 +15334,9 @@
       <c r="AG140">
         <v>119.2</v>
       </c>
+      <c r="AH140" s="28" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -14954,6 +15438,9 @@
       <c r="AG141" t="s">
         <v>97</v>
       </c>
+      <c r="AH141" s="28" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -15352,6 +15839,12 @@
       <c r="AF145" t="s">
         <v>84</v>
       </c>
+      <c r="AG145" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH145" s="28" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
@@ -15762,6 +16255,9 @@
       <c r="AG149">
         <v>93.06</v>
       </c>
+      <c r="AH149" s="28" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
@@ -15964,6 +16460,9 @@
       <c r="AG151" s="15" t="s">
         <v>154</v>
       </c>
+      <c r="AH151" s="28" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -16112,6 +16611,9 @@
       <c r="AG153">
         <v>106.7</v>
       </c>
+      <c r="AH153" s="28" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
@@ -16296,6 +16798,9 @@
       <c r="AG155" s="28" t="s">
         <v>204</v>
       </c>
+      <c r="AH155" s="28" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
@@ -16501,6 +17006,9 @@
       <c r="AG157">
         <v>109</v>
       </c>
+      <c r="AH157" s="28" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
@@ -16602,6 +17110,9 @@
       <c r="AG158" t="s">
         <v>98</v>
       </c>
+      <c r="AH158" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
@@ -17000,6 +17511,12 @@
       <c r="AF162" t="s">
         <v>85</v>
       </c>
+      <c r="AG162" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH162" s="28" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -17410,6 +17927,9 @@
       <c r="AG166">
         <v>110.43</v>
       </c>
+      <c r="AH166" s="28" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
@@ -17612,6 +18132,9 @@
       <c r="AG168" s="15" t="s">
         <v>155</v>
       </c>
+      <c r="AH168" s="28" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -17760,6 +18283,9 @@
       <c r="AG170">
         <v>135.6</v>
       </c>
+      <c r="AH170" s="28" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
@@ -17944,6 +18470,9 @@
       <c r="AG172" s="28" t="s">
         <v>72</v>
       </c>
+      <c r="AH172" s="28" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -18149,6 +18678,9 @@
       <c r="AG174">
         <v>154.80000000000001</v>
       </c>
+      <c r="AH174" s="28" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
@@ -18250,6 +18782,9 @@
       <c r="AG175" t="s">
         <v>99</v>
       </c>
+      <c r="AH175" s="28" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -18648,6 +19183,12 @@
       <c r="AF179" t="s">
         <v>86</v>
       </c>
+      <c r="AG179" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH179" s="28" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="180" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
@@ -19058,6 +19599,9 @@
       <c r="AG183">
         <v>110.8</v>
       </c>
+      <c r="AH183" s="28" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="184" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
@@ -19260,6 +19804,9 @@
       <c r="AG185" s="15" t="s">
         <v>156</v>
       </c>
+      <c r="AH185" s="28" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
@@ -19408,6 +19955,9 @@
       <c r="AG187">
         <v>161</v>
       </c>
+      <c r="AH187" s="28" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="188" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
@@ -19592,6 +20142,9 @@
       <c r="AG189" s="28" t="s">
         <v>205</v>
       </c>
+      <c r="AH189" s="28" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
@@ -19797,6 +20350,9 @@
       <c r="AG191">
         <v>126.3</v>
       </c>
+      <c r="AH191" s="28" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="192" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
@@ -19898,6 +20454,9 @@
       <c r="AG192" t="s">
         <v>100</v>
       </c>
+      <c r="AH192" s="28" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
@@ -20296,6 +20855,12 @@
       <c r="AF196" t="s">
         <v>87</v>
       </c>
+      <c r="AG196" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH196" s="28" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
@@ -20706,6 +21271,9 @@
       <c r="AG200">
         <v>106.51</v>
       </c>
+      <c r="AH200" s="28" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
@@ -20908,6 +21476,9 @@
       <c r="AG202" s="15" t="s">
         <v>157</v>
       </c>
+      <c r="AH202" s="28" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
@@ -21056,6 +21627,9 @@
       <c r="AG204">
         <v>170.6</v>
       </c>
+      <c r="AH204" s="28" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -21240,6 +21814,9 @@
       <c r="AG206" s="28" t="s">
         <v>131</v>
       </c>
+      <c r="AH206" s="28" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
@@ -21445,6 +22022,9 @@
       <c r="AG208">
         <v>144</v>
       </c>
+      <c r="AH208" s="28" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
@@ -21546,6 +22126,9 @@
       <c r="AG209" t="s">
         <v>101</v>
       </c>
+      <c r="AH209" s="28" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
@@ -21944,6 +22527,12 @@
       <c r="AF213" t="s">
         <v>88</v>
       </c>
+      <c r="AG213" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH213" s="28" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
@@ -22354,6 +22943,9 @@
       <c r="AG217">
         <v>109.28</v>
       </c>
+      <c r="AH217" s="28" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
@@ -22556,6 +23148,9 @@
       <c r="AG219" s="15" t="s">
         <v>158</v>
       </c>
+      <c r="AH219" s="28" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
@@ -22703,6 +23298,9 @@
       </c>
       <c r="AG221">
         <v>164.5</v>
+      </c>
+      <c r="AH221" s="28" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="222" spans="1:34" x14ac:dyDescent="0.3">

--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/ghina_koteich_un_org/Documents/Online CPI Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{82ED7650-79C0-4C03-BEF2-B819E65DA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E0FF59-9CF8-4C05-B705-2B0185838265}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3C70CA05-AFE3-4F2F-B571-29A3C26028DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0E92D0-2EAF-4787-A756-F8FF90FB7746}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="1 Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AH$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AI$222</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="384">
   <si>
     <t>Indicator</t>
   </si>
@@ -129,967 +131,1063 @@
     <t>2022-04</t>
   </si>
   <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
     <t>Consumer price index</t>
   </si>
   <si>
     <t>General CPI</t>
   </si>
   <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>100.9</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>129.8</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>117.8</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>107.58</t>
+  </si>
+  <si>
+    <t>107.92</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>125.3</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>1286.76</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>288.4</t>
+  </si>
+  <si>
+    <t>287.8</t>
+  </si>
+  <si>
+    <t>288.2</t>
+  </si>
+  <si>
+    <t>288.6</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>126.03</t>
+  </si>
+  <si>
+    <t>127.228047571512</t>
+  </si>
+  <si>
+    <t>129.138525648614</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>110.8</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>109.2</t>
+  </si>
+  <si>
+    <t>109.7</t>
+  </si>
+  <si>
+    <t>110.2</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>106.39</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>103.65</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>53029.51</t>
+  </si>
+  <si>
+    <t>56088.55</t>
+  </si>
+  <si>
+    <t>57547.3629535848</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
     <t>Food and non-alcoholic beverages</t>
   </si>
   <si>
+    <t>114.4</t>
+  </si>
+  <si>
+    <t>116.4</t>
+  </si>
+  <si>
+    <t>129.9</t>
+  </si>
+  <si>
+    <t>130.3</t>
+  </si>
+  <si>
+    <t>107.2</t>
+  </si>
+  <si>
+    <t>106.34</t>
+  </si>
+  <si>
+    <t>106.18</t>
+  </si>
+  <si>
+    <t>134.4</t>
+  </si>
+  <si>
+    <t>5289.71</t>
+  </si>
+  <si>
+    <t>329.7</t>
+  </si>
+  <si>
+    <t>326.9</t>
+  </si>
+  <si>
+    <t>327.3</t>
+  </si>
+  <si>
+    <t>327.0</t>
+  </si>
+  <si>
+    <t>139.53</t>
+  </si>
+  <si>
+    <t>141.974690066283</t>
+  </si>
+  <si>
+    <t>144.840324371518</t>
+  </si>
+  <si>
+    <t>112.6</t>
+  </si>
+  <si>
+    <t>110.1</t>
+  </si>
+  <si>
+    <t>111.7</t>
+  </si>
+  <si>
+    <t>113.3</t>
+  </si>
+  <si>
+    <t>108.40</t>
+  </si>
+  <si>
+    <t>106.57</t>
+  </si>
+  <si>
+    <t>32350.77</t>
+  </si>
+  <si>
+    <t>34795.46</t>
+  </si>
+  <si>
+    <t>36320.2365663385</t>
+  </si>
+  <si>
+    <t>153.6</t>
+  </si>
+  <si>
     <t>Alcoholic beverages, tobacco and narcotics</t>
   </si>
   <si>
+    <t>130.7</t>
+  </si>
+  <si>
+    <t>120.9</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>140.6</t>
+  </si>
+  <si>
+    <t>103.93</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>3919.94</t>
+  </si>
+  <si>
+    <t>264.1</t>
+  </si>
+  <si>
+    <t>179.25</t>
+  </si>
+  <si>
+    <t>180.750485133978</t>
+  </si>
+  <si>
+    <t>184.760116595949</t>
+  </si>
+  <si>
+    <t>261.6</t>
+  </si>
+  <si>
+    <t>105.94</t>
+  </si>
+  <si>
+    <t>105.85</t>
+  </si>
+  <si>
+    <t>24170.48</t>
+  </si>
+  <si>
+    <t>24425.05</t>
+  </si>
+  <si>
+    <t>25664.8811431964</t>
+  </si>
+  <si>
+    <t>186.5</t>
+  </si>
+  <si>
     <t>Clothing and footwear</t>
   </si>
   <si>
+    <t>84.1</t>
+  </si>
+  <si>
+    <t>84.2</t>
+  </si>
+  <si>
+    <t>117.7</t>
+  </si>
+  <si>
+    <t>118.4</t>
+  </si>
+  <si>
+    <t>110.6</t>
+  </si>
+  <si>
+    <t>96.35</t>
+  </si>
+  <si>
+    <t>96.46</t>
+  </si>
+  <si>
+    <t>124.2</t>
+  </si>
+  <si>
+    <t>5886.36</t>
+  </si>
+  <si>
+    <t>433.8</t>
+  </si>
+  <si>
+    <t>434.9</t>
+  </si>
+  <si>
+    <t>435.3</t>
+  </si>
+  <si>
+    <t>435.7</t>
+  </si>
+  <si>
+    <t>109.43</t>
+  </si>
+  <si>
+    <t>108.42826401358</t>
+  </si>
+  <si>
+    <t>108.453130768385</t>
+  </si>
+  <si>
+    <t>109.8</t>
+  </si>
+  <si>
+    <t>98.7</t>
+  </si>
+  <si>
+    <t>98.9</t>
+  </si>
+  <si>
+    <t>99.2</t>
+  </si>
+  <si>
+    <t>97.32</t>
+  </si>
+  <si>
+    <t>97.86</t>
+  </si>
+  <si>
+    <t>92.25</t>
+  </si>
+  <si>
+    <t>39431.39</t>
+  </si>
+  <si>
+    <t>40946.75</t>
+  </si>
+  <si>
+    <t>41715.60</t>
+  </si>
+  <si>
+    <t>174.4</t>
+  </si>
+  <si>
     <t>Housing, water, electricity, gas and other fuels</t>
   </si>
   <si>
+    <t>93.8</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>122.3</t>
+  </si>
+  <si>
+    <t>122.5</t>
+  </si>
+  <si>
+    <t>124.6</t>
+  </si>
+  <si>
+    <t>110.20</t>
+  </si>
+  <si>
+    <t>110.44</t>
+  </si>
+  <si>
+    <t>356.26</t>
+  </si>
+  <si>
+    <t>189.6</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>192.2</t>
+  </si>
+  <si>
+    <t>193.6</t>
+  </si>
+  <si>
+    <t>107.27</t>
+  </si>
+  <si>
+    <t>107.983234087229</t>
+  </si>
+  <si>
+    <t>108.517440857646</t>
+  </si>
+  <si>
+    <t>103.6</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>107.19</t>
+  </si>
+  <si>
+    <t>106.32</t>
+  </si>
+  <si>
+    <t>92.61</t>
+  </si>
+  <si>
+    <t>21167.13</t>
+  </si>
+  <si>
+    <t>21302.38</t>
+  </si>
+  <si>
+    <t>21586.6205821987</t>
+  </si>
+  <si>
+    <t>142.8</t>
+  </si>
+  <si>
     <t>Furnishings, household equipment and routine household maintenance</t>
   </si>
   <si>
+    <t>98.2</t>
+  </si>
+  <si>
+    <t>99.6</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>119.7</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>106.24</t>
+  </si>
+  <si>
+    <t>106.29</t>
+  </si>
+  <si>
+    <t>131.1</t>
+  </si>
+  <si>
+    <t>4575.85</t>
+  </si>
+  <si>
+    <t>365.0</t>
+  </si>
+  <si>
+    <t>365.4</t>
+  </si>
+  <si>
+    <t>365.8</t>
+  </si>
+  <si>
+    <t>367.5</t>
+  </si>
+  <si>
+    <t>112.18</t>
+  </si>
+  <si>
+    <t>112.095104918292</t>
+  </si>
+  <si>
+    <t>114.028494676622</t>
+  </si>
+  <si>
+    <t>107.5</t>
+  </si>
+  <si>
+    <t>121.4</t>
+  </si>
+  <si>
+    <t>121.7</t>
+  </si>
+  <si>
+    <t>121.9</t>
+  </si>
+  <si>
+    <t>103.66</t>
+  </si>
+  <si>
+    <t>103.86</t>
+  </si>
+  <si>
+    <t>105.54</t>
+  </si>
+  <si>
+    <t>34793.10</t>
+  </si>
+  <si>
+    <t>36616.13</t>
+  </si>
+  <si>
+    <t>37220.5722160775</t>
+  </si>
+  <si>
+    <t>158.8</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
+    <t>124.9</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>149.9</t>
+  </si>
+  <si>
+    <t>111.21</t>
+  </si>
+  <si>
+    <t>111.99</t>
+  </si>
+  <si>
+    <t>115.2</t>
+  </si>
+  <si>
+    <t>768.51</t>
+  </si>
+  <si>
+    <t>347.0</t>
+  </si>
+  <si>
+    <t>347.9</t>
+  </si>
+  <si>
+    <t>349.6</t>
+  </si>
+  <si>
+    <t>143.83</t>
+  </si>
+  <si>
+    <t>143.677052692616</t>
+  </si>
+  <si>
+    <t>144.275749403082</t>
+  </si>
+  <si>
+    <t>101.9</t>
+  </si>
+  <si>
+    <t>112.2</t>
+  </si>
+  <si>
+    <t>112.9</t>
+  </si>
+  <si>
+    <t>100.18</t>
+  </si>
+  <si>
+    <t>99.88</t>
+  </si>
+  <si>
+    <t>98.06</t>
+  </si>
+  <si>
+    <t>19892.54</t>
+  </si>
+  <si>
+    <t>21556.52</t>
+  </si>
+  <si>
+    <t>23242.3125929588</t>
+  </si>
+  <si>
+    <t>142.5</t>
+  </si>
+  <si>
     <t>Transport</t>
   </si>
   <si>
+    <t>108.7</t>
+  </si>
+  <si>
+    <t>109.9</t>
+  </si>
+  <si>
+    <t>132.4</t>
+  </si>
+  <si>
+    <t>141.2</t>
+  </si>
+  <si>
+    <t>114.3</t>
+  </si>
+  <si>
+    <t>109.06</t>
+  </si>
+  <si>
+    <t>110.42</t>
+  </si>
+  <si>
+    <t>137.5</t>
+  </si>
+  <si>
+    <t>3010.09</t>
+  </si>
+  <si>
+    <t>208.1</t>
+  </si>
+  <si>
+    <t>209.2</t>
+  </si>
+  <si>
+    <t>210.2</t>
+  </si>
+  <si>
+    <t>210.9</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>115.685440729582</t>
+  </si>
+  <si>
+    <t>119.338928186302</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>118.7</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>107.42</t>
+  </si>
+  <si>
+    <t>108.68</t>
+  </si>
+  <si>
+    <t>109.27</t>
+  </si>
+  <si>
+    <t>282680.35</t>
+  </si>
+  <si>
+    <t>292498.23</t>
+  </si>
+  <si>
+    <t>297405.517570528</t>
+  </si>
+  <si>
+    <t>145.6</t>
+  </si>
+  <si>
     <t>Information and Communication</t>
   </si>
   <si>
+    <t>100.3</t>
+  </si>
+  <si>
+    <t>100.5</t>
+  </si>
+  <si>
+    <t>104.5</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>119.1</t>
+  </si>
+  <si>
+    <t>103.32</t>
+  </si>
+  <si>
+    <t>120.5</t>
+  </si>
+  <si>
+    <t>203.01</t>
+  </si>
+  <si>
+    <t>83.9</t>
+  </si>
+  <si>
+    <t>79.52</t>
+  </si>
+  <si>
+    <t>79.4857848461591</t>
+  </si>
+  <si>
+    <t>79.4996245063681</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>94.9</t>
+  </si>
+  <si>
+    <t>96.32</t>
+  </si>
+  <si>
+    <t>96.81</t>
+  </si>
+  <si>
+    <t>91.08</t>
+  </si>
+  <si>
+    <t>18513.55</t>
+  </si>
+  <si>
+    <t>18784.65</t>
+  </si>
+  <si>
+    <t>18936.7655078098</t>
+  </si>
+  <si>
+    <t>106.7</t>
+  </si>
+  <si>
     <t>Recreation, sport and culture</t>
   </si>
   <si>
+    <t>65.1</t>
+  </si>
+  <si>
+    <t>70.9</t>
+  </si>
+  <si>
+    <t>154.7</t>
+  </si>
+  <si>
+    <t>155.6</t>
+  </si>
+  <si>
+    <t>109.1</t>
+  </si>
+  <si>
+    <t>108.78</t>
+  </si>
+  <si>
+    <t>123.6</t>
+  </si>
+  <si>
+    <t>1337.65</t>
+  </si>
+  <si>
+    <t>207.3</t>
+  </si>
+  <si>
+    <t>207.8</t>
+  </si>
+  <si>
+    <t>207.1</t>
+  </si>
+  <si>
+    <t>207.7</t>
+  </si>
+  <si>
+    <t>114.97</t>
+  </si>
+  <si>
+    <t>114.346780682417</t>
+  </si>
+  <si>
+    <t>114.311203132968</t>
+  </si>
+  <si>
+    <t>105.3</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>102.3</t>
+  </si>
+  <si>
+    <t>124.21</t>
+  </si>
+  <si>
+    <t>123.56</t>
+  </si>
+  <si>
+    <t>113.24</t>
+  </si>
+  <si>
+    <t>98618.97</t>
+  </si>
+  <si>
+    <t>128456.29</t>
+  </si>
+  <si>
+    <t>128678.486789878</t>
+  </si>
+  <si>
+    <t>137.6</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
+    <t>196.4</t>
+  </si>
+  <si>
+    <t>154.8</t>
+  </si>
+  <si>
+    <t>105.63</t>
+  </si>
+  <si>
+    <t>187.80</t>
+  </si>
+  <si>
+    <t>380.1</t>
+  </si>
+  <si>
+    <t>131.10</t>
+  </si>
+  <si>
+    <t>131.200017875288</t>
+  </si>
+  <si>
+    <t>131.090361422133</t>
+  </si>
+  <si>
+    <t>138.9</t>
+  </si>
+  <si>
+    <t>103.62</t>
+  </si>
+  <si>
+    <t>110.80</t>
+  </si>
+  <si>
+    <t>14856.71</t>
+  </si>
+  <si>
+    <t>14861.17</t>
+  </si>
+  <si>
+    <t>15105.608047694</t>
+  </si>
+  <si>
+    <t>161.2</t>
+  </si>
+  <si>
     <t>Restaurants and accommodation services</t>
   </si>
   <si>
+    <t>103.4</t>
+  </si>
+  <si>
+    <t>137.1</t>
+  </si>
+  <si>
+    <t>138.5</t>
+  </si>
+  <si>
+    <t>126.5</t>
+  </si>
+  <si>
+    <t>116.27</t>
+  </si>
+  <si>
+    <t>126.9</t>
+  </si>
+  <si>
+    <t>6379.56</t>
+  </si>
+  <si>
+    <t>346.2</t>
+  </si>
+  <si>
+    <t>118.75</t>
+  </si>
+  <si>
+    <t>118.241731430488</t>
+  </si>
+  <si>
+    <t>120.145544858616</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>105.2</t>
+  </si>
+  <si>
+    <t>105.1</t>
+  </si>
+  <si>
+    <t>111.94</t>
+  </si>
+  <si>
+    <t>112.25</t>
+  </si>
+  <si>
+    <t>108.30</t>
+  </si>
+  <si>
+    <t>41549.50</t>
+  </si>
+  <si>
+    <t>42732.87</t>
+  </si>
+  <si>
+    <t>45521.4978235491</t>
+  </si>
+  <si>
+    <t>173.1</t>
+  </si>
+  <si>
     <t>Miscellaneous goods and services</t>
   </si>
   <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>2022-05</t>
-  </si>
-  <si>
-    <t>2022-06</t>
-  </si>
-  <si>
-    <t>112.6</t>
-  </si>
-  <si>
-    <t>129.8</t>
-  </si>
-  <si>
-    <t>109.8</t>
-  </si>
-  <si>
-    <t>103.6</t>
-  </si>
-  <si>
-    <t>107.5</t>
-  </si>
-  <si>
-    <t>101.9</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>105.3</t>
-  </si>
-  <si>
-    <t>111.7</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>110.8</t>
-  </si>
-  <si>
-    <t>126.03</t>
-  </si>
-  <si>
-    <t>139.53</t>
-  </si>
-  <si>
-    <t>179.25</t>
-  </si>
-  <si>
-    <t>109.43</t>
-  </si>
-  <si>
-    <t>107.27</t>
-  </si>
-  <si>
-    <t>112.18</t>
-  </si>
-  <si>
-    <t>143.83</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>79.52</t>
-  </si>
-  <si>
-    <t>114.97</t>
-  </si>
-  <si>
-    <t>131.10</t>
-  </si>
-  <si>
-    <t>118.75</t>
+    <t>105</t>
+  </si>
+  <si>
+    <t>128.1</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>141.9</t>
+  </si>
+  <si>
+    <t>106.35</t>
+  </si>
+  <si>
+    <t>106.25</t>
+  </si>
+  <si>
+    <t>2614.18</t>
+  </si>
+  <si>
+    <t>298.6</t>
+  </si>
+  <si>
+    <t>301.3</t>
+  </si>
+  <si>
+    <t>301.9</t>
   </si>
   <si>
     <t>112.00</t>
   </si>
   <si>
-    <t>107.58</t>
-  </si>
-  <si>
-    <t>106.34</t>
-  </si>
-  <si>
-    <t>103.93</t>
-  </si>
-  <si>
-    <t>96.35</t>
-  </si>
-  <si>
-    <t>110.20</t>
-  </si>
-  <si>
-    <t>106.24</t>
-  </si>
-  <si>
-    <t>111.21</t>
-  </si>
-  <si>
-    <t>109.06</t>
-  </si>
-  <si>
-    <t>103.32</t>
-  </si>
-  <si>
-    <t>108.78</t>
-  </si>
-  <si>
-    <t>105.63</t>
-  </si>
-  <si>
-    <t>116.27</t>
-  </si>
-  <si>
-    <t>106.35</t>
-  </si>
-  <si>
-    <t>125.3</t>
-  </si>
-  <si>
-    <t>134.4</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>124.2</t>
-  </si>
-  <si>
-    <t>117.7</t>
-  </si>
-  <si>
-    <t>131.1</t>
-  </si>
-  <si>
-    <t>115.2</t>
-  </si>
-  <si>
-    <t>137.5</t>
-  </si>
-  <si>
-    <t>120.5</t>
-  </si>
-  <si>
-    <t>123.6</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>126.9</t>
-  </si>
-  <si>
-    <t>122.3</t>
-  </si>
-  <si>
-    <t>109.2</t>
-  </si>
-  <si>
-    <t>110.1</t>
-  </si>
-  <si>
-    <t>261.6</t>
-  </si>
-  <si>
-    <t>98.7</t>
-  </si>
-  <si>
-    <t>121.4</t>
-  </si>
-  <si>
-    <t>112.2</t>
-  </si>
-  <si>
-    <t>118.7</t>
-  </si>
-  <si>
-    <t>94.9</t>
-  </si>
-  <si>
-    <t>102.2</t>
-  </si>
-  <si>
-    <t>138.9</t>
-  </si>
-  <si>
-    <t>105.2</t>
+    <t>111.522580570631</t>
+  </si>
+  <si>
+    <t>111.812283723386</t>
   </si>
   <si>
     <t>104.2</t>
   </si>
   <si>
-    <t>109.7</t>
-  </si>
-  <si>
-    <t>98.9</t>
-  </si>
-  <si>
-    <t>121.7</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>105.1</t>
-  </si>
-  <si>
     <t>104.3</t>
   </si>
   <si>
-    <t>53029.51</t>
-  </si>
-  <si>
-    <t>32350.77</t>
-  </si>
-  <si>
-    <t>24170.48</t>
-  </si>
-  <si>
-    <t>39431.39</t>
-  </si>
-  <si>
-    <t>21167.13</t>
-  </si>
-  <si>
-    <t>34793.10</t>
-  </si>
-  <si>
-    <t>19892.54</t>
-  </si>
-  <si>
-    <t>282680.35</t>
-  </si>
-  <si>
-    <t>18513.55</t>
-  </si>
-  <si>
-    <t>98618.97</t>
-  </si>
-  <si>
-    <t>14856.71</t>
-  </si>
-  <si>
-    <t>41549.50</t>
+    <t>109.86</t>
+  </si>
+  <si>
+    <t>107.34</t>
+  </si>
+  <si>
+    <t>107.72</t>
   </si>
   <si>
     <t>36116.90</t>
   </si>
   <si>
-    <t>56088.55</t>
-  </si>
-  <si>
-    <t>34795.46</t>
-  </si>
-  <si>
-    <t>24425.05</t>
-  </si>
-  <si>
-    <t>40946.75</t>
-  </si>
-  <si>
-    <t>21302.38</t>
-  </si>
-  <si>
-    <t>36616.13</t>
-  </si>
-  <si>
-    <t>21556.52</t>
-  </si>
-  <si>
-    <t>292498.23</t>
-  </si>
-  <si>
-    <t>18784.65</t>
-  </si>
-  <si>
-    <t>128456.29</t>
-  </si>
-  <si>
-    <t>14861.17</t>
-  </si>
-  <si>
-    <t>42732.87</t>
-  </si>
-  <si>
     <t>36908.69</t>
   </si>
   <si>
-    <t>106.39</t>
-  </si>
-  <si>
-    <t>108.40</t>
-  </si>
-  <si>
-    <t>105.94</t>
-  </si>
-  <si>
-    <t>97.32</t>
-  </si>
-  <si>
-    <t>107.19</t>
-  </si>
-  <si>
-    <t>103.66</t>
-  </si>
-  <si>
-    <t>100.18</t>
-  </si>
-  <si>
-    <t>107.42</t>
-  </si>
-  <si>
-    <t>96.32</t>
-  </si>
-  <si>
-    <t>124.21</t>
-  </si>
-  <si>
-    <t>103.62</t>
-  </si>
-  <si>
-    <t>111.94</t>
-  </si>
-  <si>
-    <t>109.86</t>
-  </si>
-  <si>
-    <t>287.8</t>
-  </si>
-  <si>
-    <t>326.9</t>
-  </si>
-  <si>
-    <t>264.1</t>
-  </si>
-  <si>
-    <t>434.9</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>365.4</t>
-  </si>
-  <si>
-    <t>347.9</t>
-  </si>
-  <si>
-    <t>209.2</t>
-  </si>
-  <si>
-    <t>83.9</t>
-  </si>
-  <si>
-    <t>207.8</t>
-  </si>
-  <si>
-    <t>380.1</t>
-  </si>
-  <si>
-    <t>347.0</t>
-  </si>
-  <si>
-    <t>301.3</t>
-  </si>
-  <si>
-    <t>129.9</t>
-  </si>
-  <si>
-    <t>120.9</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>124.9</t>
-  </si>
-  <si>
-    <t>132.4</t>
-  </si>
-  <si>
-    <t>104.5</t>
-  </si>
-  <si>
-    <t>154.7</t>
-  </si>
-  <si>
-    <t>196.4</t>
-  </si>
-  <si>
-    <t>137.1</t>
-  </si>
-  <si>
-    <t>128.1</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>114.4</t>
-  </si>
-  <si>
-    <t>130.7</t>
-  </si>
-  <si>
-    <t>84.1</t>
-  </si>
-  <si>
-    <t>93.8</t>
-  </si>
-  <si>
-    <t>98.2</t>
-  </si>
-  <si>
-    <t>100.9</t>
-  </si>
-  <si>
-    <t>108.7</t>
-  </si>
-  <si>
-    <t>100.3</t>
-  </si>
-  <si>
-    <t>65.1</t>
-  </si>
-  <si>
-    <t>103.4</t>
-  </si>
-  <si>
-    <t>1286.76</t>
-  </si>
-  <si>
-    <t>5289.71</t>
-  </si>
-  <si>
-    <t>3919.94</t>
-  </si>
-  <si>
-    <t>5886.36</t>
-  </si>
-  <si>
-    <t>356.26</t>
-  </si>
-  <si>
-    <t>4575.85</t>
-  </si>
-  <si>
-    <t>768.51</t>
-  </si>
-  <si>
-    <t>3010.09</t>
-  </si>
-  <si>
-    <t>203.01</t>
-  </si>
-  <si>
-    <t>1337.65</t>
-  </si>
-  <si>
-    <t>187.80</t>
-  </si>
-  <si>
-    <t>6379.56</t>
-  </si>
-  <si>
-    <t>2614.18</t>
-  </si>
-  <si>
-    <t>2022-07</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>106.57</t>
-  </si>
-  <si>
-    <t>105.85</t>
-  </si>
-  <si>
-    <t>97.86</t>
-  </si>
-  <si>
-    <t>106.32</t>
-  </si>
-  <si>
-    <t>103.86</t>
-  </si>
-  <si>
-    <t>99.88</t>
-  </si>
-  <si>
-    <t>108.68</t>
-  </si>
-  <si>
-    <t>96.81</t>
-  </si>
-  <si>
-    <t>123.56</t>
-  </si>
-  <si>
-    <t>112.25</t>
-  </si>
-  <si>
-    <t>107.34</t>
-  </si>
-  <si>
-    <t>131.0</t>
-  </si>
-  <si>
-    <t>130.3</t>
-  </si>
-  <si>
-    <t>118.4</t>
-  </si>
-  <si>
-    <t>122.5</t>
-  </si>
-  <si>
-    <t>119.7</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>141.2</t>
-  </si>
-  <si>
-    <t>104.6</t>
-  </si>
-  <si>
-    <t>155.6</t>
-  </si>
-  <si>
-    <t>138.5</t>
-  </si>
-  <si>
-    <t>129.0</t>
-  </si>
-  <si>
-    <t>288.4</t>
-  </si>
-  <si>
-    <t>329.7</t>
-  </si>
-  <si>
-    <t>433.8</t>
-  </si>
-  <si>
-    <t>189.6</t>
-  </si>
-  <si>
-    <t>365.0</t>
-  </si>
-  <si>
-    <t>208.1</t>
-  </si>
-  <si>
-    <t>207.3</t>
-  </si>
-  <si>
-    <t>346.2</t>
-  </si>
-  <si>
-    <t>298.6</t>
-  </si>
-  <si>
-    <t>110.2</t>
-  </si>
-  <si>
-    <t>113.3</t>
-  </si>
-  <si>
-    <t>99.2</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>121.9</t>
-  </si>
-  <si>
-    <t>112.9</t>
-  </si>
-  <si>
-    <t>102.3</t>
-  </si>
-  <si>
-    <t>117.8</t>
-  </si>
-  <si>
-    <t>107.2</t>
-  </si>
-  <si>
-    <t>140.6</t>
-  </si>
-  <si>
-    <t>110.6</t>
-  </si>
-  <si>
-    <t>124.6</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>149.9</t>
-  </si>
-  <si>
-    <t>114.3</t>
-  </si>
-  <si>
-    <t>119.1</t>
-  </si>
-  <si>
-    <t>109.1</t>
-  </si>
-  <si>
-    <t>154.8</t>
-  </si>
-  <si>
-    <t>126.5</t>
-  </si>
-  <si>
-    <t>141.9</t>
-  </si>
-  <si>
-    <t>107.92</t>
-  </si>
-  <si>
-    <t>106.18</t>
-  </si>
-  <si>
-    <t>96.46</t>
-  </si>
-  <si>
-    <t>110.44</t>
-  </si>
-  <si>
-    <t>106.29</t>
-  </si>
-  <si>
-    <t>111.99</t>
-  </si>
-  <si>
-    <t>110.42</t>
-  </si>
-  <si>
-    <t>106.25</t>
-  </si>
-  <si>
-    <t>103.65</t>
-  </si>
-  <si>
-    <t>106.61</t>
-  </si>
-  <si>
-    <t>92.25</t>
-  </si>
-  <si>
-    <t>92.61</t>
-  </si>
-  <si>
-    <t>105.54</t>
-  </si>
-  <si>
-    <t>98.06</t>
-  </si>
-  <si>
-    <t>109.27</t>
-  </si>
-  <si>
-    <t>91.08</t>
-  </si>
-  <si>
-    <t>113.24</t>
-  </si>
-  <si>
-    <t>110.80</t>
-  </si>
-  <si>
-    <t>108.30</t>
-  </si>
-  <si>
-    <t>107.72</t>
-  </si>
-  <si>
-    <t>127.228047571512</t>
-  </si>
-  <si>
-    <t>141.974690066283</t>
-  </si>
-  <si>
-    <t>180.750485133978</t>
-  </si>
-  <si>
-    <t>108.42826401358</t>
-  </si>
-  <si>
-    <t>107.983234087229</t>
-  </si>
-  <si>
-    <t>112.095104918292</t>
-  </si>
-  <si>
-    <t>143.677052692616</t>
-  </si>
-  <si>
-    <t>115.685440729582</t>
-  </si>
-  <si>
-    <t>79.4857848461591</t>
-  </si>
-  <si>
-    <t>114.346780682417</t>
-  </si>
-  <si>
-    <t>131.200017875288</t>
-  </si>
-  <si>
-    <t>118.241731430488</t>
-  </si>
-  <si>
-    <t>111.522580570631</t>
-  </si>
-  <si>
-    <t>129.138525648614</t>
-  </si>
-  <si>
-    <t>144.840324371518</t>
-  </si>
-  <si>
-    <t>184.760116595949</t>
-  </si>
-  <si>
-    <t>108.453130768385</t>
-  </si>
-  <si>
-    <t>108.517440857646</t>
-  </si>
-  <si>
-    <t>114.028494676622</t>
-  </si>
-  <si>
-    <t>144.275749403082</t>
-  </si>
-  <si>
-    <t>119.338928186302</t>
-  </si>
-  <si>
-    <t>79.4996245063681</t>
-  </si>
-  <si>
-    <t>114.311203132968</t>
-  </si>
-  <si>
-    <t>131.090361422133</t>
-  </si>
-  <si>
-    <t>120.145544858616</t>
-  </si>
-  <si>
-    <t>111.812283723386</t>
-  </si>
-  <si>
-    <t>57547.3629535848</t>
-  </si>
-  <si>
-    <t>36320.2365663385</t>
-  </si>
-  <si>
-    <t>25664.8811431964</t>
-  </si>
-  <si>
-    <t>41715.60</t>
-  </si>
-  <si>
-    <t>21586.6205821987</t>
-  </si>
-  <si>
-    <t>37220.5722160775</t>
-  </si>
-  <si>
-    <t>23242.3125929588</t>
-  </si>
-  <si>
-    <t>297405.517570528</t>
-  </si>
-  <si>
-    <t>18936.7655078098</t>
-  </si>
-  <si>
-    <t>128678.486789878</t>
-  </si>
-  <si>
-    <t>15105.608047694</t>
-  </si>
-  <si>
-    <t>45521.4978235491</t>
-  </si>
-  <si>
     <t>37813.1565802173</t>
   </si>
   <si>
-    <t>116.4</t>
-  </si>
-  <si>
-    <t>84.2</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>99.6</t>
-  </si>
-  <si>
-    <t>109.9</t>
-  </si>
-  <si>
-    <t>100.5</t>
-  </si>
-  <si>
-    <t>70.9</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>152.0</t>
-  </si>
-  <si>
-    <t>153.6</t>
-  </si>
-  <si>
-    <t>186.5</t>
-  </si>
-  <si>
-    <t>174.4</t>
-  </si>
-  <si>
-    <t>142.8</t>
-  </si>
-  <si>
-    <t>158.8</t>
-  </si>
-  <si>
-    <t>142.5</t>
-  </si>
-  <si>
-    <t>145.6</t>
-  </si>
-  <si>
-    <t>106.7</t>
-  </si>
-  <si>
-    <t>137.6</t>
-  </si>
-  <si>
-    <t>161.2</t>
-  </si>
-  <si>
-    <t>173.1</t>
-  </si>
-  <si>
     <t>166.6</t>
+  </si>
+  <si>
+    <t>2022-08</t>
+  </si>
+  <si>
+    <t>131.7</t>
+  </si>
+  <si>
+    <t>130.2</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>119.6</t>
+  </si>
+  <si>
+    <t>122.8</t>
+  </si>
+  <si>
+    <t>126.7</t>
+  </si>
+  <si>
+    <t>143.5</t>
+  </si>
+  <si>
+    <t>158.3</t>
+  </si>
+  <si>
+    <t>140.2</t>
+  </si>
+  <si>
+    <t>130.4</t>
+  </si>
+  <si>
+    <t>111.8</t>
+  </si>
+  <si>
+    <t>114.5</t>
+  </si>
+  <si>
+    <t>103.7</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>126.2</t>
+  </si>
+  <si>
+    <t>105.4</t>
   </si>
 </sst>
 </file>
@@ -1122,18 +1220,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1163,39 +1255,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,11 +1600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH222"/>
+  <dimension ref="A1:AI222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH6" sqref="AH6"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1612,7 @@
     <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,24 +1707,27 @@
         <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>219</v>
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>2019</v>
@@ -1747,22 +1816,22 @@
       <c r="AF2">
         <v>100.1</v>
       </c>
-      <c r="AG2" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>201</v>
+      <c r="AG2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>2018</v>
@@ -1851,22 +1920,25 @@
       <c r="AF3">
         <v>130.19999999999999</v>
       </c>
-      <c r="AG3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="28" t="s">
-        <v>232</v>
+      <c r="AG3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>2012</v>
@@ -1958,19 +2030,19 @@
       <c r="AG4">
         <v>117.2</v>
       </c>
-      <c r="AH4" s="28" t="s">
-        <v>259</v>
+      <c r="AH4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>2018</v>
@@ -2060,21 +2132,21 @@
         <v>106.52647649009005</v>
       </c>
       <c r="AG5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH5" s="28" t="s">
-        <v>272</v>
+        <v>45</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -2163,19 +2235,19 @@
       <c r="AF6">
         <v>124.8</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>102</v>
+      <c r="AG6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>2013</v>
@@ -2265,15 +2337,15 @@
         <v>1177.9901683857299</v>
       </c>
       <c r="AG7" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -2359,22 +2431,28 @@
       <c r="AD8">
         <v>287.5</v>
       </c>
-      <c r="AE8" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF8" s="28" t="s">
-        <v>172</v>
+      <c r="AE8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -2461,24 +2539,24 @@
         <v>124.84053868130533</v>
       </c>
       <c r="AF9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG9" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH9" s="28" t="s">
-        <v>305</v>
+        <v>57</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -2568,18 +2646,21 @@
         <v>110.2</v>
       </c>
       <c r="AG10" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>2012</v>
@@ -2665,25 +2746,25 @@
       <c r="AE11">
         <v>109.2</v>
       </c>
-      <c r="AF11" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG11" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH11" s="28" t="s">
-        <v>252</v>
+      <c r="AF11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>2018</v>
@@ -2772,22 +2853,22 @@
       <c r="AF12">
         <v>105.99</v>
       </c>
-      <c r="AG12" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH12" s="28" t="s">
-        <v>220</v>
+      <c r="AG12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>2018</v>
@@ -2879,19 +2960,19 @@
       <c r="AG13">
         <v>103.14</v>
       </c>
-      <c r="AH13" s="28" t="s">
-        <v>280</v>
+      <c r="AH13" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>2013</v>
@@ -2984,15 +3065,15 @@
         <v>106.66</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>2007</v>
@@ -3078,25 +3159,25 @@
       <c r="AE15">
         <v>49662.75</v>
       </c>
-      <c r="AF15" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG15" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH15" s="28" t="s">
-        <v>318</v>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D16">
         <v>2010</v>
@@ -3135,15 +3216,15 @@
         <v>2871.06</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>2015</v>
@@ -3235,19 +3316,19 @@
       <c r="AG17">
         <v>150.5</v>
       </c>
-      <c r="AH17" s="28" t="s">
-        <v>339</v>
+      <c r="AH17" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>2014</v>
@@ -3322,15 +3403,15 @@
         <v>108.62</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>2019</v>
@@ -3419,22 +3500,22 @@
       <c r="AF19">
         <v>113.6</v>
       </c>
-      <c r="AG19" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH19" s="28" t="s">
-        <v>331</v>
+      <c r="AG19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>2018</v>
@@ -3523,22 +3604,25 @@
       <c r="AF20">
         <v>132.9</v>
       </c>
-      <c r="AG20" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH20" s="28" t="s">
-        <v>233</v>
+      <c r="AG20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>2012</v>
@@ -3630,19 +3714,19 @@
       <c r="AG21">
         <v>107.4</v>
       </c>
-      <c r="AH21" s="28" t="s">
-        <v>260</v>
+      <c r="AH21" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -3732,21 +3816,21 @@
         <v>107.98002181566186</v>
       </c>
       <c r="AG22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH22" s="28" t="s">
-        <v>273</v>
+        <v>86</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>2013</v>
@@ -3835,19 +3919,19 @@
       <c r="AF23">
         <v>132.80000000000001</v>
       </c>
-      <c r="AG23" s="4" t="s">
-        <v>103</v>
+      <c r="AG23" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>2013</v>
@@ -3936,16 +4020,16 @@
       <c r="AF24">
         <v>4899.39063071073</v>
       </c>
-      <c r="AG24" s="28" t="s">
-        <v>207</v>
+      <c r="AG24" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -4031,22 +4115,28 @@
       <c r="AD25">
         <v>326.5</v>
       </c>
-      <c r="AE25" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF25" s="28" t="s">
-        <v>173</v>
+      <c r="AE25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>2014</v>
@@ -4133,24 +4223,24 @@
         <v>137.18596185113901</v>
       </c>
       <c r="AF26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG26" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="AH26" s="28" t="s">
-        <v>306</v>
+        <v>94</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>2017</v>
@@ -4240,18 +4330,21 @@
         <v>112.5</v>
       </c>
       <c r="AG27" t="s">
-        <v>64</v>
+        <v>97</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>379</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>2012</v>
@@ -4337,25 +4430,25 @@
       <c r="AE28">
         <v>109.9</v>
       </c>
-      <c r="AF28" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH28" s="28" t="s">
-        <v>253</v>
+      <c r="AF28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>2018</v>
@@ -4444,22 +4537,22 @@
       <c r="AF29">
         <v>109.93</v>
       </c>
-      <c r="AG29" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH29" s="28" t="s">
-        <v>221</v>
+      <c r="AG29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D30">
         <v>2018</v>
@@ -4551,19 +4644,19 @@
       <c r="AG30">
         <v>106.59</v>
       </c>
-      <c r="AH30" s="28" t="s">
-        <v>281</v>
+      <c r="AH30">
+        <v>102.27</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>2013</v>
@@ -4656,15 +4749,15 @@
         <v>121.93</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>2007</v>
@@ -4750,25 +4843,25 @@
       <c r="AE32">
         <v>30734.6</v>
       </c>
-      <c r="AF32" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG32" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH32" s="28" t="s">
-        <v>319</v>
+      <c r="AF32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D33">
         <v>2010</v>
@@ -4807,15 +4900,15 @@
         <v>3680.29</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D34">
         <v>2015</v>
@@ -4907,19 +5000,19 @@
       <c r="AG34">
         <v>150.69999999999999</v>
       </c>
-      <c r="AH34" s="28" t="s">
-        <v>340</v>
+      <c r="AH34" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <v>2014</v>
@@ -4994,15 +5087,15 @@
         <v>113.46</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>2019</v>
@@ -5091,22 +5184,22 @@
       <c r="AF36">
         <v>130.69999999999999</v>
       </c>
-      <c r="AG36" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH36" s="28" t="s">
-        <v>197</v>
+      <c r="AG36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D37">
         <v>2018</v>
@@ -5195,22 +5288,25 @@
       <c r="AF37">
         <v>120.5</v>
       </c>
-      <c r="AG37" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH37" s="28" t="s">
-        <v>112</v>
+      <c r="AG37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>2012</v>
@@ -5302,19 +5398,19 @@
       <c r="AG38">
         <v>140.69999999999999</v>
       </c>
-      <c r="AH38" s="28" t="s">
-        <v>261</v>
+      <c r="AH38" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>2018</v>
@@ -5404,21 +5500,21 @@
         <v>103.9091029232348</v>
       </c>
       <c r="AG39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH39" s="28" t="s">
-        <v>91</v>
+        <v>112</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40">
         <v>2013</v>
@@ -5507,19 +5603,19 @@
       <c r="AF40">
         <v>135</v>
       </c>
-      <c r="AG40" s="5" t="s">
-        <v>104</v>
+      <c r="AG40" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41">
         <v>2013</v>
@@ -5608,16 +5704,16 @@
       <c r="AF41">
         <v>3359.1870267580011</v>
       </c>
-      <c r="AG41" s="28" t="s">
-        <v>208</v>
+      <c r="AG41" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
@@ -5703,22 +5799,28 @@
       <c r="AD42">
         <v>264.10000000000002</v>
       </c>
-      <c r="AE42" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF42" s="28" t="s">
-        <v>174</v>
+      <c r="AE42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>2014</v>
@@ -5805,24 +5907,24 @@
         <v>180.64358770301911</v>
       </c>
       <c r="AF43" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG43" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="AH43" s="28" t="s">
-        <v>307</v>
+        <v>116</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D44">
         <v>2017</v>
@@ -5912,18 +6014,21 @@
         <v>129.80000000000001</v>
       </c>
       <c r="AG44" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D45">
         <v>2012</v>
@@ -6009,25 +6114,25 @@
       <c r="AE45">
         <v>261.60000000000002</v>
       </c>
-      <c r="AF45" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG45" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH45" s="28" t="s">
-        <v>117</v>
+      <c r="AF45" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D46">
         <v>2018</v>
@@ -6116,22 +6221,22 @@
       <c r="AF46">
         <v>105.2</v>
       </c>
-      <c r="AG46" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH46" s="28" t="s">
-        <v>222</v>
+      <c r="AG46" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D47">
         <v>2018</v>
@@ -6223,19 +6328,19 @@
       <c r="AG47">
         <v>246</v>
       </c>
-      <c r="AH47" s="29" t="s">
-        <v>281</v>
+      <c r="AH47" s="3">
+        <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D48">
         <v>2013</v>
@@ -6328,15 +6433,15 @@
         <v>114.77</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D49">
         <v>2007</v>
@@ -6422,25 +6527,25 @@
       <c r="AE49">
         <v>23679.61</v>
       </c>
-      <c r="AF49" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG49" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH49" s="28" t="s">
-        <v>320</v>
+      <c r="AF49" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D50">
         <v>2010</v>
@@ -6479,15 +6584,15 @@
         <v>5702.7</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <v>2015</v>
@@ -6579,19 +6684,19 @@
       <c r="AG51">
         <v>186.5</v>
       </c>
-      <c r="AH51" s="28" t="s">
-        <v>341</v>
+      <c r="AH51" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>2014</v>
@@ -6666,15 +6771,15 @@
         <v>205.88</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D53">
         <v>2019</v>
@@ -6763,22 +6868,22 @@
       <c r="AF53">
         <v>88.8</v>
       </c>
-      <c r="AG53" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH53" s="28" t="s">
-        <v>332</v>
+      <c r="AG53" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D54">
         <v>2018</v>
@@ -6867,22 +6972,25 @@
       <c r="AF54">
         <v>116.7</v>
       </c>
-      <c r="AG54" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH54" s="28" t="s">
-        <v>234</v>
+      <c r="AG54" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>371</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D55">
         <v>2012</v>
@@ -6974,19 +7082,19 @@
       <c r="AG55">
         <v>110.2</v>
       </c>
-      <c r="AH55" s="28" t="s">
-        <v>262</v>
+      <c r="AH55" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D56">
         <v>2018</v>
@@ -7076,21 +7184,21 @@
         <v>96.404970154756015</v>
       </c>
       <c r="AG56" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH56" s="28" t="s">
-        <v>274</v>
+        <v>132</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57">
         <v>2013</v>
@@ -7179,19 +7287,19 @@
       <c r="AF57">
         <v>123.6</v>
       </c>
-      <c r="AG57" s="6" t="s">
-        <v>105</v>
+      <c r="AG57" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58">
         <v>2013</v>
@@ -7280,16 +7388,16 @@
       <c r="AF58">
         <v>5874.2666158627626</v>
       </c>
-      <c r="AG58" s="28" t="s">
-        <v>209</v>
+      <c r="AG58" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
         <v>51</v>
@@ -7375,22 +7483,28 @@
       <c r="AD59">
         <v>430.9</v>
       </c>
-      <c r="AE59" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF59" s="28" t="s">
-        <v>175</v>
+      <c r="AE59" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>2014</v>
@@ -7477,24 +7591,24 @@
         <v>109.85953002503798</v>
       </c>
       <c r="AF60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG60" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH60" s="28" t="s">
-        <v>308</v>
+        <v>140</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D61">
         <v>2017</v>
@@ -7584,18 +7698,21 @@
         <v>109.6</v>
       </c>
       <c r="AG61" t="s">
-        <v>66</v>
+        <v>143</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D62">
         <v>2012</v>
@@ -7681,25 +7798,25 @@
       <c r="AE62">
         <v>98.8</v>
       </c>
-      <c r="AF62" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG62" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH62" s="28" t="s">
-        <v>254</v>
+      <c r="AF62" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D63">
         <v>2018</v>
@@ -7788,22 +7905,22 @@
       <c r="AF63">
         <v>97.33</v>
       </c>
-      <c r="AG63" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH63" s="28" t="s">
-        <v>223</v>
+      <c r="AG63" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D64">
         <v>2018</v>
@@ -7895,19 +8012,19 @@
       <c r="AG64">
         <v>89.95</v>
       </c>
-      <c r="AH64" s="28" t="s">
-        <v>282</v>
+      <c r="AH64" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>2013</v>
@@ -8000,15 +8117,15 @@
         <v>102.67</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D66">
         <v>2007</v>
@@ -8094,25 +8211,25 @@
       <c r="AE66">
         <v>37269.620000000003</v>
       </c>
-      <c r="AF66" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG66" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH66" s="28" t="s">
-        <v>321</v>
+      <c r="AF66" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D67">
         <v>2010</v>
@@ -8151,15 +8268,15 @@
         <v>2537.0300000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D68">
         <v>2015</v>
@@ -8251,19 +8368,19 @@
       <c r="AG68">
         <v>173.3</v>
       </c>
-      <c r="AH68" s="28" t="s">
-        <v>342</v>
+      <c r="AH68" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D69">
         <v>2014</v>
@@ -8338,15 +8455,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
         <v>36</v>
-      </c>
-      <c r="C70" t="s">
-        <v>45</v>
       </c>
       <c r="D70">
         <v>2019</v>
@@ -8435,22 +8552,22 @@
       <c r="AF70">
         <v>93.5</v>
       </c>
-      <c r="AG70" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH70" s="28" t="s">
-        <v>333</v>
+      <c r="AG70" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D71">
         <v>2018</v>
@@ -8539,22 +8656,25 @@
       <c r="AF71">
         <v>122</v>
       </c>
-      <c r="AG71" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH71" s="28" t="s">
-        <v>235</v>
+      <c r="AG71" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D72">
         <v>2012</v>
@@ -8646,19 +8766,19 @@
       <c r="AG72">
         <v>122.5</v>
       </c>
-      <c r="AH72" s="28" t="s">
-        <v>263</v>
+      <c r="AH72" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D73">
         <v>2018</v>
@@ -8748,21 +8868,21 @@
         <v>106.85943349001833</v>
       </c>
       <c r="AG73" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH73" s="28" t="s">
-        <v>275</v>
+        <v>160</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D74">
         <v>2013</v>
@@ -8851,19 +8971,19 @@
       <c r="AF74">
         <v>117.7</v>
       </c>
-      <c r="AG74" s="7" t="s">
-        <v>106</v>
+      <c r="AG74" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D75">
         <v>2013</v>
@@ -8952,16 +9072,16 @@
       <c r="AF75">
         <v>298.59157252784809</v>
       </c>
-      <c r="AG75" s="28" t="s">
-        <v>210</v>
+      <c r="AG75" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
         <v>51</v>
@@ -9047,22 +9167,28 @@
       <c r="AD76">
         <v>189.5</v>
       </c>
-      <c r="AE76" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF76" s="28" t="s">
-        <v>176</v>
+      <c r="AE76" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D77">
         <v>2014</v>
@@ -9149,24 +9275,24 @@
         <v>107.16595453483667</v>
       </c>
       <c r="AF77" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG77" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH77" s="28" t="s">
-        <v>309</v>
+        <v>167</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <v>2017</v>
@@ -9256,18 +9382,21 @@
         <v>103.4</v>
       </c>
       <c r="AG78" t="s">
-        <v>67</v>
+        <v>170</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D79">
         <v>2012</v>
@@ -9353,25 +9482,25 @@
       <c r="AE79">
         <v>106.4</v>
       </c>
-      <c r="AF79" s="15">
+      <c r="AF79">
         <v>105</v>
       </c>
-      <c r="AG79" s="15">
+      <c r="AG79">
         <v>105</v>
       </c>
-      <c r="AH79" s="28" t="s">
-        <v>255</v>
+      <c r="AH79" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D80">
         <v>2018</v>
@@ -9460,22 +9589,22 @@
       <c r="AF80">
         <v>106.72</v>
       </c>
-      <c r="AG80" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH80" s="28" t="s">
-        <v>224</v>
+      <c r="AG80" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D81">
         <v>2018</v>
@@ -9567,19 +9696,19 @@
       <c r="AG81">
         <v>92.04</v>
       </c>
-      <c r="AH81" s="28" t="s">
-        <v>283</v>
+      <c r="AH81" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D82">
         <v>2013</v>
@@ -9672,15 +9801,15 @@
         <v>89.04</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D83">
         <v>2007</v>
@@ -9766,25 +9895,25 @@
       <c r="AE83">
         <v>20478.63</v>
       </c>
-      <c r="AF83" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG83" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH83" s="28" t="s">
-        <v>322</v>
+      <c r="AF83" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D84">
         <v>2010</v>
@@ -9823,15 +9952,15 @@
         <v>768.24</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D85">
         <v>2015</v>
@@ -9923,19 +10052,19 @@
       <c r="AG85">
         <v>142.19999999999999</v>
       </c>
-      <c r="AH85" s="28" t="s">
-        <v>343</v>
+      <c r="AH85" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D86">
         <v>2014</v>
@@ -10010,15 +10139,15 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D87">
         <v>2019</v>
@@ -10107,22 +10236,22 @@
       <c r="AF87">
         <v>99.6</v>
       </c>
-      <c r="AG87" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH87" s="28" t="s">
-        <v>334</v>
+      <c r="AG87" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D88">
         <v>2018</v>
@@ -10211,22 +10340,25 @@
       <c r="AF88">
         <v>115.7</v>
       </c>
-      <c r="AG88" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH88" s="28" t="s">
-        <v>236</v>
+      <c r="AG88" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D89">
         <v>2012</v>
@@ -10318,19 +10450,19 @@
       <c r="AG89">
         <v>109.8</v>
       </c>
-      <c r="AH89" s="28" t="s">
-        <v>264</v>
+      <c r="AH89" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D90">
         <v>2018</v>
@@ -10420,21 +10552,21 @@
         <v>103.91373088712399</v>
       </c>
       <c r="AG90" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH90" s="28" t="s">
-        <v>276</v>
+        <v>185</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D91">
         <v>2013</v>
@@ -10523,19 +10655,19 @@
       <c r="AF91">
         <v>130.9</v>
       </c>
-      <c r="AG91" s="8" t="s">
-        <v>107</v>
+      <c r="AG91" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92">
         <v>2013</v>
@@ -10624,16 +10756,16 @@
       <c r="AF92">
         <v>4366.78506867329</v>
       </c>
-      <c r="AG92" s="28" t="s">
-        <v>211</v>
+      <c r="AG92" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
         <v>51</v>
@@ -10719,22 +10851,28 @@
       <c r="AD93">
         <v>363</v>
       </c>
-      <c r="AE93" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF93" s="28" t="s">
-        <v>177</v>
+      <c r="AE93" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D94">
         <v>2014</v>
@@ -10821,24 +10959,24 @@
         <v>112.62731839722373</v>
       </c>
       <c r="AF94" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG94" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH94" s="28" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D95">
         <v>2017</v>
@@ -10928,18 +11066,21 @@
         <v>106.6</v>
       </c>
       <c r="AG95" t="s">
-        <v>68</v>
+        <v>196</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D96">
         <v>2012</v>
@@ -11025,25 +11166,25 @@
       <c r="AE96">
         <v>121</v>
       </c>
-      <c r="AF96" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG96" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH96" s="28" t="s">
-        <v>256</v>
+      <c r="AF96" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D97">
         <v>2018</v>
@@ -11132,22 +11273,22 @@
       <c r="AF97">
         <v>103.12</v>
       </c>
-      <c r="AG97" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH97" s="28" t="s">
-        <v>225</v>
+      <c r="AG97" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D98">
         <v>2018</v>
@@ -11239,19 +11380,19 @@
       <c r="AG98">
         <v>105.5</v>
       </c>
-      <c r="AH98" s="28" t="s">
-        <v>284</v>
+      <c r="AH98" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D99">
         <v>2013</v>
@@ -11344,15 +11485,15 @@
         <v>109.88</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D100">
         <v>2007</v>
@@ -11438,25 +11579,25 @@
       <c r="AE100">
         <v>32713.279999999999</v>
       </c>
-      <c r="AF100" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG100" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH100" s="28" t="s">
-        <v>323</v>
+      <c r="AF100" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D101">
         <v>2010</v>
@@ -11495,15 +11636,15 @@
         <v>4181.22</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D102">
         <v>2015</v>
@@ -11595,19 +11736,19 @@
       <c r="AG102">
         <v>157.19999999999999</v>
       </c>
-      <c r="AH102" s="28" t="s">
-        <v>344</v>
+      <c r="AH102" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D103">
         <v>2014</v>
@@ -11682,15 +11823,15 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D104">
         <v>2019</v>
@@ -11779,22 +11920,22 @@
       <c r="AF104">
         <v>100.9</v>
       </c>
-      <c r="AG104" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH104" s="28" t="s">
-        <v>201</v>
+      <c r="AG104" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D105">
         <v>2018</v>
@@ -11883,22 +12024,25 @@
       <c r="AF105">
         <v>123.8</v>
       </c>
-      <c r="AG105" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH105" s="28" t="s">
-        <v>237</v>
+      <c r="AG105" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D106">
         <v>2012</v>
@@ -11990,19 +12134,19 @@
       <c r="AG106">
         <v>149.80000000000001</v>
       </c>
-      <c r="AH106" s="28" t="s">
-        <v>265</v>
+      <c r="AH106" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D107">
         <v>2018</v>
@@ -12092,21 +12236,21 @@
         <v>105.95519000591874</v>
       </c>
       <c r="AG107" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH107" s="28" t="s">
-        <v>277</v>
+        <v>211</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D108">
         <v>2013</v>
@@ -12195,19 +12339,19 @@
       <c r="AF108">
         <v>114.4</v>
       </c>
-      <c r="AG108" s="9" t="s">
-        <v>108</v>
+      <c r="AG108" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D109">
         <v>2013</v>
@@ -12296,16 +12440,16 @@
       <c r="AF109">
         <v>734.62727276641567</v>
       </c>
-      <c r="AG109" s="28" t="s">
-        <v>212</v>
+      <c r="AG109" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
         <v>51</v>
@@ -12391,22 +12535,28 @@
       <c r="AD110">
         <v>346.8</v>
       </c>
-      <c r="AE110" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF110" s="28" t="s">
-        <v>178</v>
+      <c r="AE110" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D111">
         <v>2014</v>
@@ -12493,24 +12643,24 @@
         <v>143.6517452953386</v>
       </c>
       <c r="AF111" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG111" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="AH111" s="28" t="s">
-        <v>311</v>
+        <v>218</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C112" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D112">
         <v>2017</v>
@@ -12600,18 +12750,21 @@
         <v>101.9</v>
       </c>
       <c r="AG112" t="s">
-        <v>69</v>
+        <v>221</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D113">
         <v>2012</v>
@@ -12697,25 +12850,25 @@
       <c r="AE113">
         <v>112.2</v>
       </c>
-      <c r="AF113" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG113" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH113" s="28" t="s">
-        <v>257</v>
+      <c r="AF113" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D114">
         <v>2018</v>
@@ -12804,22 +12957,22 @@
       <c r="AF114">
         <v>99.57</v>
       </c>
-      <c r="AG114" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH114" s="28" t="s">
-        <v>226</v>
+      <c r="AG114" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D115">
         <v>2018</v>
@@ -12911,19 +13064,19 @@
       <c r="AG115">
         <v>98.27</v>
       </c>
-      <c r="AH115" s="28" t="s">
-        <v>285</v>
+      <c r="AH115" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D116">
         <v>2013</v>
@@ -13016,15 +13169,15 @@
         <v>103.22</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C117" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D117">
         <v>2007</v>
@@ -13110,25 +13263,25 @@
       <c r="AE117">
         <v>18144.330000000002</v>
       </c>
-      <c r="AF117" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG117" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH117" s="28" t="s">
-        <v>324</v>
+      <c r="AF117" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D118">
         <v>2010</v>
@@ -13167,15 +13320,15 @@
         <v>2355.5100000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C119" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D119">
         <v>2015</v>
@@ -13267,19 +13420,19 @@
       <c r="AG119">
         <v>141.80000000000001</v>
       </c>
-      <c r="AH119" s="28" t="s">
-        <v>345</v>
+      <c r="AH119" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C120" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D120">
         <v>2014</v>
@@ -13354,15 +13507,15 @@
         <v>106.53</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C121" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D121">
         <v>2019</v>
@@ -13451,22 +13604,22 @@
       <c r="AF121">
         <v>108.6</v>
       </c>
-      <c r="AG121" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH121" s="28" t="s">
-        <v>335</v>
+      <c r="AG121" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B122" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" t="s">
         <v>39</v>
-      </c>
-      <c r="C122" t="s">
-        <v>46</v>
       </c>
       <c r="D122">
         <v>2018</v>
@@ -13555,22 +13708,25 @@
       <c r="AF122">
         <v>129.6</v>
       </c>
-      <c r="AG122" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH122" s="28" t="s">
-        <v>238</v>
+      <c r="AG122" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D123">
         <v>2012</v>
@@ -13662,19 +13818,19 @@
       <c r="AG123">
         <v>113.5</v>
       </c>
-      <c r="AH123" s="28" t="s">
-        <v>266</v>
+      <c r="AH123" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D124">
         <v>2018</v>
@@ -13764,21 +13920,21 @@
         <v>107.67036278709638</v>
       </c>
       <c r="AG124" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH124" s="28" t="s">
-        <v>278</v>
+        <v>237</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D125">
         <v>2013</v>
@@ -13867,19 +14023,19 @@
       <c r="AF125">
         <v>137.1</v>
       </c>
-      <c r="AG125" s="10" t="s">
-        <v>109</v>
+      <c r="AG125" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D126">
         <v>2013</v>
@@ -13968,16 +14124,16 @@
       <c r="AF126">
         <v>2811.9837487175205</v>
       </c>
-      <c r="AG126" s="28" t="s">
-        <v>213</v>
+      <c r="AG126" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C127" t="s">
         <v>51</v>
@@ -14063,22 +14219,28 @@
       <c r="AD127">
         <v>208.1</v>
       </c>
-      <c r="AE127" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF127" s="28" t="s">
-        <v>179</v>
+      <c r="AE127" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH127" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D128">
         <v>2014</v>
@@ -14165,24 +14327,24 @@
         <v>115.96413043577452</v>
       </c>
       <c r="AF128" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG128" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="AH128" s="28" t="s">
-        <v>312</v>
+        <v>245</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C129" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D129">
         <v>2017</v>
@@ -14272,18 +14434,21 @@
         <v>119.7</v>
       </c>
       <c r="AG129" t="s">
-        <v>70</v>
+        <v>248</v>
+      </c>
+      <c r="AH129" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D130">
         <v>2012</v>
@@ -14369,25 +14534,25 @@
       <c r="AE130">
         <v>117.1</v>
       </c>
-      <c r="AF130" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG130" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH130" s="28" t="s">
-        <v>130</v>
+      <c r="AF130" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C131" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D131">
         <v>2018</v>
@@ -14476,22 +14641,22 @@
       <c r="AF131">
         <v>104.11</v>
       </c>
-      <c r="AG131" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH131" s="28" t="s">
-        <v>227</v>
+      <c r="AG131" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH131" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D132">
         <v>2018</v>
@@ -14583,19 +14748,19 @@
       <c r="AG132">
         <v>109.09</v>
       </c>
-      <c r="AH132" s="28" t="s">
-        <v>286</v>
+      <c r="AH132" t="s">
+        <v>253</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C133" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D133">
         <v>2013</v>
@@ -14688,15 +14853,15 @@
         <v>117.37</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C134" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D134">
         <v>2007</v>
@@ -14782,25 +14947,25 @@
       <c r="AE134">
         <v>258505</v>
       </c>
-      <c r="AF134" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG134" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH134" s="28" t="s">
-        <v>325</v>
+      <c r="AF134" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C135" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D135">
         <v>2010</v>
@@ -14839,15 +15004,15 @@
         <v>2501.13</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C136" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D136">
         <v>2015</v>
@@ -14939,19 +15104,19 @@
       <c r="AG136">
         <v>144.69999999999999</v>
       </c>
-      <c r="AH136" s="28" t="s">
-        <v>346</v>
+      <c r="AH136" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C137" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D137">
         <v>2014</v>
@@ -15026,15 +15191,15 @@
         <v>120.51</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D138">
         <v>2019</v>
@@ -15123,22 +15288,22 @@
       <c r="AF138">
         <v>100.7</v>
       </c>
-      <c r="AG138" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH138" s="28" t="s">
-        <v>336</v>
+      <c r="AG138" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH138" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D139">
         <v>2018</v>
@@ -15227,22 +15392,25 @@
       <c r="AF139">
         <v>104.5</v>
       </c>
-      <c r="AG139" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH139" s="28" t="s">
-        <v>239</v>
+      <c r="AG139" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH139" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI139" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D140">
         <v>2012</v>
@@ -15334,19 +15502,19 @@
       <c r="AG140">
         <v>119.2</v>
       </c>
-      <c r="AH140" s="28" t="s">
-        <v>267</v>
+      <c r="AH140" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C141" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D141">
         <v>2018</v>
@@ -15436,21 +15604,21 @@
         <v>103.32222809620981</v>
       </c>
       <c r="AG141" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH141" s="28" t="s">
-        <v>97</v>
+        <v>264</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D142">
         <v>2013</v>
@@ -15539,19 +15707,19 @@
       <c r="AF142">
         <v>120.5</v>
       </c>
-      <c r="AG142" s="11" t="s">
-        <v>110</v>
+      <c r="AG142" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D143">
         <v>2013</v>
@@ -15640,16 +15808,16 @@
       <c r="AF143">
         <v>203.63725654179296</v>
       </c>
-      <c r="AG143" s="28" t="s">
-        <v>214</v>
+      <c r="AG143" t="s">
+        <v>266</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C144" t="s">
         <v>51</v>
@@ -15735,22 +15903,28 @@
       <c r="AD144">
         <v>83.9</v>
       </c>
-      <c r="AE144" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF144" s="28" t="s">
-        <v>180</v>
+      <c r="AE144" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D145">
         <v>2014</v>
@@ -15837,24 +16011,24 @@
         <v>79.501891321686031</v>
       </c>
       <c r="AF145" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG145" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH145" s="28" t="s">
-        <v>313</v>
+        <v>268</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH145" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D146">
         <v>2017</v>
@@ -15944,18 +16118,21 @@
         <v>103.8</v>
       </c>
       <c r="AG146" t="s">
-        <v>71</v>
+        <v>271</v>
+      </c>
+      <c r="AH146" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C147" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D147">
         <v>2012</v>
@@ -16041,25 +16218,25 @@
       <c r="AE147">
         <v>94.9</v>
       </c>
-      <c r="AF147" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG147" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH147" s="28" t="s">
-        <v>122</v>
+      <c r="AF147" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG147" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH147" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C148" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D148">
         <v>2018</v>
@@ -16148,22 +16325,22 @@
       <c r="AF148">
         <v>94.64</v>
       </c>
-      <c r="AG148" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH148" s="28" t="s">
-        <v>228</v>
+      <c r="AG148" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH148" t="s">
+        <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C149" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D149">
         <v>2018</v>
@@ -16255,19 +16432,19 @@
       <c r="AG149">
         <v>93.06</v>
       </c>
-      <c r="AH149" s="28" t="s">
-        <v>287</v>
+      <c r="AH149" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B150" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C150" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D150">
         <v>2013</v>
@@ -16360,15 +16537,15 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C151" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D151">
         <v>2007</v>
@@ -16454,25 +16631,25 @@
       <c r="AE151">
         <v>17288.48</v>
       </c>
-      <c r="AF151" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG151" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH151" s="28" t="s">
-        <v>326</v>
+      <c r="AF151" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C152" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D152">
         <v>2010</v>
@@ -16511,15 +16688,15 @@
         <v>448.23</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C153" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D153">
         <v>2015</v>
@@ -16611,19 +16788,19 @@
       <c r="AG153">
         <v>106.7</v>
       </c>
-      <c r="AH153" s="28" t="s">
-        <v>347</v>
+      <c r="AH153" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="C154" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D154">
         <v>2014</v>
@@ -16698,15 +16875,15 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B155" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C155" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D155">
         <v>2019</v>
@@ -16795,22 +16972,22 @@
       <c r="AF155">
         <v>65.2</v>
       </c>
-      <c r="AG155" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH155" s="28" t="s">
-        <v>337</v>
+      <c r="AG155" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH155" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C156" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D156">
         <v>2018</v>
@@ -16899,22 +17076,25 @@
       <c r="AF156">
         <v>153.5</v>
       </c>
-      <c r="AG156" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH156" s="28" t="s">
-        <v>240</v>
+      <c r="AG156" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>375</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C157" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D157">
         <v>2012</v>
@@ -17006,19 +17186,19 @@
       <c r="AG157">
         <v>109</v>
       </c>
-      <c r="AH157" s="28" t="s">
-        <v>268</v>
+      <c r="AH157" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B158" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C158" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D158">
         <v>2018</v>
@@ -17108,21 +17288,21 @@
         <v>104.32461133651657</v>
       </c>
       <c r="AG158" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH158" s="28" t="s">
-        <v>277</v>
+        <v>286</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B159" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C159" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D159">
         <v>2013</v>
@@ -17211,19 +17391,19 @@
       <c r="AF159">
         <v>123.2</v>
       </c>
-      <c r="AG159" s="12" t="s">
-        <v>111</v>
+      <c r="AG159" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B160" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D160">
         <v>2013</v>
@@ -17312,16 +17492,16 @@
       <c r="AF160">
         <v>1237.1561937301249</v>
       </c>
-      <c r="AG160" s="28" t="s">
-        <v>215</v>
+      <c r="AG160" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B161" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C161" t="s">
         <v>51</v>
@@ -17407,22 +17587,28 @@
       <c r="AD161">
         <v>206.6</v>
       </c>
-      <c r="AE161" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF161" s="28" t="s">
-        <v>181</v>
+      <c r="AE161" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B162" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C162" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D162">
         <v>2014</v>
@@ -17509,24 +17695,24 @@
         <v>114.45705998031195</v>
       </c>
       <c r="AF162" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG162" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH162" s="28" t="s">
-        <v>314</v>
+        <v>293</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D163">
         <v>2017</v>
@@ -17616,18 +17802,21 @@
         <v>104.6</v>
       </c>
       <c r="AG163" t="s">
-        <v>72</v>
+        <v>296</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>383</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C164" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D164">
         <v>2012</v>
@@ -17713,25 +17902,25 @@
       <c r="AE164">
         <v>102</v>
       </c>
-      <c r="AF164" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG164" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH164" s="28" t="s">
-        <v>258</v>
+      <c r="AF164" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B165" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C165" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D165">
         <v>2018</v>
@@ -17820,22 +18009,22 @@
       <c r="AF165">
         <v>124.33</v>
       </c>
-      <c r="AG165" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH165" s="28" t="s">
-        <v>229</v>
+      <c r="AG165" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B166" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C166" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D166">
         <v>2018</v>
@@ -17927,19 +18116,19 @@
       <c r="AG166">
         <v>110.43</v>
       </c>
-      <c r="AH166" s="28" t="s">
-        <v>288</v>
+      <c r="AH166" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B167" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C167" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D167">
         <v>2013</v>
@@ -18032,15 +18221,15 @@
         <v>105.81</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B168" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C168" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D168">
         <v>2007</v>
@@ -18126,25 +18315,25 @@
       <c r="AE168">
         <v>96150.32</v>
       </c>
-      <c r="AF168" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG168" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH168" s="28" t="s">
-        <v>327</v>
+      <c r="AF168" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C169" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D169">
         <v>2010</v>
@@ -18183,15 +18372,15 @@
         <v>3633.18</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B170" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C170" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D170">
         <v>2015</v>
@@ -18283,19 +18472,19 @@
       <c r="AG170">
         <v>135.6</v>
       </c>
-      <c r="AH170" s="28" t="s">
-        <v>348</v>
+      <c r="AH170" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B171" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="C171" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D171">
         <v>2014</v>
@@ -18370,15 +18559,15 @@
         <v>102.73</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B172" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D172">
         <v>2019</v>
@@ -18467,22 +18656,22 @@
       <c r="AF172">
         <v>105.3</v>
       </c>
-      <c r="AG172" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH172" s="28" t="s">
-        <v>72</v>
+      <c r="AG172" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B173" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D173">
         <v>2018</v>
@@ -18571,22 +18760,25 @@
       <c r="AF173">
         <v>196.4</v>
       </c>
-      <c r="AG173" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH173" s="28" t="s">
-        <v>192</v>
+      <c r="AG173" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B174" t="s">
+        <v>306</v>
+      </c>
+      <c r="C174" t="s">
         <v>42</v>
-      </c>
-      <c r="C174" t="s">
-        <v>47</v>
       </c>
       <c r="D174">
         <v>2012</v>
@@ -18678,19 +18870,19 @@
       <c r="AG174">
         <v>154.80000000000001</v>
       </c>
-      <c r="AH174" s="28" t="s">
-        <v>269</v>
+      <c r="AH174" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C175" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D175">
         <v>2018</v>
@@ -18780,21 +18972,21 @@
         <v>105.63046980310921</v>
       </c>
       <c r="AG175" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH175" s="28" t="s">
-        <v>99</v>
+        <v>309</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B176" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D176">
         <v>2013</v>
@@ -18883,19 +19075,19 @@
       <c r="AF176">
         <v>124.9</v>
       </c>
-      <c r="AG176" s="13" t="s">
-        <v>112</v>
+      <c r="AG176" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D177">
         <v>2013</v>
@@ -18984,16 +19176,16 @@
       <c r="AF177">
         <v>186.21973052356867</v>
       </c>
-      <c r="AG177" s="28" t="s">
-        <v>216</v>
+      <c r="AG177" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B178" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C178" t="s">
         <v>51</v>
@@ -19079,22 +19271,28 @@
       <c r="AD178">
         <v>380.1</v>
       </c>
-      <c r="AE178" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF178" s="28" t="s">
-        <v>182</v>
+      <c r="AE178" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C179" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D179">
         <v>2014</v>
@@ -19181,24 +19379,24 @@
         <v>131.13524558941515</v>
       </c>
       <c r="AF179" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG179" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH179" s="28" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>314</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B180" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C180" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D180">
         <v>2017</v>
@@ -19288,18 +19486,21 @@
         <v>111.7</v>
       </c>
       <c r="AG180" t="s">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C181" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D181">
         <v>2012</v>
@@ -19385,25 +19586,25 @@
       <c r="AE181">
         <v>138.9</v>
       </c>
-      <c r="AF181" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG181" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH181" s="28" t="s">
-        <v>124</v>
+      <c r="AF181" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C182" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D182">
         <v>2018</v>
@@ -19492,22 +19693,22 @@
       <c r="AF182">
         <v>102.32</v>
       </c>
-      <c r="AG182" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH182" s="28" t="s">
-        <v>169</v>
+      <c r="AG182" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>316</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C183" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D183">
         <v>2018</v>
@@ -19599,19 +19800,19 @@
       <c r="AG183">
         <v>110.8</v>
       </c>
-      <c r="AH183" s="28" t="s">
-        <v>289</v>
+      <c r="AH183" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C184" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D184">
         <v>2013</v>
@@ -19704,15 +19905,15 @@
         <v>99.78</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C185" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D185">
         <v>2007</v>
@@ -19798,25 +19999,25 @@
       <c r="AE185">
         <v>14807.51</v>
       </c>
-      <c r="AF185" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG185" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH185" s="28" t="s">
-        <v>328</v>
+      <c r="AF185" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B186" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C186" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D186">
         <v>2010</v>
@@ -19855,15 +20056,15 @@
         <v>1145.24</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C187" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D187">
         <v>2015</v>
@@ -19955,19 +20156,19 @@
       <c r="AG187">
         <v>161</v>
       </c>
-      <c r="AH187" s="28" t="s">
-        <v>349</v>
+      <c r="AH187" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C188" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D188">
         <v>2014</v>
@@ -20042,15 +20243,15 @@
         <v>120.79</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B189" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C189" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D189">
         <v>2019</v>
@@ -20139,22 +20340,22 @@
       <c r="AF189">
         <v>103.5</v>
       </c>
-      <c r="AG189" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH189" s="28" t="s">
-        <v>205</v>
+      <c r="AG189" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C190" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D190">
         <v>2018</v>
@@ -20243,22 +20444,25 @@
       <c r="AF190">
         <v>134.9</v>
       </c>
-      <c r="AG190" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH190" s="28" t="s">
-        <v>241</v>
+      <c r="AG190" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>376</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C191" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D191">
         <v>2012</v>
@@ -20350,19 +20554,19 @@
       <c r="AG191">
         <v>126.3</v>
       </c>
-      <c r="AH191" s="28" t="s">
-        <v>270</v>
+      <c r="AH191" t="s">
+        <v>326</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C192" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D192">
         <v>2018</v>
@@ -20452,21 +20656,21 @@
         <v>115.93842775998611</v>
       </c>
       <c r="AG192" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH192" s="28" t="s">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B193" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D193">
         <v>2013</v>
@@ -20555,19 +20759,19 @@
       <c r="AF193">
         <v>126.2</v>
       </c>
-      <c r="AG193" s="14" t="s">
-        <v>113</v>
+      <c r="AG193" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B194" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D194">
         <v>2013</v>
@@ -20656,16 +20860,16 @@
       <c r="AF194">
         <v>5840.6983830675435</v>
       </c>
-      <c r="AG194" s="28" t="s">
-        <v>217</v>
+      <c r="AG194" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C195" t="s">
         <v>51</v>
@@ -20751,22 +20955,28 @@
       <c r="AD195">
         <v>346.2</v>
       </c>
-      <c r="AE195" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF195" s="28" t="s">
-        <v>183</v>
+      <c r="AE195" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B196" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C196" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D196">
         <v>2014</v>
@@ -20853,24 +21063,24 @@
         <v>118.67527288176568</v>
       </c>
       <c r="AF196" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG196" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH196" s="28" t="s">
-        <v>316</v>
+        <v>331</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C197" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D197">
         <v>2017</v>
@@ -20960,18 +21170,21 @@
         <v>105.5</v>
       </c>
       <c r="AG197" t="s">
-        <v>74</v>
+        <v>334</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B198" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D198">
         <v>2012</v>
@@ -21057,25 +21270,25 @@
       <c r="AE198">
         <v>105.2</v>
       </c>
-      <c r="AF198" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG198" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH198" s="28" t="s">
-        <v>74</v>
+      <c r="AF198" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B199" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C199" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D199">
         <v>2018</v>
@@ -21164,22 +21377,22 @@
       <c r="AF199">
         <v>110.61</v>
       </c>
-      <c r="AG199" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH199" s="28" t="s">
-        <v>230</v>
+      <c r="AG199" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B200" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C200" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D200">
         <v>2018</v>
@@ -21271,19 +21484,19 @@
       <c r="AG200">
         <v>106.51</v>
       </c>
-      <c r="AH200" s="28" t="s">
-        <v>290</v>
+      <c r="AH200" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B201" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C201" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D201">
         <v>2013</v>
@@ -21376,15 +21589,15 @@
         <v>117.67</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B202" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C202" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D202">
         <v>2007</v>
@@ -21470,25 +21683,25 @@
       <c r="AE202">
         <v>40543.519999999997</v>
       </c>
-      <c r="AF202" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG202" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH202" s="28" t="s">
-        <v>329</v>
+      <c r="AF202" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B203" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C203" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D203">
         <v>2010</v>
@@ -21527,15 +21740,15 @@
         <v>16324.87</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C204" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D204">
         <v>2015</v>
@@ -21627,19 +21840,19 @@
       <c r="AG204">
         <v>170.6</v>
       </c>
-      <c r="AH204" s="28" t="s">
-        <v>350</v>
+      <c r="AH204" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B205" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C205" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D205">
         <v>2014</v>
@@ -21714,15 +21927,15 @@
         <v>117.96</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B206" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C206" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D206">
         <v>2019</v>
@@ -21811,22 +22024,22 @@
       <c r="AF206">
         <v>104.8</v>
       </c>
-      <c r="AG206" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH206" s="28" t="s">
-        <v>338</v>
+      <c r="AG206" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B207" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C207" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D207">
         <v>2018</v>
@@ -21915,22 +22128,25 @@
       <c r="AF207">
         <v>125.9</v>
       </c>
-      <c r="AG207" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH207" s="28" t="s">
-        <v>242</v>
+      <c r="AG207" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B208" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C208" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D208">
         <v>2012</v>
@@ -22022,19 +22238,19 @@
       <c r="AG208">
         <v>144</v>
       </c>
-      <c r="AH208" s="28" t="s">
-        <v>271</v>
+      <c r="AH208" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B209" t="s">
+        <v>344</v>
+      </c>
+      <c r="C209" t="s">
         <v>44</v>
-      </c>
-      <c r="C209" t="s">
-        <v>48</v>
       </c>
       <c r="D209">
         <v>2018</v>
@@ -22124,21 +22340,21 @@
         <v>105.72445093484504</v>
       </c>
       <c r="AG209" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH209" s="28" t="s">
-        <v>279</v>
+        <v>349</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B210" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C210" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D210">
         <v>2013</v>
@@ -22227,19 +22443,19 @@
       <c r="AF210">
         <v>122.1</v>
       </c>
-      <c r="AG210" s="15" t="s">
-        <v>114</v>
+      <c r="AG210" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B211" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D211">
         <v>2013</v>
@@ -22328,16 +22544,16 @@
       <c r="AF211">
         <v>2513.2088007850048</v>
       </c>
-      <c r="AG211" s="28" t="s">
-        <v>218</v>
+      <c r="AG211" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="212" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B212" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C212" t="s">
         <v>51</v>
@@ -22423,22 +22639,28 @@
       <c r="AD212">
         <v>297.2</v>
       </c>
-      <c r="AE212" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF212" s="28" t="s">
-        <v>184</v>
+      <c r="AE212" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B213" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C213" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D213">
         <v>2014</v>
@@ -22525,24 +22747,24 @@
         <v>111.67407963789113</v>
       </c>
       <c r="AF213" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG213" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH213" s="28" t="s">
-        <v>317</v>
+        <v>355</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B214" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C214" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D214">
         <v>2017</v>
@@ -22633,17 +22855,20 @@
       </c>
       <c r="AG214" s="2">
         <v>110</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B215" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C215" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D215">
         <v>2012</v>
@@ -22729,25 +22954,25 @@
       <c r="AE215">
         <v>104.2</v>
       </c>
-      <c r="AF215" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG215" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH215" s="28" t="s">
-        <v>190</v>
+      <c r="AF215" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>359</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="216" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B216" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C216" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D216">
         <v>2018</v>
@@ -22836,22 +23061,22 @@
       <c r="AF216">
         <v>109.45</v>
       </c>
-      <c r="AG216" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH216" s="28" t="s">
-        <v>231</v>
+      <c r="AG216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B217" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C217" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D217">
         <v>2018</v>
@@ -22943,19 +23168,19 @@
       <c r="AG217">
         <v>109.28</v>
       </c>
-      <c r="AH217" s="28" t="s">
-        <v>291</v>
+      <c r="AH217" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B218" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C218" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D218">
         <v>2013</v>
@@ -23050,13 +23275,13 @@
     </row>
     <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B219" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C219" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D219">
         <v>2007</v>
@@ -23142,25 +23367,25 @@
       <c r="AE219">
         <v>34729.379999999997</v>
       </c>
-      <c r="AF219" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG219" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH219" s="28" t="s">
-        <v>330</v>
+      <c r="AF219" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B220" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C220" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D220">
         <v>2010</v>
@@ -23201,13 +23426,13 @@
     </row>
     <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B221" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C221" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D221">
         <v>2015</v>
@@ -23299,19 +23524,19 @@
       <c r="AG221">
         <v>164.5</v>
       </c>
-      <c r="AH221" s="28" t="s">
-        <v>351</v>
+      <c r="AH221" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B222" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C222" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D222">
         <v>2014</v>

--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/ghina_koteich_un_org/Documents/Online CPI Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3C70CA05-AFE3-4F2F-B571-29A3C26028DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0E92D0-2EAF-4787-A756-F8FF90FB7746}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{3C70CA05-AFE3-4F2F-B571-29A3C26028DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8835C8F3-57BC-4EE3-A113-BD8B7904DD49}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="439">
   <si>
     <t>Indicator</t>
   </si>
@@ -1188,6 +1188,171 @@
   </si>
   <si>
     <t>105.4</t>
+  </si>
+  <si>
+    <t>106.61</t>
+  </si>
+  <si>
+    <t>103.78</t>
+  </si>
+  <si>
+    <t>108.91</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>92.65</t>
+  </si>
+  <si>
+    <t>95.03</t>
+  </si>
+  <si>
+    <t>105.45</t>
+  </si>
+  <si>
+    <t>108.18</t>
+  </si>
+  <si>
+    <t>108.34</t>
+  </si>
+  <si>
+    <t>110.85</t>
+  </si>
+  <si>
+    <t>108.09</t>
+  </si>
+  <si>
+    <t>107.84</t>
+  </si>
+  <si>
+    <t>105.49</t>
+  </si>
+  <si>
+    <t>106.70</t>
+  </si>
+  <si>
+    <t>105.90</t>
+  </si>
+  <si>
+    <t>97.40</t>
+  </si>
+  <si>
+    <t>106.41</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>105.11</t>
+  </si>
+  <si>
+    <t>96.90</t>
+  </si>
+  <si>
+    <t>122.72</t>
+  </si>
+  <si>
+    <t>112.68</t>
+  </si>
+  <si>
+    <t>107.23</t>
+  </si>
+  <si>
+    <t>112.8</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>118.9</t>
+  </si>
+  <si>
+    <t>102.5</t>
+  </si>
+  <si>
+    <t>104.4</t>
+  </si>
+  <si>
+    <t>112.1</t>
+  </si>
+  <si>
+    <t>116.3</t>
+  </si>
+  <si>
+    <t>103.8</t>
+  </si>
+  <si>
+    <t>108.3</t>
+  </si>
+  <si>
+    <t>105.6</t>
+  </si>
+  <si>
+    <t>59125.00</t>
+  </si>
+  <si>
+    <t>37873.67</t>
+  </si>
+  <si>
+    <t>26060.68</t>
+  </si>
+  <si>
+    <t>42948.67</t>
+  </si>
+  <si>
+    <t>21821.34</t>
+  </si>
+  <si>
+    <t>37719.04</t>
+  </si>
+  <si>
+    <t>24103.08</t>
+  </si>
+  <si>
+    <t>304091.34</t>
+  </si>
+  <si>
+    <t>19935.44</t>
+  </si>
+  <si>
+    <t>128934.59</t>
+  </si>
+  <si>
+    <t>15112.07</t>
+  </si>
+  <si>
+    <t>46325.47</t>
+  </si>
+  <si>
+    <t>38682.54</t>
+  </si>
+  <si>
+    <t>101.1</t>
+  </si>
+  <si>
+    <t>130.8</t>
+  </si>
+  <si>
+    <t>82.2</t>
+  </si>
+  <si>
+    <t>94.2</t>
+  </si>
+  <si>
+    <t>99.9</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>69.6</t>
+  </si>
+  <si>
+    <t>104.7</t>
+  </si>
+  <si>
+    <t>104.9</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1769,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI18" sqref="AI18"/>
+      <selection pane="topRight" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,6 +1987,9 @@
       <c r="AH2" t="s">
         <v>38</v>
       </c>
+      <c r="AI2" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2651,6 +2819,9 @@
       <c r="AH10" t="s">
         <v>378</v>
       </c>
+      <c r="AI10" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2755,6 +2926,9 @@
       <c r="AH11" t="s">
         <v>65</v>
       </c>
+      <c r="AI11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2859,6 +3033,9 @@
       <c r="AH12" t="s">
         <v>68</v>
       </c>
+      <c r="AI12" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2963,6 +3140,9 @@
       <c r="AH13" t="s">
         <v>70</v>
       </c>
+      <c r="AI13" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3168,6 +3348,9 @@
       <c r="AH15" t="s">
         <v>75</v>
       </c>
+      <c r="AI15" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3506,6 +3689,9 @@
       <c r="AH19" t="s">
         <v>82</v>
       </c>
+      <c r="AI19" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -4335,6 +4521,9 @@
       <c r="AH27" t="s">
         <v>379</v>
       </c>
+      <c r="AI27" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -4439,6 +4628,9 @@
       <c r="AH28" t="s">
         <v>100</v>
       </c>
+      <c r="AI28" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4543,6 +4735,9 @@
       <c r="AH29" t="s">
         <v>102</v>
       </c>
+      <c r="AI29" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -4644,8 +4839,11 @@
       <c r="AG30">
         <v>106.59</v>
       </c>
-      <c r="AH30">
-        <v>102.27</v>
+      <c r="AH30" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
@@ -4852,6 +5050,9 @@
       <c r="AH32" t="s">
         <v>105</v>
       </c>
+      <c r="AI32" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -5190,6 +5391,9 @@
       <c r="AH36" t="s">
         <v>108</v>
       </c>
+      <c r="AI36" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -6019,6 +6223,9 @@
       <c r="AH44" t="s">
         <v>40</v>
       </c>
+      <c r="AI44" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -6123,6 +6330,9 @@
       <c r="AH45" t="s">
         <v>119</v>
       </c>
+      <c r="AI45" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -6227,6 +6437,9 @@
       <c r="AH46" t="s">
         <v>121</v>
       </c>
+      <c r="AI46" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -6331,6 +6544,9 @@
       <c r="AH47" s="3">
         <v>246</v>
       </c>
+      <c r="AI47" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -6536,6 +6752,9 @@
       <c r="AH49" t="s">
         <v>124</v>
       </c>
+      <c r="AI49" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -6874,6 +7093,9 @@
       <c r="AH53" t="s">
         <v>128</v>
       </c>
+      <c r="AI53" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -7703,6 +7925,9 @@
       <c r="AH61" t="s">
         <v>184</v>
       </c>
+      <c r="AI61" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -7807,6 +8032,9 @@
       <c r="AH62" t="s">
         <v>146</v>
       </c>
+      <c r="AI62" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -7911,6 +8139,9 @@
       <c r="AH63" t="s">
         <v>148</v>
       </c>
+      <c r="AI63" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -8015,6 +8246,9 @@
       <c r="AH64" t="s">
         <v>149</v>
       </c>
+      <c r="AI64" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -8220,6 +8454,9 @@
       <c r="AH66" t="s">
         <v>152</v>
       </c>
+      <c r="AI66" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -8558,6 +8795,9 @@
       <c r="AH70" t="s">
         <v>156</v>
       </c>
+      <c r="AI70" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -9387,6 +9627,9 @@
       <c r="AH78" t="s">
         <v>380</v>
       </c>
+      <c r="AI78" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -9491,6 +9734,9 @@
       <c r="AH79" t="s">
         <v>171</v>
       </c>
+      <c r="AI79" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -9595,6 +9841,9 @@
       <c r="AH80" t="s">
         <v>173</v>
       </c>
+      <c r="AI80" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -9699,6 +9948,9 @@
       <c r="AH81" t="s">
         <v>174</v>
       </c>
+      <c r="AI81" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -9904,6 +10156,9 @@
       <c r="AH83" t="s">
         <v>177</v>
       </c>
+      <c r="AI83" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -10242,6 +10497,9 @@
       <c r="AH87" t="s">
         <v>181</v>
       </c>
+      <c r="AI87" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -11071,6 +11329,9 @@
       <c r="AH95" t="s">
         <v>381</v>
       </c>
+      <c r="AI95" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -11175,6 +11436,9 @@
       <c r="AH96" t="s">
         <v>199</v>
       </c>
+      <c r="AI96" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -11279,6 +11543,9 @@
       <c r="AH97" t="s">
         <v>201</v>
       </c>
+      <c r="AI97" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -11383,6 +11650,9 @@
       <c r="AH98" t="s">
         <v>202</v>
       </c>
+      <c r="AI98" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -11588,6 +11858,9 @@
       <c r="AH100" t="s">
         <v>205</v>
       </c>
+      <c r="AI100" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -11926,6 +12199,9 @@
       <c r="AH104" t="s">
         <v>38</v>
       </c>
+      <c r="AI104" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -12755,6 +13031,9 @@
       <c r="AH112" t="s">
         <v>221</v>
       </c>
+      <c r="AI112" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
@@ -12859,6 +13138,9 @@
       <c r="AH113" t="s">
         <v>223</v>
       </c>
+      <c r="AI113" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
@@ -12963,6 +13245,9 @@
       <c r="AH114" t="s">
         <v>225</v>
       </c>
+      <c r="AI114" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -13067,6 +13352,9 @@
       <c r="AH115" t="s">
         <v>226</v>
       </c>
+      <c r="AI115" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -13272,6 +13560,9 @@
       <c r="AH117" t="s">
         <v>229</v>
       </c>
+      <c r="AI117" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
@@ -13610,6 +13901,9 @@
       <c r="AH121" t="s">
         <v>233</v>
       </c>
+      <c r="AI121" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -14439,6 +14733,9 @@
       <c r="AH129" t="s">
         <v>382</v>
       </c>
+      <c r="AI129" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -14543,6 +14840,9 @@
       <c r="AH130" t="s">
         <v>250</v>
       </c>
+      <c r="AI130" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
@@ -14647,6 +14947,9 @@
       <c r="AH131" t="s">
         <v>252</v>
       </c>
+      <c r="AI131" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
@@ -14751,6 +15054,9 @@
       <c r="AH132" t="s">
         <v>253</v>
       </c>
+      <c r="AI132" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
@@ -14956,6 +15262,9 @@
       <c r="AH134" t="s">
         <v>256</v>
       </c>
+      <c r="AI134" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -15294,6 +15603,9 @@
       <c r="AH138" t="s">
         <v>260</v>
       </c>
+      <c r="AI138" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="139" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -16123,6 +16435,9 @@
       <c r="AH146" t="s">
         <v>271</v>
       </c>
+      <c r="AI146" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
@@ -16227,6 +16542,9 @@
       <c r="AH147" t="s">
         <v>272</v>
       </c>
+      <c r="AI147" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
@@ -16331,6 +16649,9 @@
       <c r="AH148" t="s">
         <v>274</v>
       </c>
+      <c r="AI148" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
@@ -16435,6 +16756,9 @@
       <c r="AH149" t="s">
         <v>275</v>
       </c>
+      <c r="AI149" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
@@ -16640,6 +16964,9 @@
       <c r="AH151" t="s">
         <v>278</v>
       </c>
+      <c r="AI151" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -16978,6 +17305,9 @@
       <c r="AH155" t="s">
         <v>282</v>
       </c>
+      <c r="AI155" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
@@ -17807,6 +18137,9 @@
       <c r="AH163" t="s">
         <v>383</v>
       </c>
+      <c r="AI163" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -17911,6 +18244,9 @@
       <c r="AH164" t="s">
         <v>298</v>
       </c>
+      <c r="AI164" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -18015,6 +18351,9 @@
       <c r="AH165" t="s">
         <v>300</v>
       </c>
+      <c r="AI165" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -18119,6 +18458,9 @@
       <c r="AH166" t="s">
         <v>301</v>
       </c>
+      <c r="AI166" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
@@ -18324,6 +18666,9 @@
       <c r="AH168" t="s">
         <v>304</v>
       </c>
+      <c r="AI168" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -18662,6 +19007,9 @@
       <c r="AH172" t="s">
         <v>296</v>
       </c>
+      <c r="AI172" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -19491,6 +19839,9 @@
       <c r="AH180" t="s">
         <v>99</v>
       </c>
+      <c r="AI180" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
@@ -19595,6 +19946,9 @@
       <c r="AH181" t="s">
         <v>315</v>
       </c>
+      <c r="AI181" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
@@ -19699,6 +20053,9 @@
       <c r="AH182" t="s">
         <v>316</v>
       </c>
+      <c r="AI182" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
@@ -19803,6 +20160,9 @@
       <c r="AH183" t="s">
         <v>317</v>
       </c>
+      <c r="AI183" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
@@ -20008,6 +20368,9 @@
       <c r="AH185" t="s">
         <v>320</v>
       </c>
+      <c r="AI185" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
@@ -20346,6 +20709,9 @@
       <c r="AH189" t="s">
         <v>323</v>
       </c>
+      <c r="AI189" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
@@ -21175,6 +21541,9 @@
       <c r="AH197" t="s">
         <v>381</v>
       </c>
+      <c r="AI197" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
@@ -21279,6 +21648,9 @@
       <c r="AH198" t="s">
         <v>334</v>
       </c>
+      <c r="AI198" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
@@ -21383,6 +21755,9 @@
       <c r="AH199" t="s">
         <v>338</v>
       </c>
+      <c r="AI199" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
@@ -21487,6 +21862,9 @@
       <c r="AH200" t="s">
         <v>339</v>
       </c>
+      <c r="AI200" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="201" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
@@ -21692,6 +22070,9 @@
       <c r="AH202" t="s">
         <v>342</v>
       </c>
+      <c r="AI202" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="203" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
@@ -22030,6 +22411,9 @@
       <c r="AH206" t="s">
         <v>345</v>
       </c>
+      <c r="AI206" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="207" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
@@ -22242,7 +22626,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>34</v>
       </c>
@@ -22346,7 +22730,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -22447,7 +22831,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -22548,7 +22932,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>34</v>
       </c>
@@ -22652,7 +23036,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>34</v>
       </c>
@@ -22756,7 +23140,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>34</v>
       </c>
@@ -22859,8 +23243,11 @@
       <c r="AH214" t="s">
         <v>98</v>
       </c>
+      <c r="AI214" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>34</v>
       </c>
@@ -22963,8 +23350,11 @@
       <c r="AH215" t="s">
         <v>261</v>
       </c>
+      <c r="AI215" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -23067,8 +23457,11 @@
       <c r="AH216" t="s">
         <v>361</v>
       </c>
+      <c r="AI216" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>34</v>
       </c>
@@ -23171,8 +23564,11 @@
       <c r="AH217" t="s">
         <v>362</v>
       </c>
+      <c r="AI217" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>34</v>
       </c>
@@ -23273,7 +23669,7 @@
         <v>108.66</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -23376,8 +23772,11 @@
       <c r="AH219" t="s">
         <v>365</v>
       </c>
+      <c r="AI219" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -23424,7 +23823,7 @@
         <v>3362.99</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -23528,7 +23927,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -23612,6 +24011,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI222" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/ghina_koteich_un_org/Documents/Online CPI Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{3C70CA05-AFE3-4F2F-B571-29A3C26028DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8835C8F3-57BC-4EE3-A113-BD8B7904DD49}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="13_ncr:1_{3C70CA05-AFE3-4F2F-B571-29A3C26028DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B2C22F-D295-4E7E-837D-A0B1EC53681B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1 Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AI$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AL$222</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="537">
   <si>
     <t>Indicator</t>
   </si>
@@ -1353,6 +1351,300 @@
   </si>
   <si>
     <t>104.9</t>
+  </si>
+  <si>
+    <t>125.5</t>
+  </si>
+  <si>
+    <t>135.1</t>
+  </si>
+  <si>
+    <t>131.4</t>
+  </si>
+  <si>
+    <t>138.2</t>
+  </si>
+  <si>
+    <t>123.8</t>
+  </si>
+  <si>
+    <t>129.127974144562</t>
+  </si>
+  <si>
+    <t>75.6530156041908</t>
+  </si>
+  <si>
+    <t>103.108443013153</t>
+  </si>
+  <si>
+    <t>107.255887408817</t>
+  </si>
+  <si>
+    <t>106.222044734637</t>
+  </si>
+  <si>
+    <t>119.62971633454</t>
+  </si>
+  <si>
+    <t>110.055981280212</t>
+  </si>
+  <si>
+    <t>118.514346731674</t>
+  </si>
+  <si>
+    <t>104.661382626875</t>
+  </si>
+  <si>
+    <t>103.366485981247</t>
+  </si>
+  <si>
+    <t>107.862723273449</t>
+  </si>
+  <si>
+    <t>108.043144668998</t>
+  </si>
+  <si>
+    <t>103.330834599767</t>
+  </si>
+  <si>
+    <t>152.7</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>166.5</t>
+  </si>
+  <si>
+    <t>143.4</t>
+  </si>
+  <si>
+    <t>160.2</t>
+  </si>
+  <si>
+    <t>147.3</t>
+  </si>
+  <si>
+    <t>107.8</t>
+  </si>
+  <si>
+    <t>163.3</t>
+  </si>
+  <si>
+    <t>174.6</t>
+  </si>
+  <si>
+    <t>167.8</t>
+  </si>
+  <si>
+    <t>289.2</t>
+  </si>
+  <si>
+    <t>328.4</t>
+  </si>
+  <si>
+    <t>265.5</t>
+  </si>
+  <si>
+    <t>436.4</t>
+  </si>
+  <si>
+    <t>193.5</t>
+  </si>
+  <si>
+    <t>367.3</t>
+  </si>
+  <si>
+    <t>349.7</t>
+  </si>
+  <si>
+    <t>83.6</t>
+  </si>
+  <si>
+    <t>207.6</t>
+  </si>
+  <si>
+    <t>381.1</t>
+  </si>
+  <si>
+    <t>301.1</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>105.05</t>
+  </si>
+  <si>
+    <t>93.21</t>
+  </si>
+  <si>
+    <t>96.69</t>
+  </si>
+  <si>
+    <t>108.96</t>
+  </si>
+  <si>
+    <t>114.87</t>
+  </si>
+  <si>
+    <t>112.03</t>
+  </si>
+  <si>
+    <t>108.23</t>
+  </si>
+  <si>
+    <t>106.82</t>
+  </si>
+  <si>
+    <t>133.8</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>131.5</t>
+  </si>
+  <si>
+    <t>121.2</t>
+  </si>
+  <si>
+    <t>123.4</t>
+  </si>
+  <si>
+    <t>125.8</t>
+  </si>
+  <si>
+    <t>129.5</t>
+  </si>
+  <si>
+    <t>143.6</t>
+  </si>
+  <si>
+    <t>104.8</t>
+  </si>
+  <si>
+    <t>152.4</t>
+  </si>
+  <si>
+    <t>146.4</t>
+  </si>
+  <si>
+    <t>289.8</t>
+  </si>
+  <si>
+    <t>329.2</t>
+  </si>
+  <si>
+    <t>368.3</t>
+  </si>
+  <si>
+    <t>350.9</t>
+  </si>
+  <si>
+    <t>211.3</t>
+  </si>
+  <si>
+    <t>84.3</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>381.2</t>
+  </si>
+  <si>
+    <t>348.8</t>
+  </si>
+  <si>
+    <t>302.8</t>
+  </si>
+  <si>
+    <t>113.2</t>
+  </si>
+  <si>
+    <t>118.3</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>103.9</t>
+  </si>
+  <si>
+    <t>108.8</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>115.3</t>
+  </si>
+  <si>
+    <t>65137.72</t>
+  </si>
+  <si>
+    <t>38624.46</t>
+  </si>
+  <si>
+    <t>26389.16</t>
+  </si>
+  <si>
+    <t>43433.14</t>
+  </si>
+  <si>
+    <t>58255.97</t>
+  </si>
+  <si>
+    <t>38031.53</t>
+  </si>
+  <si>
+    <t>25184.10</t>
+  </si>
+  <si>
+    <t>308335.19</t>
+  </si>
+  <si>
+    <t>129392.66</t>
+  </si>
+  <si>
+    <t>15112.59</t>
+  </si>
+  <si>
+    <t>47247.98</t>
+  </si>
+  <si>
+    <t>39143.09</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>110.3</t>
+  </si>
+  <si>
+    <t>149.8</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>141.3</t>
+  </si>
+  <si>
+    <t>112.4</t>
+  </si>
+  <si>
+    <t>99.1</t>
+  </si>
+  <si>
+    <t>122.7</t>
+  </si>
+  <si>
+    <t>102.7</t>
+  </si>
+  <si>
+    <t>106.6</t>
   </si>
 </sst>
 </file>
@@ -1420,13 +1712,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1765,19 +2058,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI222"/>
+  <dimension ref="A1:AL222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X19" sqref="X19"/>
+      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,8 +2177,11 @@
       <c r="AI1" s="1" t="s">
         <v>367</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>478</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1987,11 +2284,12 @@
       <c r="AH2" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="4" t="s">
         <v>430</v>
       </c>
+      <c r="AJ2" s="4"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2094,11 +2392,15 @@
       <c r="AH3" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="4" t="s">
         <v>368</v>
       </c>
+      <c r="AJ3" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2201,8 +2503,14 @@
       <c r="AH4" t="s">
         <v>43</v>
       </c>
+      <c r="AI4">
+        <v>118.1</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>509</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2305,8 +2613,10 @@
       <c r="AH5" t="s">
         <v>46</v>
       </c>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2406,8 +2716,15 @@
       <c r="AG6" t="s">
         <v>48</v>
       </c>
+      <c r="AH6">
+        <v>125.4</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AJ6" s="4"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2507,8 +2824,10 @@
       <c r="AG7" t="s">
         <v>50</v>
       </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2611,8 +2930,14 @@
       <c r="AH8" t="s">
         <v>55</v>
       </c>
+      <c r="AI8" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2715,8 +3040,12 @@
       <c r="AH9" t="s">
         <v>59</v>
       </c>
+      <c r="AI9" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AJ9" s="4"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2819,11 +3148,14 @@
       <c r="AH10" t="s">
         <v>378</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI10" s="4" t="s">
         <v>412</v>
       </c>
+      <c r="AJ10" s="4" t="s">
+        <v>508</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2926,11 +3258,14 @@
       <c r="AH11" t="s">
         <v>65</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI11" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3033,11 +3368,12 @@
       <c r="AH12" t="s">
         <v>68</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI12" s="4" t="s">
         <v>396</v>
       </c>
+      <c r="AJ12" s="4"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3140,11 +3476,14 @@
       <c r="AH13" t="s">
         <v>70</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AI13" s="4" t="s">
         <v>385</v>
       </c>
+      <c r="AJ13" s="4" t="s">
+        <v>479</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3244,8 +3583,10 @@
       <c r="AG14">
         <v>106.66</v>
       </c>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3348,11 +3689,14 @@
       <c r="AH15" t="s">
         <v>75</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AI15" s="4" t="s">
         <v>417</v>
       </c>
+      <c r="AJ15" s="4" t="s">
+        <v>515</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3398,8 +3742,10 @@
       <c r="O16">
         <v>2871.06</v>
       </c>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3502,8 +3848,12 @@
       <c r="AH17" t="s">
         <v>78</v>
       </c>
+      <c r="AI17" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3585,8 +3935,10 @@
       <c r="AA18">
         <v>108.62</v>
       </c>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3689,11 +4041,12 @@
       <c r="AH19" t="s">
         <v>82</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AI19" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3796,11 +4149,14 @@
       <c r="AH20" t="s">
         <v>84</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AI20" s="4" t="s">
         <v>369</v>
       </c>
+      <c r="AJ20" s="4" t="s">
+        <v>488</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3903,8 +4259,14 @@
       <c r="AH21" t="s">
         <v>85</v>
       </c>
+      <c r="AI21" s="4">
+        <v>108.1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -4007,8 +4369,10 @@
       <c r="AH22" t="s">
         <v>87</v>
       </c>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -4108,8 +4472,15 @@
       <c r="AG23" t="s">
         <v>88</v>
       </c>
+      <c r="AH23">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ23" s="4"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4209,8 +4580,10 @@
       <c r="AG24" t="s">
         <v>89</v>
       </c>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4313,8 +4686,14 @@
       <c r="AH25" t="s">
         <v>93</v>
       </c>
+      <c r="AI25" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>499</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4417,8 +4796,12 @@
       <c r="AH26" t="s">
         <v>96</v>
       </c>
+      <c r="AI26" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AJ26" s="4"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -4521,11 +4904,14 @@
       <c r="AH27" t="s">
         <v>379</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AI27" s="4" t="s">
         <v>413</v>
       </c>
+      <c r="AJ27" s="4" t="s">
+        <v>509</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4628,11 +5014,14 @@
       <c r="AH28" t="s">
         <v>100</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AI28" s="4" t="s">
         <v>407</v>
       </c>
+      <c r="AJ28" t="s">
+        <v>532</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -4735,11 +5124,12 @@
       <c r="AH29" t="s">
         <v>102</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AI29" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="AJ29" s="4"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4842,11 +5232,14 @@
       <c r="AH30" t="s">
         <v>384</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AI30" s="4" t="s">
         <v>386</v>
       </c>
+      <c r="AJ30" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -4946,8 +5339,10 @@
       <c r="AG31">
         <v>121.93</v>
       </c>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -5050,11 +5445,14 @@
       <c r="AH32" t="s">
         <v>105</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AI32" s="4" t="s">
         <v>418</v>
       </c>
+      <c r="AJ32" s="4" t="s">
+        <v>516</v>
+      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -5100,8 +5498,10 @@
       <c r="O33">
         <v>3680.29</v>
       </c>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5204,8 +5604,12 @@
       <c r="AH34" t="s">
         <v>106</v>
       </c>
+      <c r="AI34" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ34" s="4"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5287,8 +5691,10 @@
       <c r="AA35">
         <v>113.46</v>
       </c>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5391,11 +5797,12 @@
       <c r="AH36" t="s">
         <v>108</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AI36" s="4" t="s">
         <v>431</v>
       </c>
+      <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -5498,11 +5905,14 @@
       <c r="AH37" t="s">
         <v>110</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AI37" s="4" t="s">
         <v>370</v>
       </c>
+      <c r="AJ37" s="4" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -5605,8 +6015,14 @@
       <c r="AH38" t="s">
         <v>111</v>
       </c>
+      <c r="AI38" s="4">
+        <v>140</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>527</v>
+      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -5709,8 +6125,10 @@
       <c r="AH39" t="s">
         <v>112</v>
       </c>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -5810,8 +6228,15 @@
       <c r="AG40" t="s">
         <v>113</v>
       </c>
+      <c r="AH40">
+        <v>135.1</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ40" s="4"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -5911,8 +6336,10 @@
       <c r="AG41" t="s">
         <v>114</v>
       </c>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -6015,8 +6442,14 @@
       <c r="AH42" t="s">
         <v>115</v>
       </c>
+      <c r="AI42" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -6119,8 +6552,12 @@
       <c r="AH43" t="s">
         <v>118</v>
       </c>
+      <c r="AI43" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ43" s="4"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -6223,11 +6660,14 @@
       <c r="AH44" t="s">
         <v>40</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AI44" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AJ44" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -6330,11 +6770,14 @@
       <c r="AH45" t="s">
         <v>119</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AI45" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="AJ45" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -6437,11 +6880,12 @@
       <c r="AH46" t="s">
         <v>121</v>
       </c>
-      <c r="AI46" t="s">
+      <c r="AI46" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="AJ46" s="4"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -6544,11 +6988,14 @@
       <c r="AH47" s="3">
         <v>246</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AI47" s="4" t="s">
         <v>387</v>
       </c>
+      <c r="AJ47" s="4" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -6648,8 +7095,10 @@
       <c r="AG48">
         <v>114.77</v>
       </c>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -6752,11 +7201,14 @@
       <c r="AH49" t="s">
         <v>124</v>
       </c>
-      <c r="AI49" t="s">
+      <c r="AI49" s="4" t="s">
         <v>419</v>
       </c>
+      <c r="AJ49" s="4" t="s">
+        <v>517</v>
+      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -6802,8 +7254,10 @@
       <c r="O50">
         <v>5702.7</v>
       </c>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -6906,8 +7360,12 @@
       <c r="AH51" t="s">
         <v>125</v>
       </c>
+      <c r="AI51" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ51" s="4"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -6989,8 +7447,10 @@
       <c r="AA52">
         <v>205.88</v>
       </c>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -7093,11 +7553,12 @@
       <c r="AH53" t="s">
         <v>128</v>
       </c>
-      <c r="AI53" t="s">
+      <c r="AI53" s="4" t="s">
         <v>432</v>
       </c>
+      <c r="AJ53" s="4"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -7200,11 +7661,14 @@
       <c r="AH54" t="s">
         <v>130</v>
       </c>
-      <c r="AI54" t="s">
+      <c r="AI54" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="AJ54" s="4" t="s">
+        <v>490</v>
+      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -7307,8 +7771,14 @@
       <c r="AH55" t="s">
         <v>131</v>
       </c>
+      <c r="AI55" s="4">
+        <v>110</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -7411,8 +7881,10 @@
       <c r="AH56" t="s">
         <v>133</v>
       </c>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -7512,8 +7984,15 @@
       <c r="AG57" t="s">
         <v>134</v>
       </c>
+      <c r="AH57">
+        <v>124.4</v>
+      </c>
+      <c r="AI57" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ57" s="4"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -7613,8 +8092,10 @@
       <c r="AG58" t="s">
         <v>135</v>
       </c>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -7717,8 +8198,14 @@
       <c r="AH59" t="s">
         <v>139</v>
       </c>
+      <c r="AI59" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AJ59" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -7821,8 +8308,12 @@
       <c r="AH60" t="s">
         <v>142</v>
       </c>
+      <c r="AI60" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ60" s="4"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -7925,11 +8416,14 @@
       <c r="AH61" t="s">
         <v>184</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AI61" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="AJ61" s="4" t="s">
+        <v>510</v>
+      </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -8032,11 +8526,14 @@
       <c r="AH62" t="s">
         <v>146</v>
       </c>
-      <c r="AI62" t="s">
+      <c r="AI62" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="AJ62" t="s">
+        <v>533</v>
+      </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -8139,11 +8636,12 @@
       <c r="AH63" t="s">
         <v>148</v>
       </c>
-      <c r="AI63" t="s">
+      <c r="AI63" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="AJ63" s="4"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -8246,11 +8744,14 @@
       <c r="AH64" t="s">
         <v>149</v>
       </c>
-      <c r="AI64" t="s">
+      <c r="AI64" s="4" t="s">
         <v>388</v>
       </c>
+      <c r="AJ64" s="4" t="s">
+        <v>480</v>
+      </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -8350,8 +8851,10 @@
       <c r="AG65">
         <v>102.67</v>
       </c>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -8454,11 +8957,14 @@
       <c r="AH66" t="s">
         <v>152</v>
       </c>
-      <c r="AI66" t="s">
+      <c r="AI66" s="4" t="s">
         <v>420</v>
       </c>
+      <c r="AJ66" s="4" t="s">
+        <v>518</v>
+      </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -8504,8 +9010,10 @@
       <c r="O67">
         <v>2537.0300000000002</v>
       </c>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -8608,8 +9116,12 @@
       <c r="AH68" t="s">
         <v>153</v>
       </c>
+      <c r="AI68" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="AJ68" s="4"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -8691,8 +9203,10 @@
       <c r="AA69">
         <v>119</v>
       </c>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -8795,11 +9309,12 @@
       <c r="AH70" t="s">
         <v>156</v>
       </c>
-      <c r="AI70" t="s">
+      <c r="AI70" s="4" t="s">
         <v>433</v>
       </c>
+      <c r="AJ70" s="4"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -8902,11 +9417,14 @@
       <c r="AH71" t="s">
         <v>158</v>
       </c>
-      <c r="AI71" t="s">
+      <c r="AI71" s="4" t="s">
         <v>372</v>
       </c>
+      <c r="AJ71" s="4" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -9009,8 +9527,14 @@
       <c r="AH72" t="s">
         <v>159</v>
       </c>
+      <c r="AI72" s="4">
+        <v>125</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>443</v>
+      </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -9113,8 +9637,10 @@
       <c r="AH73" t="s">
         <v>161</v>
       </c>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -9214,8 +9740,15 @@
       <c r="AG74" t="s">
         <v>129</v>
       </c>
+      <c r="AH74">
+        <v>117.7</v>
+      </c>
+      <c r="AI74" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ74" s="4"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -9315,8 +9848,10 @@
       <c r="AG75" t="s">
         <v>162</v>
       </c>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -9419,8 +9954,14 @@
       <c r="AH76" t="s">
         <v>166</v>
       </c>
+      <c r="AI76" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ76" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -9523,8 +10064,12 @@
       <c r="AH77" t="s">
         <v>169</v>
       </c>
+      <c r="AI77" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AJ77" s="4"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -9627,11 +10172,14 @@
       <c r="AH78" t="s">
         <v>380</v>
       </c>
-      <c r="AI78" t="s">
+      <c r="AI78" s="4" t="s">
         <v>414</v>
       </c>
+      <c r="AJ78" s="4" t="s">
+        <v>511</v>
+      </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -9734,11 +10282,14 @@
       <c r="AH79" t="s">
         <v>171</v>
       </c>
-      <c r="AI79" t="s">
+      <c r="AI79" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="AJ79">
+        <v>105</v>
+      </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -9841,11 +10392,12 @@
       <c r="AH80" t="s">
         <v>173</v>
       </c>
-      <c r="AI80" t="s">
+      <c r="AI80" s="4" t="s">
         <v>400</v>
       </c>
+      <c r="AJ80" s="4"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -9948,11 +10500,14 @@
       <c r="AH81" t="s">
         <v>174</v>
       </c>
-      <c r="AI81" t="s">
+      <c r="AI81" s="4" t="s">
         <v>389</v>
       </c>
+      <c r="AJ81" s="4" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -10052,8 +10607,10 @@
       <c r="AG82">
         <v>89.04</v>
       </c>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -10156,11 +10713,14 @@
       <c r="AH83" t="s">
         <v>177</v>
       </c>
-      <c r="AI83" t="s">
+      <c r="AI83" s="4" t="s">
         <v>421</v>
       </c>
+      <c r="AJ83" s="4" t="s">
+        <v>519</v>
+      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -10206,8 +10766,10 @@
       <c r="O84">
         <v>768.24</v>
       </c>
+      <c r="AI84" s="4"/>
+      <c r="AJ84" s="4"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -10310,8 +10872,12 @@
       <c r="AH85" t="s">
         <v>178</v>
       </c>
+      <c r="AI85" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ85" s="4"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -10393,8 +10959,10 @@
       <c r="AA86">
         <v>96.34</v>
       </c>
+      <c r="AI86" s="4"/>
+      <c r="AJ86" s="4"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -10497,11 +11065,12 @@
       <c r="AH87" t="s">
         <v>181</v>
       </c>
-      <c r="AI87" t="s">
+      <c r="AI87" s="4" t="s">
         <v>434</v>
       </c>
+      <c r="AJ87" s="4"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -10604,11 +11173,14 @@
       <c r="AH88" t="s">
         <v>183</v>
       </c>
-      <c r="AI88" t="s">
+      <c r="AI88" s="4" t="s">
         <v>198</v>
       </c>
+      <c r="AJ88" s="4" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -10711,8 +11283,14 @@
       <c r="AH89" t="s">
         <v>184</v>
       </c>
+      <c r="AI89" s="4">
+        <v>110.1</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>528</v>
+      </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -10815,8 +11393,10 @@
       <c r="AH90" t="s">
         <v>186</v>
       </c>
+      <c r="AI90" s="4"/>
+      <c r="AJ90" s="4"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -10916,8 +11496,15 @@
       <c r="AG91" t="s">
         <v>187</v>
       </c>
+      <c r="AH91">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="AI91" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AJ91" s="4"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -11017,8 +11604,10 @@
       <c r="AG92" t="s">
         <v>188</v>
       </c>
+      <c r="AI92" s="4"/>
+      <c r="AJ92" s="4"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -11121,8 +11710,14 @@
       <c r="AH93" t="s">
         <v>192</v>
       </c>
+      <c r="AI93" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AJ93" s="4" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -11225,8 +11820,12 @@
       <c r="AH94" t="s">
         <v>195</v>
       </c>
+      <c r="AI94" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ94" s="4"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -11329,11 +11928,14 @@
       <c r="AH95" t="s">
         <v>381</v>
       </c>
-      <c r="AI95" t="s">
+      <c r="AI95" s="4" t="s">
         <v>415</v>
       </c>
+      <c r="AJ95" s="4" t="s">
+        <v>512</v>
+      </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -11436,11 +12038,14 @@
       <c r="AH96" t="s">
         <v>199</v>
       </c>
-      <c r="AI96" t="s">
+      <c r="AI96" s="4" t="s">
         <v>408</v>
       </c>
+      <c r="AJ96" t="s">
+        <v>534</v>
+      </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -11543,11 +12148,12 @@
       <c r="AH97" t="s">
         <v>201</v>
       </c>
-      <c r="AI97" t="s">
+      <c r="AI97" s="4" t="s">
         <v>200</v>
       </c>
+      <c r="AJ97" s="4"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -11650,11 +12256,14 @@
       <c r="AH98" t="s">
         <v>202</v>
       </c>
-      <c r="AI98" t="s">
+      <c r="AI98" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="AJ98" s="4" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -11754,8 +12363,10 @@
       <c r="AG99">
         <v>109.88</v>
       </c>
+      <c r="AI99" s="4"/>
+      <c r="AJ99" s="4"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -11858,11 +12469,14 @@
       <c r="AH100" t="s">
         <v>205</v>
       </c>
-      <c r="AI100" t="s">
+      <c r="AI100" s="4" t="s">
         <v>422</v>
       </c>
+      <c r="AJ100" s="4" t="s">
+        <v>520</v>
+      </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -11908,8 +12522,10 @@
       <c r="O101">
         <v>4181.22</v>
       </c>
+      <c r="AI101" s="4"/>
+      <c r="AJ101" s="4"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -12012,8 +12628,12 @@
       <c r="AH102" t="s">
         <v>206</v>
       </c>
+      <c r="AI102" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ102" s="4"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -12095,8 +12715,10 @@
       <c r="AA103">
         <v>109.3</v>
       </c>
+      <c r="AI103" s="4"/>
+      <c r="AJ103" s="4"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>34</v>
       </c>
@@ -12199,11 +12821,12 @@
       <c r="AH104" t="s">
         <v>38</v>
       </c>
-      <c r="AI104" t="s">
+      <c r="AI104" s="4" t="s">
         <v>435</v>
       </c>
+      <c r="AJ104" s="4"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>34</v>
       </c>
@@ -12306,11 +12929,14 @@
       <c r="AH105" t="s">
         <v>209</v>
       </c>
-      <c r="AI105" t="s">
+      <c r="AI105" s="4" t="s">
         <v>373</v>
       </c>
+      <c r="AJ105" s="4" t="s">
+        <v>493</v>
+      </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -12413,8 +13039,14 @@
       <c r="AH106" t="s">
         <v>210</v>
       </c>
+      <c r="AI106" s="4">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>529</v>
+      </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -12517,8 +13149,10 @@
       <c r="AH107" t="s">
         <v>212</v>
       </c>
+      <c r="AI107" s="4"/>
+      <c r="AJ107" s="4"/>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -12618,8 +13252,15 @@
       <c r="AG108" t="s">
         <v>213</v>
       </c>
+      <c r="AH108">
+        <v>115.2</v>
+      </c>
+      <c r="AI108" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ108" s="4"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -12719,8 +13360,10 @@
       <c r="AG109" t="s">
         <v>214</v>
       </c>
+      <c r="AI109" s="4"/>
+      <c r="AJ109" s="4"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -12823,8 +13466,14 @@
       <c r="AH110" t="s">
         <v>217</v>
       </c>
+      <c r="AI110" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AJ110" s="4" t="s">
+        <v>501</v>
+      </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -12927,8 +13576,12 @@
       <c r="AH111" t="s">
         <v>220</v>
       </c>
+      <c r="AI111" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AJ111" s="4"/>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -13031,11 +13684,14 @@
       <c r="AH112" t="s">
         <v>221</v>
       </c>
-      <c r="AI112" t="s">
+      <c r="AI112" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="AJ112" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>34</v>
       </c>
@@ -13138,11 +13794,14 @@
       <c r="AH113" t="s">
         <v>223</v>
       </c>
-      <c r="AI113" t="s">
+      <c r="AI113" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="AJ113" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>34</v>
       </c>
@@ -13245,11 +13904,12 @@
       <c r="AH114" t="s">
         <v>225</v>
       </c>
-      <c r="AI114" t="s">
+      <c r="AI114" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="AJ114" s="4"/>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>34</v>
       </c>
@@ -13352,11 +14012,14 @@
       <c r="AH115" t="s">
         <v>226</v>
       </c>
-      <c r="AI115" t="s">
+      <c r="AI115" s="4" t="s">
         <v>226</v>
       </c>
+      <c r="AJ115" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -13456,8 +14119,10 @@
       <c r="AG116">
         <v>103.22</v>
       </c>
+      <c r="AI116" s="4"/>
+      <c r="AJ116" s="4"/>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -13560,11 +14225,14 @@
       <c r="AH117" t="s">
         <v>229</v>
       </c>
-      <c r="AI117" t="s">
+      <c r="AI117" s="4" t="s">
         <v>423</v>
       </c>
+      <c r="AJ117" s="4" t="s">
+        <v>521</v>
+      </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>34</v>
       </c>
@@ -13610,8 +14278,10 @@
       <c r="O118">
         <v>2355.5100000000002</v>
       </c>
+      <c r="AI118" s="4"/>
+      <c r="AJ118" s="4"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>34</v>
       </c>
@@ -13714,8 +14384,12 @@
       <c r="AH119" t="s">
         <v>230</v>
       </c>
+      <c r="AI119" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ119" s="4"/>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>34</v>
       </c>
@@ -13797,8 +14471,10 @@
       <c r="AA120">
         <v>106.53</v>
       </c>
+      <c r="AI120" s="4"/>
+      <c r="AJ120" s="4"/>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>34</v>
       </c>
@@ -13901,11 +14577,12 @@
       <c r="AH121" t="s">
         <v>233</v>
       </c>
-      <c r="AI121" t="s">
+      <c r="AI121" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="AJ121" s="4"/>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -14008,11 +14685,14 @@
       <c r="AH122" t="s">
         <v>235</v>
       </c>
-      <c r="AI122" t="s">
+      <c r="AI122" s="4" t="s">
         <v>374</v>
       </c>
+      <c r="AJ122" s="4" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -14115,8 +14795,14 @@
       <c r="AH123" t="s">
         <v>236</v>
       </c>
+      <c r="AI123" s="4">
+        <v>114.3</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -14219,8 +14905,10 @@
       <c r="AH124" t="s">
         <v>238</v>
       </c>
+      <c r="AI124" s="4"/>
+      <c r="AJ124" s="4"/>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -14320,8 +15008,15 @@
       <c r="AG125" t="s">
         <v>239</v>
       </c>
+      <c r="AH125">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="AI125" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ125" s="4"/>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>34</v>
       </c>
@@ -14421,8 +15116,10 @@
       <c r="AG126" t="s">
         <v>240</v>
       </c>
+      <c r="AI126" s="4"/>
+      <c r="AJ126" s="4"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>34</v>
       </c>
@@ -14525,8 +15222,14 @@
       <c r="AH127" t="s">
         <v>244</v>
       </c>
+      <c r="AI127" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ127" s="4" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>34</v>
       </c>
@@ -14629,8 +15332,12 @@
       <c r="AH128" t="s">
         <v>247</v>
       </c>
+      <c r="AI128" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ128" s="4"/>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>34</v>
       </c>
@@ -14733,11 +15440,14 @@
       <c r="AH129" t="s">
         <v>382</v>
       </c>
-      <c r="AI129" t="s">
+      <c r="AI129" s="4" t="s">
         <v>408</v>
       </c>
+      <c r="AJ129" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -14840,11 +15550,14 @@
       <c r="AH130" t="s">
         <v>250</v>
       </c>
-      <c r="AI130" t="s">
+      <c r="AI130" s="4" t="s">
         <v>409</v>
       </c>
+      <c r="AJ130" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -14947,11 +15660,12 @@
       <c r="AH131" t="s">
         <v>252</v>
       </c>
-      <c r="AI131" t="s">
+      <c r="AI131" s="4" t="s">
         <v>402</v>
       </c>
+      <c r="AJ131" s="4"/>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -15054,11 +15768,14 @@
       <c r="AH132" t="s">
         <v>253</v>
       </c>
-      <c r="AI132" t="s">
+      <c r="AI132" s="4" t="s">
         <v>391</v>
       </c>
+      <c r="AJ132" s="4" t="s">
+        <v>482</v>
+      </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -15158,8 +15875,10 @@
       <c r="AG133">
         <v>117.37</v>
       </c>
+      <c r="AI133" s="4"/>
+      <c r="AJ133" s="4"/>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -15262,11 +15981,14 @@
       <c r="AH134" t="s">
         <v>256</v>
       </c>
-      <c r="AI134" t="s">
+      <c r="AI134" s="4" t="s">
         <v>424</v>
       </c>
+      <c r="AJ134" s="4" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -15312,8 +16034,10 @@
       <c r="O135">
         <v>2501.13</v>
       </c>
+      <c r="AI135" s="4"/>
+      <c r="AJ135" s="4"/>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -15416,8 +16140,12 @@
       <c r="AH136" t="s">
         <v>257</v>
       </c>
+      <c r="AI136" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ136" s="4"/>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>34</v>
       </c>
@@ -15499,8 +16227,10 @@
       <c r="AA137">
         <v>120.51</v>
       </c>
+      <c r="AI137" s="4"/>
+      <c r="AJ137" s="4"/>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -15603,11 +16333,12 @@
       <c r="AH138" t="s">
         <v>260</v>
       </c>
-      <c r="AI138" t="s">
+      <c r="AI138" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="AJ138" s="4"/>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -15710,11 +16441,14 @@
       <c r="AH139" t="s">
         <v>262</v>
       </c>
-      <c r="AI139" t="s">
+      <c r="AI139" s="4" t="s">
         <v>262</v>
       </c>
+      <c r="AJ139" s="4" t="s">
+        <v>495</v>
+      </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -15817,8 +16551,14 @@
       <c r="AH140" t="s">
         <v>263</v>
       </c>
+      <c r="AI140" s="4">
+        <v>119.1</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>34</v>
       </c>
@@ -15921,8 +16661,10 @@
       <c r="AH141" t="s">
         <v>264</v>
       </c>
+      <c r="AI141" s="4"/>
+      <c r="AJ141" s="4"/>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>34</v>
       </c>
@@ -16022,8 +16764,15 @@
       <c r="AG142" t="s">
         <v>265</v>
       </c>
+      <c r="AH142">
+        <v>120.5</v>
+      </c>
+      <c r="AI142" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ142" s="4"/>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -16123,8 +16872,10 @@
       <c r="AG143" t="s">
         <v>266</v>
       </c>
+      <c r="AI143" s="4"/>
+      <c r="AJ143" s="4"/>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>34</v>
       </c>
@@ -16227,8 +16978,14 @@
       <c r="AH144" t="s">
         <v>267</v>
       </c>
+      <c r="AI144" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AJ144" s="4" t="s">
+        <v>503</v>
+      </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>34</v>
       </c>
@@ -16331,8 +17088,12 @@
       <c r="AH145" t="s">
         <v>270</v>
       </c>
+      <c r="AI145" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AJ145" s="4"/>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -16435,11 +17196,14 @@
       <c r="AH146" t="s">
         <v>271</v>
       </c>
-      <c r="AI146" t="s">
+      <c r="AI146" s="4" t="s">
         <v>358</v>
       </c>
+      <c r="AJ146" s="4" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -16542,11 +17306,14 @@
       <c r="AH147" t="s">
         <v>272</v>
       </c>
-      <c r="AI147" t="s">
+      <c r="AI147" s="4" t="s">
         <v>272</v>
       </c>
+      <c r="AJ147" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -16649,11 +17416,12 @@
       <c r="AH148" t="s">
         <v>274</v>
       </c>
-      <c r="AI148" t="s">
+      <c r="AI148" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="AJ148" s="4"/>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -16756,11 +17524,14 @@
       <c r="AH149" t="s">
         <v>275</v>
       </c>
-      <c r="AI149" t="s">
+      <c r="AI149" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="AJ149" s="4" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -16860,8 +17631,10 @@
       <c r="AG150">
         <v>111.36</v>
       </c>
+      <c r="AI150" s="4"/>
+      <c r="AJ150" s="4"/>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -16964,11 +17737,14 @@
       <c r="AH151" t="s">
         <v>278</v>
       </c>
-      <c r="AI151" t="s">
+      <c r="AI151" s="4" t="s">
         <v>425</v>
       </c>
+      <c r="AJ151" s="4" t="s">
+        <v>425</v>
+      </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -17014,8 +17790,10 @@
       <c r="O152">
         <v>448.23</v>
       </c>
+      <c r="AI152" s="4"/>
+      <c r="AJ152" s="4"/>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -17118,8 +17896,12 @@
       <c r="AH153" t="s">
         <v>279</v>
       </c>
+      <c r="AI153" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ153" s="4"/>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -17201,8 +17983,10 @@
       <c r="AA154">
         <v>101.75</v>
       </c>
+      <c r="AI154" s="4"/>
+      <c r="AJ154" s="4"/>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -17305,11 +18089,12 @@
       <c r="AH155" t="s">
         <v>282</v>
       </c>
-      <c r="AI155" t="s">
+      <c r="AI155" s="4" t="s">
         <v>436</v>
       </c>
+      <c r="AJ155" s="4"/>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -17412,11 +18197,14 @@
       <c r="AH156" t="s">
         <v>284</v>
       </c>
-      <c r="AI156" t="s">
+      <c r="AI156" s="4" t="s">
         <v>375</v>
       </c>
+      <c r="AJ156" s="4" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -17519,8 +18307,14 @@
       <c r="AH157" t="s">
         <v>285</v>
       </c>
+      <c r="AI157" s="4">
+        <v>109.3</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -17623,8 +18417,10 @@
       <c r="AH158" t="s">
         <v>212</v>
       </c>
+      <c r="AI158" s="4"/>
+      <c r="AJ158" s="4"/>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>34</v>
       </c>
@@ -17724,8 +18520,15 @@
       <c r="AG159" t="s">
         <v>287</v>
       </c>
+      <c r="AH159">
+        <v>123.7</v>
+      </c>
+      <c r="AI159" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AJ159" s="4"/>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>34</v>
       </c>
@@ -17825,8 +18628,10 @@
       <c r="AG160" t="s">
         <v>288</v>
       </c>
+      <c r="AI160" s="4"/>
+      <c r="AJ160" s="4"/>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -17929,8 +18734,14 @@
       <c r="AH161" t="s">
         <v>292</v>
       </c>
+      <c r="AI161" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AJ161" s="4" t="s">
+        <v>504</v>
+      </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>34</v>
       </c>
@@ -18033,8 +18844,12 @@
       <c r="AH162" t="s">
         <v>295</v>
       </c>
+      <c r="AI162" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ162" s="4"/>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>34</v>
       </c>
@@ -18137,11 +18952,14 @@
       <c r="AH163" t="s">
         <v>383</v>
       </c>
-      <c r="AI163" t="s">
+      <c r="AI163" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="AJ163" s="4" t="s">
+        <v>513</v>
+      </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -18244,11 +19062,14 @@
       <c r="AH164" t="s">
         <v>298</v>
       </c>
-      <c r="AI164" t="s">
+      <c r="AI164" s="4" t="s">
         <v>410</v>
       </c>
+      <c r="AJ164" t="s">
+        <v>535</v>
+      </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -18351,11 +19172,12 @@
       <c r="AH165" t="s">
         <v>300</v>
       </c>
-      <c r="AI165" t="s">
+      <c r="AI165" s="4" t="s">
         <v>404</v>
       </c>
+      <c r="AJ165" s="4"/>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>34</v>
       </c>
@@ -18458,11 +19280,14 @@
       <c r="AH166" t="s">
         <v>301</v>
       </c>
-      <c r="AI166" t="s">
+      <c r="AI166" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="AJ166" s="4" t="s">
+        <v>483</v>
+      </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -18562,8 +19387,10 @@
       <c r="AG167">
         <v>105.81</v>
       </c>
+      <c r="AI167" s="4"/>
+      <c r="AJ167" s="4"/>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -18666,11 +19493,14 @@
       <c r="AH168" t="s">
         <v>304</v>
       </c>
-      <c r="AI168" t="s">
+      <c r="AI168" s="4" t="s">
         <v>426</v>
       </c>
+      <c r="AJ168" s="4" t="s">
+        <v>523</v>
+      </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>34</v>
       </c>
@@ -18716,8 +19546,10 @@
       <c r="O169">
         <v>3633.18</v>
       </c>
+      <c r="AI169" s="4"/>
+      <c r="AJ169" s="4"/>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>34</v>
       </c>
@@ -18820,8 +19652,12 @@
       <c r="AH170" t="s">
         <v>305</v>
       </c>
+      <c r="AI170" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ170" s="4"/>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -18903,8 +19739,10 @@
       <c r="AA171">
         <v>102.73</v>
       </c>
+      <c r="AI171" s="4"/>
+      <c r="AJ171" s="4"/>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>34</v>
       </c>
@@ -19007,11 +19845,12 @@
       <c r="AH172" t="s">
         <v>296</v>
       </c>
-      <c r="AI172" t="s">
+      <c r="AI172" s="4" t="s">
         <v>296</v>
       </c>
+      <c r="AJ172" s="4"/>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>34</v>
       </c>
@@ -19114,11 +19953,14 @@
       <c r="AH173" t="s">
         <v>307</v>
       </c>
-      <c r="AI173" t="s">
+      <c r="AI173" s="4" t="s">
         <v>307</v>
       </c>
+      <c r="AJ173" s="4" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>34</v>
       </c>
@@ -19221,8 +20063,14 @@
       <c r="AH174" t="s">
         <v>308</v>
       </c>
+      <c r="AI174" s="4">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>530</v>
+      </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>34</v>
       </c>
@@ -19325,8 +20173,10 @@
       <c r="AH175" t="s">
         <v>309</v>
       </c>
+      <c r="AI175" s="4"/>
+      <c r="AJ175" s="4"/>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>34</v>
       </c>
@@ -19426,8 +20276,15 @@
       <c r="AG176" t="s">
         <v>110</v>
       </c>
+      <c r="AH176">
+        <v>125</v>
+      </c>
+      <c r="AI176" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ176" s="4"/>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>34</v>
       </c>
@@ -19527,8 +20384,10 @@
       <c r="AG177" t="s">
         <v>310</v>
       </c>
+      <c r="AI177" s="4"/>
+      <c r="AJ177" s="4"/>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>34</v>
       </c>
@@ -19631,8 +20490,14 @@
       <c r="AH178" t="s">
         <v>311</v>
       </c>
+      <c r="AI178" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ178" s="4" t="s">
+        <v>505</v>
+      </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -19735,8 +20600,12 @@
       <c r="AH179" t="s">
         <v>314</v>
       </c>
+      <c r="AI179" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="AJ179" s="4"/>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>34</v>
       </c>
@@ -19839,11 +20708,14 @@
       <c r="AH180" t="s">
         <v>99</v>
       </c>
-      <c r="AI180" t="s">
+      <c r="AI180" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="AJ180" s="4" t="s">
+        <v>514</v>
+      </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>34</v>
       </c>
@@ -19946,11 +20818,14 @@
       <c r="AH181" t="s">
         <v>315</v>
       </c>
-      <c r="AI181" t="s">
+      <c r="AI181" s="4" t="s">
         <v>315</v>
       </c>
+      <c r="AJ181" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>34</v>
       </c>
@@ -20053,11 +20928,12 @@
       <c r="AH182" t="s">
         <v>316</v>
       </c>
-      <c r="AI182" t="s">
+      <c r="AI182" s="4" t="s">
         <v>316</v>
       </c>
+      <c r="AJ182" s="4"/>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>34</v>
       </c>
@@ -20160,11 +21036,14 @@
       <c r="AH183" t="s">
         <v>317</v>
       </c>
-      <c r="AI183" t="s">
+      <c r="AI183" s="4" t="s">
         <v>393</v>
       </c>
+      <c r="AJ183" s="4" t="s">
+        <v>484</v>
+      </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -20264,8 +21143,10 @@
       <c r="AG184">
         <v>99.78</v>
       </c>
+      <c r="AI184" s="4"/>
+      <c r="AJ184" s="4"/>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -20368,11 +21249,14 @@
       <c r="AH185" t="s">
         <v>320</v>
       </c>
-      <c r="AI185" t="s">
+      <c r="AI185" s="4" t="s">
         <v>427</v>
       </c>
+      <c r="AJ185" s="4" t="s">
+        <v>524</v>
+      </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>34</v>
       </c>
@@ -20418,8 +21302,10 @@
       <c r="O186">
         <v>1145.24</v>
       </c>
+      <c r="AI186" s="4"/>
+      <c r="AJ186" s="4"/>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>34</v>
       </c>
@@ -20522,8 +21408,12 @@
       <c r="AH187" t="s">
         <v>321</v>
       </c>
+      <c r="AI187" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ187" s="4"/>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>34</v>
       </c>
@@ -20605,8 +21495,10 @@
       <c r="AA188">
         <v>120.79</v>
       </c>
+      <c r="AI188" s="4"/>
+      <c r="AJ188" s="4"/>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>34</v>
       </c>
@@ -20709,11 +21601,12 @@
       <c r="AH189" t="s">
         <v>323</v>
       </c>
-      <c r="AI189" t="s">
+      <c r="AI189" s="4" t="s">
         <v>437</v>
       </c>
+      <c r="AJ189" s="4"/>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>34</v>
       </c>
@@ -20816,11 +21709,14 @@
       <c r="AH190" t="s">
         <v>325</v>
       </c>
-      <c r="AI190" t="s">
+      <c r="AI190" s="4" t="s">
         <v>376</v>
       </c>
+      <c r="AJ190" s="4" t="s">
+        <v>497</v>
+      </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>34</v>
       </c>
@@ -20923,8 +21819,14 @@
       <c r="AH191" t="s">
         <v>326</v>
       </c>
+      <c r="AI191" s="4">
+        <v>126.7</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>328</v>
+      </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>34</v>
       </c>
@@ -21027,8 +21929,10 @@
       <c r="AH192" t="s">
         <v>327</v>
       </c>
+      <c r="AI192" s="4"/>
+      <c r="AJ192" s="4"/>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>34</v>
       </c>
@@ -21128,8 +22032,15 @@
       <c r="AG193" t="s">
         <v>328</v>
       </c>
+      <c r="AH193">
+        <v>126.9</v>
+      </c>
+      <c r="AI193" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ193" s="4"/>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -21229,8 +22140,10 @@
       <c r="AG194" t="s">
         <v>329</v>
       </c>
+      <c r="AI194" s="4"/>
+      <c r="AJ194" s="4"/>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>34</v>
       </c>
@@ -21333,8 +22246,14 @@
       <c r="AH195" t="s">
         <v>215</v>
       </c>
+      <c r="AI195" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ195" s="4" t="s">
+        <v>506</v>
+      </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>34</v>
       </c>
@@ -21437,8 +22356,12 @@
       <c r="AH196" t="s">
         <v>333</v>
       </c>
+      <c r="AI196" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ196" s="4"/>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -21541,11 +22464,14 @@
       <c r="AH197" t="s">
         <v>381</v>
       </c>
-      <c r="AI197" t="s">
+      <c r="AI197" s="4" t="s">
         <v>232</v>
       </c>
+      <c r="AJ197" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -21648,11 +22574,14 @@
       <c r="AH198" t="s">
         <v>334</v>
       </c>
-      <c r="AI198" t="s">
+      <c r="AI198" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="AJ198" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -21755,11 +22684,12 @@
       <c r="AH199" t="s">
         <v>338</v>
       </c>
-      <c r="AI199" t="s">
+      <c r="AI199" s="4" t="s">
         <v>405</v>
       </c>
+      <c r="AJ199" s="4"/>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -21862,11 +22792,14 @@
       <c r="AH200" t="s">
         <v>339</v>
       </c>
-      <c r="AI200" t="s">
+      <c r="AI200" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="AJ200" s="4" t="s">
+        <v>485</v>
+      </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -21966,8 +22899,10 @@
       <c r="AG201">
         <v>117.67</v>
       </c>
+      <c r="AI201" s="4"/>
+      <c r="AJ201" s="4"/>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>34</v>
       </c>
@@ -22070,11 +23005,14 @@
       <c r="AH202" t="s">
         <v>342</v>
       </c>
-      <c r="AI202" t="s">
+      <c r="AI202" s="4" t="s">
         <v>428</v>
       </c>
+      <c r="AJ202" s="4" t="s">
+        <v>525</v>
+      </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>34</v>
       </c>
@@ -22120,8 +23058,10 @@
       <c r="O203">
         <v>16324.87</v>
       </c>
+      <c r="AI203" s="4"/>
+      <c r="AJ203" s="4"/>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>34</v>
       </c>
@@ -22224,8 +23164,12 @@
       <c r="AH204" t="s">
         <v>343</v>
       </c>
+      <c r="AI204" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ204" s="4"/>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>34</v>
       </c>
@@ -22307,8 +23251,10 @@
       <c r="AA205">
         <v>117.96</v>
       </c>
+      <c r="AI205" s="4"/>
+      <c r="AJ205" s="4"/>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>34</v>
       </c>
@@ -22411,11 +23357,12 @@
       <c r="AH206" t="s">
         <v>345</v>
       </c>
-      <c r="AI206" t="s">
+      <c r="AI206" s="4" t="s">
         <v>438</v>
       </c>
+      <c r="AJ206" s="4"/>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>34</v>
       </c>
@@ -22518,11 +23465,14 @@
       <c r="AH207" t="s">
         <v>347</v>
       </c>
-      <c r="AI207" t="s">
+      <c r="AI207" s="4" t="s">
         <v>377</v>
       </c>
+      <c r="AJ207" s="4" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>34</v>
       </c>
@@ -22625,8 +23575,14 @@
       <c r="AH208" t="s">
         <v>348</v>
       </c>
+      <c r="AI208" s="4">
+        <v>142.1</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>531</v>
+      </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>34</v>
       </c>
@@ -22729,8 +23685,10 @@
       <c r="AH209" t="s">
         <v>350</v>
       </c>
+      <c r="AI209" s="4"/>
+      <c r="AJ209" s="4"/>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -22830,8 +23788,15 @@
       <c r="AG210" t="s">
         <v>157</v>
       </c>
+      <c r="AH210">
+        <v>122.2</v>
+      </c>
+      <c r="AI210" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ210" s="4"/>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -22931,8 +23896,10 @@
       <c r="AG211" t="s">
         <v>351</v>
       </c>
+      <c r="AI211" s="4"/>
+      <c r="AJ211" s="4"/>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>34</v>
       </c>
@@ -23035,8 +24002,14 @@
       <c r="AH212" t="s">
         <v>354</v>
       </c>
+      <c r="AI212" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AJ212" s="4" t="s">
+        <v>507</v>
+      </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>34</v>
       </c>
@@ -23139,8 +24112,12 @@
       <c r="AH213" t="s">
         <v>357</v>
       </c>
+      <c r="AI213" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AJ213" s="4"/>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>34</v>
       </c>
@@ -23243,11 +24220,14 @@
       <c r="AH214" t="s">
         <v>98</v>
       </c>
-      <c r="AI214" t="s">
+      <c r="AI214" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="AJ214" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>34</v>
       </c>
@@ -23350,11 +24330,14 @@
       <c r="AH215" t="s">
         <v>261</v>
       </c>
-      <c r="AI215" t="s">
+      <c r="AI215" s="4" t="s">
         <v>411</v>
       </c>
+      <c r="AJ215" t="s">
+        <v>261</v>
+      </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -23457,11 +24440,12 @@
       <c r="AH216" t="s">
         <v>361</v>
       </c>
-      <c r="AI216" t="s">
+      <c r="AI216" s="4" t="s">
         <v>406</v>
       </c>
+      <c r="AJ216" s="4"/>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>34</v>
       </c>
@@ -23564,11 +24548,14 @@
       <c r="AH217" t="s">
         <v>362</v>
       </c>
-      <c r="AI217" t="s">
+      <c r="AI217" s="4" t="s">
         <v>395</v>
       </c>
+      <c r="AJ217" s="4" t="s">
+        <v>486</v>
+      </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>34</v>
       </c>
@@ -23668,8 +24655,10 @@
       <c r="AG218">
         <v>108.66</v>
       </c>
+      <c r="AI218" s="4"/>
+      <c r="AJ218" s="4"/>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -23772,11 +24761,14 @@
       <c r="AH219" t="s">
         <v>365</v>
       </c>
-      <c r="AI219" t="s">
+      <c r="AI219" s="4" t="s">
         <v>429</v>
       </c>
+      <c r="AJ219" s="4" t="s">
+        <v>526</v>
+      </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -23822,8 +24814,9 @@
       <c r="O220">
         <v>3362.99</v>
       </c>
+      <c r="AI220" s="4"/>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -23926,8 +24919,11 @@
       <c r="AH221" t="s">
         <v>366</v>
       </c>
+      <c r="AI221" s="4" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -24011,8 +25007,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI222" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>